--- a/the_word.xlsx
+++ b/the_word.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linyuxiang/Desktop/code/Learning_Japanese/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56ECC84-DECC-8E43-BDCA-987E9C9320E2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D24B8F-BE37-4D49-B58E-7CCE0885389D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="460" windowWidth="27760" windowHeight="16080" xr2:uid="{60B39602-CA03-F040-8524-C5DD9C0222AC}"/>
+    <workbookView xWindow="1760" yWindow="460" windowWidth="26740" windowHeight="16080" xr2:uid="{60B39602-CA03-F040-8524-C5DD9C0222AC}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表4" sheetId="4" r:id="rId2"/>
-    <sheet name="工作表2" sheetId="2" r:id="rId3"/>
+    <sheet name="單字" sheetId="1" r:id="rId1"/>
+    <sheet name="片語" sheetId="2" r:id="rId2"/>
+    <sheet name="量詞" sheetId="5" r:id="rId3"/>
+    <sheet name="工作表1" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,6 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="1166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="1238">
   <si>
     <t>あし</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3035,65 +3037,38 @@
   </si>
   <si>
     <t>としょかん</t>
-  </si>
-  <si>
-    <t>としょかん</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>図書館</t>
-  </si>
-  <si>
-    <t>図書館</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>圖書館</t>
-  </si>
-  <si>
-    <t>圖書館</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>用功</t>
-  </si>
-  <si>
-    <t>用功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>勉強</t>
-  </si>
-  <si>
-    <t>勉強</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>べんきょう</t>
-  </si>
-  <si>
-    <t>べんきょう</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>きょう</t>
-  </si>
-  <si>
-    <t>きょう</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>映画</t>
-  </si>
-  <si>
-    <t>映画</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>えいが</t>
-  </si>
-  <si>
-    <t>えいが</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3102,51 +3077,30 @@
   </si>
   <si>
     <t>今晚</t>
-  </si>
-  <si>
-    <t>今晚</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>今晩</t>
-  </si>
-  <si>
-    <t>今晩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>こんばん</t>
-  </si>
-  <si>
-    <t>こんばん</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>電車</t>
-  </si>
-  <si>
-    <t>電車</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>でんしゃ</t>
-  </si>
-  <si>
-    <t>でんしゃ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>バイク</t>
-  </si>
-  <si>
-    <t>バイク</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>bike</t>
-  </si>
-  <si>
-    <t>bike</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3159,397 +3113,29 @@
   </si>
   <si>
     <t>摩托車</t>
-  </si>
-  <si>
-    <t>摩托車</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>まいにち</t>
-  </si>
-  <si>
-    <t>まいにち</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>毎日</t>
-  </si>
-  <si>
-    <t>毎日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>每天</t>
-  </si>
-  <si>
-    <t>每天</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>アルバイト</t>
-  </si>
-  <si>
-    <t>アルバイト</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上午</t>
-  </si>
-  <si>
-    <t>早上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>department</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>明天</t>
-  </si>
-  <si>
-    <t>明日</t>
-  </si>
-  <si>
-    <t>郵局</t>
-  </si>
-  <si>
-    <t>郵便局</t>
-  </si>
-  <si>
-    <t>晚間</t>
-  </si>
-  <si>
-    <t>晩</t>
-  </si>
-  <si>
-    <t>時間</t>
-  </si>
-  <si>
-    <t>～時間之前</t>
-  </si>
-  <si>
-    <t>前</t>
-  </si>
-  <si>
-    <t>早起</t>
-  </si>
-  <si>
-    <t>早起き</t>
-  </si>
-  <si>
-    <t>中午</t>
-  </si>
-  <si>
-    <t>昼</t>
-  </si>
-  <si>
-    <t>公車</t>
-  </si>
-  <si>
-    <t>bus</t>
-  </si>
-  <si>
-    <t>新幹線</t>
-  </si>
-  <si>
-    <t>下午</t>
-  </si>
-  <si>
-    <t>午後</t>
-  </si>
-  <si>
-    <t>上課</t>
-  </si>
-  <si>
-    <t>授業</t>
-  </si>
-  <si>
-    <t>到～</t>
-  </si>
-  <si>
-    <t>まで</t>
-  </si>
-  <si>
-    <t>今天</t>
-  </si>
-  <si>
-    <t>今日</t>
-  </si>
-  <si>
-    <t>車站</t>
-  </si>
-  <si>
-    <t>駅</t>
-  </si>
-  <si>
-    <t>地下鐵</t>
-  </si>
-  <si>
-    <t>地下鉄</t>
-  </si>
-  <si>
-    <t>吃</t>
-  </si>
-  <si>
-    <t>食べます</t>
-  </si>
-  <si>
-    <t>働きます</t>
-  </si>
-  <si>
-    <t>中飯</t>
-  </si>
-  <si>
-    <t>昼御飯</t>
-  </si>
-  <si>
-    <t>幾點</t>
-  </si>
-  <si>
-    <t>何時</t>
-  </si>
-  <si>
-    <t>看</t>
-  </si>
-  <si>
-    <t>見ます</t>
-  </si>
-  <si>
-    <t>仕事</t>
-  </si>
-  <si>
-    <t>睡覺</t>
-  </si>
-  <si>
-    <t>寝ます</t>
-  </si>
-  <si>
-    <t>我（男子自稱時）</t>
-  </si>
-  <si>
-    <t>僕</t>
-  </si>
-  <si>
-    <t>過了～</t>
-  </si>
-  <si>
-    <t>過ぎ</t>
-  </si>
-  <si>
-    <t>早飯</t>
-  </si>
-  <si>
-    <t>朝御飯</t>
-  </si>
-  <si>
-    <t>起床</t>
-  </si>
-  <si>
-    <t>おきます</t>
-  </si>
-  <si>
-    <t>學校</t>
-  </si>
-  <si>
-    <t>学校</t>
-  </si>
-  <si>
-    <t>朝</t>
-  </si>
-  <si>
-    <t>夜</t>
-  </si>
-  <si>
-    <t>去</t>
-  </si>
-  <si>
-    <t>行きます</t>
-  </si>
-  <si>
-    <t>回家</t>
-  </si>
-  <si>
-    <t>TV</t>
-  </si>
-  <si>
-    <t>醫院</t>
-  </si>
-  <si>
-    <t>每天早上</t>
-  </si>
-  <si>
-    <t>毎朝</t>
-  </si>
-  <si>
-    <t>然後</t>
-  </si>
-  <si>
-    <t>そして</t>
-  </si>
-  <si>
-    <t>已經</t>
-  </si>
-  <si>
-    <t>もう</t>
-  </si>
-  <si>
-    <t>從</t>
-  </si>
-  <si>
-    <t>から</t>
-  </si>
-  <si>
-    <t>打工</t>
-  </si>
-  <si>
-    <t>arbeit</t>
-  </si>
-  <si>
-    <t>約定</t>
-  </si>
-  <si>
-    <t>約束</t>
-  </si>
-  <si>
-    <t>（い形）遲了，慢</t>
-  </si>
-  <si>
-    <t>遅い</t>
-  </si>
-  <si>
-    <t>遲到</t>
-  </si>
-  <si>
-    <t>遅刻</t>
-  </si>
-  <si>
-    <t>剛好</t>
-  </si>
-  <si>
-    <t>丁度</t>
-  </si>
-  <si>
-    <t>午前</t>
-  </si>
-  <si>
-    <t>現在</t>
-  </si>
-  <si>
-    <t>今</t>
-  </si>
-  <si>
-    <t>ゆうびんきょく</t>
-  </si>
-  <si>
-    <t>ばん</t>
-  </si>
-  <si>
-    <t>じかん</t>
-  </si>
-  <si>
-    <t>まえ</t>
-  </si>
-  <si>
-    <t>はやおき</t>
-  </si>
-  <si>
-    <t>ひる</t>
-  </si>
-  <si>
-    <t>バス</t>
-  </si>
-  <si>
-    <t>しんかんせん</t>
-  </si>
-  <si>
-    <t>ごご</t>
-  </si>
-  <si>
-    <t>じゅぎょう</t>
-  </si>
-  <si>
-    <t>えき</t>
-  </si>
-  <si>
-    <t>ちかてつ</t>
-  </si>
-  <si>
-    <t>たべます</t>
-  </si>
-  <si>
-    <t>はたらきます</t>
-  </si>
-  <si>
-    <t>ひるごはん</t>
-  </si>
-  <si>
-    <t>なんじ</t>
-  </si>
-  <si>
-    <t>みます</t>
-  </si>
-  <si>
-    <t>しごと</t>
-  </si>
-  <si>
-    <t>ねます</t>
-  </si>
-  <si>
-    <t>ぼく</t>
-  </si>
-  <si>
-    <t>すぎ</t>
-  </si>
-  <si>
-    <t>あさごはん</t>
-  </si>
-  <si>
-    <t>がっこう</t>
-  </si>
-  <si>
-    <t>あさ</t>
-  </si>
-  <si>
-    <t>よる</t>
-  </si>
-  <si>
-    <t>いきます</t>
-  </si>
-  <si>
-    <t>かえります</t>
-  </si>
-  <si>
-    <t>びょういん</t>
-  </si>
-  <si>
-    <t>まいあさ</t>
-  </si>
-  <si>
-    <t>やくそく</t>
-  </si>
-  <si>
-    <t>おそい</t>
-  </si>
-  <si>
-    <t>ちこく</t>
-  </si>
-  <si>
-    <t>ちょうど</t>
-  </si>
-  <si>
-    <t>ごぜん</t>
-  </si>
-  <si>
-    <t>いま</t>
-  </si>
-  <si>
-    <t>(n)工作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(v)工作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lesson4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4419,6 +4005,808 @@
   </si>
   <si>
     <t>起きます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>コーヒー</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いくら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あつい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>メロン</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>みかん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ビール</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あちら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>やさい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>メニュー</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こうちゃ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うーろんちゃ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>カメラ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>りんご</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>フィルム</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>アイスクリーム</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coffee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暑い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>みせ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>melon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>野菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紅茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ウーロン茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>camera</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林檎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>film</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奢り</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おごり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多少錢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈密瓜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橘子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啤酒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那邊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔬菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜單</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烏龍茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>照相機</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘋果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰淇淋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>請客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ice-cream</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひとつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふたつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>みっつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>よっつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いつつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>むっつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ななつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>やっつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ここのつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とお</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いっこ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>にこ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さんこ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>よんこ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ごこ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ろっこ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ななこ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はっこ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きゅうこ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゅっこ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゅういっこ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tsu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ko</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biki</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>satsu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ji</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jikan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zoku</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひとり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふたり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さんにん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>よにん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ごにん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ろくにん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ななにん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はちにん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きゅうにん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゅうにん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゅういちにん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いっぴき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>にひき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さんびき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>よんひき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ごひき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ろっぴき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ななひき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はっぴき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きゅうひき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゅっぴき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゅういっぴき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>靴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いちまい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>にまい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さんまい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>よんまい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ごまい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ろくまい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ななまい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はちまい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きゅうまい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゅうまい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゅういちまい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lesson6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四月</t>
+  </si>
+  <si>
+    <t>五月</t>
+  </si>
+  <si>
+    <t>六月</t>
+  </si>
+  <si>
+    <t>七月</t>
+  </si>
+  <si>
+    <t>八月</t>
+  </si>
+  <si>
+    <t>九月</t>
+  </si>
+  <si>
+    <t>十月</t>
+  </si>
+  <si>
+    <t>十一月</t>
+  </si>
+  <si>
+    <t>十二月</t>
+  </si>
+  <si>
+    <t>1日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3日</t>
+  </si>
+  <si>
+    <t>4日</t>
+  </si>
+  <si>
+    <t>5日</t>
+  </si>
+  <si>
+    <t>6日</t>
+  </si>
+  <si>
+    <t>7日</t>
+  </si>
+  <si>
+    <t>8日</t>
+  </si>
+  <si>
+    <t>9日</t>
+  </si>
+  <si>
+    <t>10日</t>
+  </si>
+  <si>
+    <t>11日</t>
+  </si>
+  <si>
+    <t>12日</t>
+  </si>
+  <si>
+    <t>13日</t>
+  </si>
+  <si>
+    <t>14日</t>
+  </si>
+  <si>
+    <t>15日</t>
+  </si>
+  <si>
+    <t>16日</t>
+  </si>
+  <si>
+    <t>17日</t>
+  </si>
+  <si>
+    <t>18日</t>
+  </si>
+  <si>
+    <t>19日</t>
+  </si>
+  <si>
+    <t>20日</t>
+  </si>
+  <si>
+    <t>21日</t>
+  </si>
+  <si>
+    <t>22日</t>
+  </si>
+  <si>
+    <t>23日</t>
+  </si>
+  <si>
+    <t>24日</t>
+  </si>
+  <si>
+    <t>25日</t>
+  </si>
+  <si>
+    <t>26日</t>
+  </si>
+  <si>
+    <t>27日</t>
+  </si>
+  <si>
+    <t>28日</t>
+  </si>
+  <si>
+    <t>29日</t>
+  </si>
+  <si>
+    <t>30日</t>
+  </si>
+  <si>
+    <t>31日</t>
+  </si>
+  <si>
+    <t>いちがつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>にがつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さんがつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しがつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ごがつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ろくがつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しちがつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はちがつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くがつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゅうがつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゅういちがつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゅうにがつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ついたち</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふつか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>みっか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>よっか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いつか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>むいか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なのか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ようか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ここのか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とおか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゅういちにち</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゅうににち</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゅうさんにち</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゅうよっか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゅうごにち</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゅうろくにち</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゅうしちにち</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゅうはちにち</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゅうくにち</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はつか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>にじゅういちにち</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>にじゅうににち</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>にじゅうさんにち</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>にじゅうよっか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>にじゅうごにち</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>にじゅうろくにち</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>にじゅうしちにち</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>にじゅうはちにち</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>にじゅうくにち</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さんじゅうにち</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さんじゅういちにち</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>やすみ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>テスト</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>デート</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しゃしん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>だいがくさい</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4795,18 +5183,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D03D34A-BA0A-4C4B-8E51-02C16EDC5D6C}">
-  <dimension ref="A1:AT70"/>
+  <dimension ref="A1:BH70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X21" zoomScale="183" zoomScaleNormal="222" workbookViewId="0">
-      <selection activeCell="AE29" sqref="AE29"/>
+    <sheetView tabSelected="1" topLeftCell="AW2" zoomScale="183" zoomScaleNormal="222" workbookViewId="0">
+      <selection activeCell="AW7" sqref="AW7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="29" max="29" width="16.83203125" customWidth="1"/>
+    <col min="56" max="56" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46">
+    <row r="1" spans="1:60">
       <c r="A1" t="s">
         <v>504</v>
       </c>
@@ -4895,16 +5284,16 @@
         <v>0</v>
       </c>
       <c r="AH1" t="s">
-        <v>948</v>
+        <v>810</v>
       </c>
       <c r="AI1" t="s">
-        <v>949</v>
+        <v>811</v>
       </c>
       <c r="AJ1" t="s">
-        <v>1000</v>
+        <v>862</v>
       </c>
       <c r="AK1" t="s">
-        <v>950</v>
+        <v>812</v>
       </c>
       <c r="AL1">
         <v>0</v>
@@ -4913,16 +5302,16 @@
         <v>1</v>
       </c>
       <c r="AO1" t="s">
-        <v>1102</v>
+        <v>964</v>
       </c>
       <c r="AP1" t="s">
-        <v>1103</v>
+        <v>965</v>
       </c>
       <c r="AQ1" t="s">
-        <v>1104</v>
+        <v>966</v>
       </c>
       <c r="AR1" t="s">
-        <v>1104</v>
+        <v>966</v>
       </c>
       <c r="AS1">
         <v>0</v>
@@ -4930,8 +5319,38 @@
       <c r="AT1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:46">
+      <c r="AV1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>737</v>
+      </c>
+      <c r="AZ1">
+        <v>0</v>
+      </c>
+      <c r="BA1">
+        <v>1</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="BG1">
+        <v>3</v>
+      </c>
+      <c r="BH1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:60">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -4996,13 +5415,13 @@
         <v>0</v>
       </c>
       <c r="AI2" t="s">
-        <v>951</v>
+        <v>813</v>
       </c>
       <c r="AJ2" t="s">
-        <v>1001</v>
+        <v>863</v>
       </c>
       <c r="AK2" t="s">
-        <v>952</v>
+        <v>814</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -5011,13 +5430,13 @@
         <v>2</v>
       </c>
       <c r="AP2" t="s">
-        <v>1105</v>
+        <v>967</v>
       </c>
       <c r="AQ2" t="s">
-        <v>1144</v>
+        <v>1006</v>
       </c>
       <c r="AR2" t="s">
-        <v>1106</v>
+        <v>968</v>
       </c>
       <c r="AS2">
         <v>0</v>
@@ -5025,8 +5444,26 @@
       <c r="AT2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:46">
+      <c r="AW2" t="s">
+        <v>1233</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>1191</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>1148</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>1148</v>
+      </c>
+      <c r="BG2">
+        <v>3</v>
+      </c>
+      <c r="BH2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:60">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -5094,13 +5531,13 @@
         <v>0</v>
       </c>
       <c r="AI3" t="s">
-        <v>953</v>
+        <v>815</v>
       </c>
       <c r="AJ3" t="s">
-        <v>1002</v>
+        <v>864</v>
       </c>
       <c r="AK3" t="s">
-        <v>954</v>
+        <v>816</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -5109,13 +5546,13 @@
         <v>3</v>
       </c>
       <c r="AP3" t="s">
-        <v>1129</v>
+        <v>991</v>
       </c>
       <c r="AQ3" t="s">
-        <v>1145</v>
+        <v>1007</v>
       </c>
       <c r="AR3" t="s">
-        <v>1107</v>
+        <v>969</v>
       </c>
       <c r="AS3">
         <v>0</v>
@@ -5123,8 +5560,26 @@
       <c r="AT3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:46">
+      <c r="AW3" t="s">
+        <v>1234</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>1192</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>1149</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>1149</v>
+      </c>
+      <c r="BG3">
+        <v>3</v>
+      </c>
+      <c r="BH3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:60">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -5192,13 +5647,13 @@
         <v>0</v>
       </c>
       <c r="AI4" t="s">
-        <v>955</v>
+        <v>817</v>
       </c>
       <c r="AJ4" t="s">
-        <v>1003</v>
+        <v>865</v>
       </c>
       <c r="AK4" t="s">
-        <v>956</v>
+        <v>818</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -5207,13 +5662,13 @@
         <v>4</v>
       </c>
       <c r="AP4" t="s">
-        <v>1130</v>
+        <v>992</v>
       </c>
       <c r="AQ4" t="s">
-        <v>1108</v>
+        <v>970</v>
       </c>
       <c r="AR4" t="s">
-        <v>1108</v>
+        <v>970</v>
       </c>
       <c r="AS4">
         <v>0</v>
@@ -5221,8 +5676,26 @@
       <c r="AT4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:46">
+      <c r="AW4" t="s">
+        <v>1235</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>1193</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>1150</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>1150</v>
+      </c>
+      <c r="BG4">
+        <v>1</v>
+      </c>
+      <c r="BH4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:60">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -5275,7 +5748,7 @@
         <v>0</v>
       </c>
       <c r="AC5" t="s">
-        <v>829</v>
+        <v>808</v>
       </c>
       <c r="AD5" t="s">
         <v>678</v>
@@ -5287,13 +5760,13 @@
         <v>0</v>
       </c>
       <c r="AI5" t="s">
-        <v>957</v>
+        <v>819</v>
       </c>
       <c r="AJ5" t="s">
-        <v>1004</v>
+        <v>866</v>
       </c>
       <c r="AK5" t="s">
-        <v>958</v>
+        <v>820</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -5302,13 +5775,13 @@
         <v>5</v>
       </c>
       <c r="AP5" t="s">
-        <v>1131</v>
+        <v>993</v>
       </c>
       <c r="AQ5" t="s">
-        <v>1146</v>
+        <v>1008</v>
       </c>
       <c r="AR5" t="s">
-        <v>1109</v>
+        <v>971</v>
       </c>
       <c r="AS5">
         <v>1</v>
@@ -5316,8 +5789,26 @@
       <c r="AT5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:46">
+      <c r="AW5" t="s">
+        <v>1236</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>1194</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>1151</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>1151</v>
+      </c>
+      <c r="BG5">
+        <v>3</v>
+      </c>
+      <c r="BH5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:60">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -5385,10 +5876,10 @@
         <v>660</v>
       </c>
       <c r="AJ6" t="s">
-        <v>1005</v>
+        <v>867</v>
       </c>
       <c r="AK6" t="s">
-        <v>959</v>
+        <v>821</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -5397,13 +5888,13 @@
         <v>6</v>
       </c>
       <c r="AP6" t="s">
-        <v>1110</v>
+        <v>972</v>
       </c>
       <c r="AQ6" t="s">
-        <v>1147</v>
+        <v>1009</v>
       </c>
       <c r="AR6" t="s">
-        <v>1110</v>
+        <v>972</v>
       </c>
       <c r="AS6">
         <v>0</v>
@@ -5411,8 +5902,26 @@
       <c r="AT6">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:46">
+      <c r="AW6" t="s">
+        <v>1237</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>1195</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>1152</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>1152</v>
+      </c>
+      <c r="BG6">
+        <v>3</v>
+      </c>
+      <c r="BH6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:60">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -5480,13 +5989,13 @@
         <v>0</v>
       </c>
       <c r="AI7" t="s">
-        <v>960</v>
+        <v>822</v>
       </c>
       <c r="AJ7" t="s">
-        <v>1006</v>
+        <v>868</v>
       </c>
       <c r="AK7" t="s">
-        <v>961</v>
+        <v>823</v>
       </c>
       <c r="AL7">
         <v>0</v>
@@ -5498,7 +6007,7 @@
         <v>246</v>
       </c>
       <c r="AQ7" t="s">
-        <v>1148</v>
+        <v>1010</v>
       </c>
       <c r="AR7" t="s">
         <v>256</v>
@@ -5509,8 +6018,23 @@
       <c r="AT7">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:46">
+      <c r="BD7" t="s">
+        <v>1196</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="BG7">
+        <v>1</v>
+      </c>
+      <c r="BH7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:60">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -5578,13 +6102,13 @@
         <v>0</v>
       </c>
       <c r="AI8" t="s">
-        <v>962</v>
+        <v>824</v>
       </c>
       <c r="AJ8" t="s">
-        <v>1007</v>
+        <v>869</v>
       </c>
       <c r="AK8" t="s">
-        <v>963</v>
+        <v>825</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -5593,13 +6117,13 @@
         <v>8</v>
       </c>
       <c r="AP8" t="s">
-        <v>1132</v>
+        <v>994</v>
       </c>
       <c r="AQ8" t="s">
-        <v>1149</v>
+        <v>1011</v>
       </c>
       <c r="AR8" t="s">
-        <v>1111</v>
+        <v>973</v>
       </c>
       <c r="AS8">
         <v>0</v>
@@ -5607,8 +6131,23 @@
       <c r="AT8">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:46">
+      <c r="BD8" t="s">
+        <v>1197</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>1154</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>1154</v>
+      </c>
+      <c r="BG8">
+        <v>3</v>
+      </c>
+      <c r="BH8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:60">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -5691,13 +6230,13 @@
         <v>9</v>
       </c>
       <c r="AP9" t="s">
-        <v>1133</v>
+        <v>995</v>
       </c>
       <c r="AQ9" t="s">
-        <v>1150</v>
+        <v>1012</v>
       </c>
       <c r="AR9" t="s">
-        <v>1112</v>
+        <v>974</v>
       </c>
       <c r="AS9">
         <v>0</v>
@@ -5705,8 +6244,23 @@
       <c r="AT9">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:46">
+      <c r="BD9" t="s">
+        <v>1198</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>1155</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>1155</v>
+      </c>
+      <c r="BG9">
+        <v>1</v>
+      </c>
+      <c r="BH9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:60">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -5771,13 +6325,13 @@
         <v>0</v>
       </c>
       <c r="AI10" t="s">
-        <v>965</v>
+        <v>827</v>
       </c>
       <c r="AJ10" t="s">
-        <v>1008</v>
+        <v>870</v>
       </c>
       <c r="AK10" t="s">
-        <v>964</v>
+        <v>826</v>
       </c>
       <c r="AL10">
         <v>0</v>
@@ -5786,13 +6340,13 @@
         <v>10</v>
       </c>
       <c r="AP10" t="s">
-        <v>1114</v>
+        <v>976</v>
       </c>
       <c r="AQ10" t="s">
-        <v>1151</v>
+        <v>1013</v>
       </c>
       <c r="AR10" t="s">
-        <v>1113</v>
+        <v>975</v>
       </c>
       <c r="AS10">
         <v>0</v>
@@ -5800,8 +6354,23 @@
       <c r="AT10">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:46">
+      <c r="BD10" t="s">
+        <v>1199</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>1156</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>1156</v>
+      </c>
+      <c r="BG10">
+        <v>3</v>
+      </c>
+      <c r="BH10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:60">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -5866,13 +6435,13 @@
         <v>0</v>
       </c>
       <c r="AI11" t="s">
-        <v>966</v>
+        <v>828</v>
       </c>
       <c r="AJ11" t="s">
-        <v>1009</v>
+        <v>871</v>
       </c>
       <c r="AK11" t="s">
-        <v>967</v>
+        <v>829</v>
       </c>
       <c r="AL11">
         <v>0</v>
@@ -5881,13 +6450,13 @@
         <v>11</v>
       </c>
       <c r="AP11" t="s">
-        <v>1134</v>
+        <v>996</v>
       </c>
       <c r="AQ11" t="s">
-        <v>1152</v>
+        <v>1014</v>
       </c>
       <c r="AR11" t="s">
-        <v>1115</v>
+        <v>977</v>
       </c>
       <c r="AS11">
         <v>0</v>
@@ -5895,8 +6464,23 @@
       <c r="AT11">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:46">
+      <c r="BD11" t="s">
+        <v>1200</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>1157</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>1157</v>
+      </c>
+      <c r="BG11">
+        <v>3</v>
+      </c>
+      <c r="BH11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:60">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -5955,13 +6539,13 @@
         <v>0</v>
       </c>
       <c r="AI12" t="s">
-        <v>968</v>
+        <v>830</v>
       </c>
       <c r="AJ12" t="s">
-        <v>969</v>
+        <v>831</v>
       </c>
       <c r="AK12" t="s">
-        <v>969</v>
+        <v>831</v>
       </c>
       <c r="AL12">
         <v>0</v>
@@ -5970,13 +6554,13 @@
         <v>12</v>
       </c>
       <c r="AP12" t="s">
-        <v>1135</v>
+        <v>997</v>
       </c>
       <c r="AQ12" t="s">
-        <v>1153</v>
+        <v>1015</v>
       </c>
       <c r="AR12" t="s">
-        <v>1116</v>
+        <v>978</v>
       </c>
       <c r="AS12">
         <v>0</v>
@@ -5984,8 +6568,23 @@
       <c r="AT12">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:46">
+      <c r="BD12" t="s">
+        <v>1201</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>1158</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>1158</v>
+      </c>
+      <c r="BG12">
+        <v>3</v>
+      </c>
+      <c r="BH12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:60">
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -6044,13 +6643,13 @@
         <v>0</v>
       </c>
       <c r="AI13" t="s">
-        <v>971</v>
+        <v>833</v>
       </c>
       <c r="AJ13" t="s">
-        <v>1010</v>
+        <v>872</v>
       </c>
       <c r="AK13" t="s">
-        <v>970</v>
+        <v>832</v>
       </c>
       <c r="AL13">
         <v>0</v>
@@ -6059,13 +6658,13 @@
         <v>13</v>
       </c>
       <c r="AP13" t="s">
-        <v>1136</v>
+        <v>998</v>
       </c>
       <c r="AQ13" t="s">
-        <v>1154</v>
+        <v>1016</v>
       </c>
       <c r="AR13" t="s">
-        <v>1117</v>
+        <v>979</v>
       </c>
       <c r="AS13">
         <v>0</v>
@@ -6073,8 +6672,23 @@
       <c r="AT13">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:46">
+      <c r="BD13" t="s">
+        <v>1202</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>1159</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>1159</v>
+      </c>
+      <c r="BG13">
+        <v>0</v>
+      </c>
+      <c r="BH13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:60">
       <c r="B14" t="s">
         <v>26</v>
       </c>
@@ -6133,13 +6747,13 @@
         <v>0</v>
       </c>
       <c r="AI14" t="s">
-        <v>972</v>
+        <v>834</v>
       </c>
       <c r="AJ14" t="s">
-        <v>1011</v>
+        <v>873</v>
       </c>
       <c r="AK14" t="s">
-        <v>973</v>
+        <v>835</v>
       </c>
       <c r="AL14">
         <v>0</v>
@@ -6148,13 +6762,13 @@
         <v>14</v>
       </c>
       <c r="AP14" t="s">
-        <v>1137</v>
+        <v>999</v>
       </c>
       <c r="AQ14" t="s">
-        <v>1155</v>
+        <v>1017</v>
       </c>
       <c r="AR14" t="s">
-        <v>1118</v>
+        <v>980</v>
       </c>
       <c r="AS14">
         <v>0</v>
@@ -6162,8 +6776,23 @@
       <c r="AT14">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:46">
+      <c r="BD14" t="s">
+        <v>1203</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>1160</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>1160</v>
+      </c>
+      <c r="BG14">
+        <v>0</v>
+      </c>
+      <c r="BH14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:60">
       <c r="B15" t="s">
         <v>27</v>
       </c>
@@ -6228,7 +6857,7 @@
         <v>36</v>
       </c>
       <c r="AK15" t="s">
-        <v>974</v>
+        <v>836</v>
       </c>
       <c r="AL15">
         <v>0</v>
@@ -6240,10 +6869,10 @@
         <v>189</v>
       </c>
       <c r="AQ15" t="s">
-        <v>1156</v>
+        <v>1018</v>
       </c>
       <c r="AR15" t="s">
-        <v>1120</v>
+        <v>982</v>
       </c>
       <c r="AS15">
         <v>3</v>
@@ -6251,8 +6880,23 @@
       <c r="AT15">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:46">
+      <c r="BD15" t="s">
+        <v>1204</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>1161</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>1161</v>
+      </c>
+      <c r="BG15">
+        <v>0</v>
+      </c>
+      <c r="BH15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:60">
       <c r="B16" t="s">
         <v>28</v>
       </c>
@@ -6317,7 +6961,7 @@
         <v>35</v>
       </c>
       <c r="AK16" t="s">
-        <v>975</v>
+        <v>837</v>
       </c>
       <c r="AL16">
         <v>0</v>
@@ -6329,10 +6973,10 @@
         <v>187</v>
       </c>
       <c r="AQ16" t="s">
-        <v>1157</v>
+        <v>1019</v>
       </c>
       <c r="AR16" t="s">
-        <v>1119</v>
+        <v>981</v>
       </c>
       <c r="AS16">
         <v>3</v>
@@ -6340,8 +6984,23 @@
       <c r="AT16">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="2:46">
+      <c r="BD16" t="s">
+        <v>1205</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>1162</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>1162</v>
+      </c>
+      <c r="BG16">
+        <v>1</v>
+      </c>
+      <c r="BH16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:60">
       <c r="B17" t="s">
         <v>29</v>
       </c>
@@ -6400,13 +7059,13 @@
         <v>0</v>
       </c>
       <c r="AI17" t="s">
-        <v>976</v>
+        <v>838</v>
       </c>
       <c r="AJ17" t="s">
-        <v>977</v>
+        <v>839</v>
       </c>
       <c r="AK17" t="s">
-        <v>977</v>
+        <v>839</v>
       </c>
       <c r="AL17">
         <v>0</v>
@@ -6418,10 +7077,10 @@
         <v>192</v>
       </c>
       <c r="AQ17" t="s">
-        <v>1158</v>
+        <v>1020</v>
       </c>
       <c r="AR17" t="s">
-        <v>1121</v>
+        <v>983</v>
       </c>
       <c r="AS17">
         <v>1</v>
@@ -6429,8 +7088,23 @@
       <c r="AT17">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="2:46">
+      <c r="BD17" t="s">
+        <v>1206</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>1163</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>1163</v>
+      </c>
+      <c r="BG17">
+        <v>0</v>
+      </c>
+      <c r="BH17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:60">
       <c r="B18" t="s">
         <v>30</v>
       </c>
@@ -6489,13 +7163,13 @@
         <v>0</v>
       </c>
       <c r="AI18" t="s">
-        <v>978</v>
+        <v>840</v>
       </c>
       <c r="AJ18" t="s">
-        <v>979</v>
+        <v>841</v>
       </c>
       <c r="AK18" t="s">
-        <v>979</v>
+        <v>841</v>
       </c>
       <c r="AL18">
         <v>0</v>
@@ -6504,13 +7178,13 @@
         <v>18</v>
       </c>
       <c r="AP18" t="s">
-        <v>1138</v>
+        <v>1000</v>
       </c>
       <c r="AQ18" t="s">
-        <v>1159</v>
+        <v>1021</v>
       </c>
       <c r="AR18" t="s">
-        <v>1122</v>
+        <v>984</v>
       </c>
       <c r="AS18">
         <v>0</v>
@@ -6518,8 +7192,23 @@
       <c r="AT18">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="2:46">
+      <c r="BD18" t="s">
+        <v>1207</v>
+      </c>
+      <c r="BE18" t="s">
+        <v>1164</v>
+      </c>
+      <c r="BF18" t="s">
+        <v>1164</v>
+      </c>
+      <c r="BG18">
+        <v>0</v>
+      </c>
+      <c r="BH18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="2:60">
       <c r="B19" t="s">
         <v>31</v>
       </c>
@@ -6572,13 +7261,13 @@
         <v>0</v>
       </c>
       <c r="AI19" t="s">
-        <v>980</v>
+        <v>842</v>
       </c>
       <c r="AJ19" t="s">
-        <v>981</v>
+        <v>843</v>
       </c>
       <c r="AK19" t="s">
-        <v>981</v>
+        <v>843</v>
       </c>
       <c r="AL19">
         <v>0</v>
@@ -6587,13 +7276,13 @@
         <v>19</v>
       </c>
       <c r="AP19" t="s">
-        <v>1123</v>
+        <v>985</v>
       </c>
       <c r="AQ19" t="s">
-        <v>1160</v>
+        <v>1022</v>
       </c>
       <c r="AR19" t="s">
-        <v>1123</v>
+        <v>985</v>
       </c>
       <c r="AS19">
         <v>0</v>
@@ -6601,8 +7290,23 @@
       <c r="AT19">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="2:46">
+      <c r="BD19" t="s">
+        <v>1208</v>
+      </c>
+      <c r="BE19" t="s">
+        <v>1165</v>
+      </c>
+      <c r="BF19" t="s">
+        <v>1165</v>
+      </c>
+      <c r="BG19">
+        <v>1</v>
+      </c>
+      <c r="BH19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="2:60">
       <c r="B20" t="s">
         <v>32</v>
       </c>
@@ -6655,13 +7359,13 @@
         <v>0</v>
       </c>
       <c r="AI20" t="s">
-        <v>982</v>
+        <v>844</v>
       </c>
       <c r="AJ20" t="s">
-        <v>983</v>
+        <v>845</v>
       </c>
       <c r="AK20" t="s">
-        <v>983</v>
+        <v>845</v>
       </c>
       <c r="AL20">
         <v>0</v>
@@ -6670,13 +7374,13 @@
         <v>20</v>
       </c>
       <c r="AP20" t="s">
-        <v>1139</v>
+        <v>1001</v>
       </c>
       <c r="AQ20" t="s">
-        <v>1161</v>
+        <v>1023</v>
       </c>
       <c r="AR20" t="s">
-        <v>1124</v>
+        <v>986</v>
       </c>
       <c r="AS20">
         <v>0</v>
@@ -6684,8 +7388,23 @@
       <c r="AT20">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="2:46">
+      <c r="BD20" t="s">
+        <v>1209</v>
+      </c>
+      <c r="BE20" t="s">
+        <v>1166</v>
+      </c>
+      <c r="BF20" t="s">
+        <v>1166</v>
+      </c>
+      <c r="BG20">
+        <v>0</v>
+      </c>
+      <c r="BH20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:60">
       <c r="B21" t="s">
         <v>40</v>
       </c>
@@ -6753,13 +7472,13 @@
         <v>21</v>
       </c>
       <c r="AP21" t="s">
-        <v>1140</v>
+        <v>1002</v>
       </c>
       <c r="AQ21" t="s">
-        <v>1162</v>
+        <v>1024</v>
       </c>
       <c r="AR21" t="s">
-        <v>1125</v>
+        <v>987</v>
       </c>
       <c r="AS21">
         <v>0</v>
@@ -6767,8 +7486,23 @@
       <c r="AT21">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="2:46" ht="18">
+      <c r="BD21" t="s">
+        <v>1210</v>
+      </c>
+      <c r="BE21" t="s">
+        <v>1167</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>1167</v>
+      </c>
+      <c r="BG21">
+        <v>1</v>
+      </c>
+      <c r="BH21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="2:60" ht="18">
       <c r="B22" t="s">
         <v>41</v>
       </c>
@@ -6822,13 +7556,13 @@
         <v>0</v>
       </c>
       <c r="AI22" t="s">
-        <v>992</v>
+        <v>854</v>
       </c>
       <c r="AJ22" t="s">
-        <v>1012</v>
+        <v>874</v>
       </c>
       <c r="AK22" t="s">
-        <v>984</v>
+        <v>846</v>
       </c>
       <c r="AL22">
         <v>0</v>
@@ -6837,13 +7571,13 @@
         <v>22</v>
       </c>
       <c r="AP22" t="s">
-        <v>1141</v>
+        <v>1003</v>
       </c>
       <c r="AQ22" t="s">
-        <v>1126</v>
+        <v>988</v>
       </c>
       <c r="AR22" t="s">
-        <v>1126</v>
+        <v>988</v>
       </c>
       <c r="AS22">
         <v>2</v>
@@ -6851,8 +7585,23 @@
       <c r="AT22">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="2:46">
+      <c r="BD22" t="s">
+        <v>1211</v>
+      </c>
+      <c r="BE22" t="s">
+        <v>1168</v>
+      </c>
+      <c r="BF22" t="s">
+        <v>1168</v>
+      </c>
+      <c r="BG22">
+        <v>0</v>
+      </c>
+      <c r="BH22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="2:60">
       <c r="B23" t="s">
         <v>42</v>
       </c>
@@ -6905,13 +7654,13 @@
         <v>0</v>
       </c>
       <c r="AI23" t="s">
-        <v>993</v>
+        <v>855</v>
       </c>
       <c r="AJ23" t="s">
-        <v>1013</v>
+        <v>875</v>
       </c>
       <c r="AK23" t="s">
-        <v>985</v>
+        <v>847</v>
       </c>
       <c r="AL23">
         <v>0</v>
@@ -6920,13 +7669,13 @@
         <v>23</v>
       </c>
       <c r="AP23" t="s">
-        <v>1142</v>
+        <v>1004</v>
       </c>
       <c r="AQ23" t="s">
-        <v>1163</v>
+        <v>1025</v>
       </c>
       <c r="AR23" t="s">
-        <v>1127</v>
+        <v>989</v>
       </c>
       <c r="AS23">
         <v>3</v>
@@ -6934,8 +7683,23 @@
       <c r="AT23">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="2:46">
+      <c r="BD23" t="s">
+        <v>1212</v>
+      </c>
+      <c r="BE23" t="s">
+        <v>1169</v>
+      </c>
+      <c r="BF23" t="s">
+        <v>1169</v>
+      </c>
+      <c r="BG23">
+        <v>4</v>
+      </c>
+      <c r="BH23">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="2:60">
       <c r="B24" t="s">
         <v>43</v>
       </c>
@@ -6988,13 +7752,13 @@
         <v>0</v>
       </c>
       <c r="AI24" t="s">
-        <v>994</v>
+        <v>856</v>
       </c>
       <c r="AJ24" t="s">
-        <v>986</v>
+        <v>848</v>
       </c>
       <c r="AK24" t="s">
-        <v>986</v>
+        <v>848</v>
       </c>
       <c r="AL24">
         <v>0</v>
@@ -7003,13 +7767,13 @@
         <v>24</v>
       </c>
       <c r="AP24" t="s">
-        <v>1143</v>
+        <v>1005</v>
       </c>
       <c r="AQ24" t="s">
-        <v>1164</v>
+        <v>1026</v>
       </c>
       <c r="AR24" t="s">
-        <v>1128</v>
+        <v>990</v>
       </c>
       <c r="AS24">
         <v>0</v>
@@ -7017,8 +7781,23 @@
       <c r="AT24">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="2:46">
+      <c r="BD24" t="s">
+        <v>1213</v>
+      </c>
+      <c r="BE24" t="s">
+        <v>1170</v>
+      </c>
+      <c r="BF24" t="s">
+        <v>1170</v>
+      </c>
+      <c r="BG24">
+        <v>4</v>
+      </c>
+      <c r="BH24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="2:60">
       <c r="B25" t="s">
         <v>44</v>
       </c>
@@ -7071,13 +7850,13 @@
         <v>0</v>
       </c>
       <c r="AI25" t="s">
-        <v>995</v>
+        <v>857</v>
       </c>
       <c r="AJ25" t="s">
-        <v>1042</v>
+        <v>904</v>
       </c>
       <c r="AK25" t="s">
-        <v>987</v>
+        <v>849</v>
       </c>
       <c r="AL25">
         <v>0</v>
@@ -7085,8 +7864,41 @@
       <c r="AM25">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="2:46">
+      <c r="AO25">
+        <v>1</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>1028</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>262</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>1043</v>
+      </c>
+      <c r="AS25">
+        <v>4</v>
+      </c>
+      <c r="AT25">
+        <v>25</v>
+      </c>
+      <c r="BD25" t="s">
+        <v>1214</v>
+      </c>
+      <c r="BE25" t="s">
+        <v>1171</v>
+      </c>
+      <c r="BF25" t="s">
+        <v>1171</v>
+      </c>
+      <c r="BG25">
+        <v>4</v>
+      </c>
+      <c r="BH25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:60">
       <c r="B26" t="s">
         <v>45</v>
       </c>
@@ -7127,7 +7939,7 @@
         <v>0</v>
       </c>
       <c r="AC26" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="AD26" t="s">
         <v>736</v>
@@ -7139,13 +7951,13 @@
         <v>0</v>
       </c>
       <c r="AI26" t="s">
-        <v>996</v>
+        <v>858</v>
       </c>
       <c r="AJ26" t="s">
-        <v>1014</v>
+        <v>876</v>
       </c>
       <c r="AK26" t="s">
-        <v>988</v>
+        <v>850</v>
       </c>
       <c r="AL26">
         <v>0</v>
@@ -7153,8 +7965,38 @@
       <c r="AM26">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="2:46">
+      <c r="AP26" t="s">
+        <v>1029</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>1058</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>1029</v>
+      </c>
+      <c r="AS26">
+        <v>0</v>
+      </c>
+      <c r="AT26">
+        <v>26</v>
+      </c>
+      <c r="BD26" t="s">
+        <v>1215</v>
+      </c>
+      <c r="BE26" t="s">
+        <v>1172</v>
+      </c>
+      <c r="BF26" t="s">
+        <v>1172</v>
+      </c>
+      <c r="BG26">
+        <v>-1</v>
+      </c>
+      <c r="BH26">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="2:60">
       <c r="B27" t="s">
         <v>46</v>
       </c>
@@ -7207,13 +8049,13 @@
         <v>0</v>
       </c>
       <c r="AI27" t="s">
-        <v>997</v>
+        <v>859</v>
       </c>
       <c r="AJ27" t="s">
-        <v>1015</v>
+        <v>877</v>
       </c>
       <c r="AK27" t="s">
-        <v>989</v>
+        <v>851</v>
       </c>
       <c r="AL27">
         <v>0</v>
@@ -7221,8 +8063,38 @@
       <c r="AM27">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="2:46">
+      <c r="AP27" t="s">
+        <v>1030</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>1059</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>1044</v>
+      </c>
+      <c r="AS27">
+        <v>0</v>
+      </c>
+      <c r="AT27">
+        <v>27</v>
+      </c>
+      <c r="BD27" t="s">
+        <v>1216</v>
+      </c>
+      <c r="BE27" t="s">
+        <v>1173</v>
+      </c>
+      <c r="BF27" t="s">
+        <v>1173</v>
+      </c>
+      <c r="BG27">
+        <v>4</v>
+      </c>
+      <c r="BH27">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="2:60">
       <c r="B28" t="s">
         <v>54</v>
       </c>
@@ -7269,13 +8141,13 @@
         <v>0</v>
       </c>
       <c r="AI28" t="s">
-        <v>998</v>
+        <v>860</v>
       </c>
       <c r="AJ28" t="s">
-        <v>1016</v>
+        <v>878</v>
       </c>
       <c r="AK28" t="s">
-        <v>990</v>
+        <v>852</v>
       </c>
       <c r="AL28">
         <v>0</v>
@@ -7283,8 +8155,38 @@
       <c r="AM28">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="2:46">
+      <c r="AP28" t="s">
+        <v>1045</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>1060</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AS28">
+        <v>1</v>
+      </c>
+      <c r="AT28">
+        <v>28</v>
+      </c>
+      <c r="BD28" t="s">
+        <v>1217</v>
+      </c>
+      <c r="BE28" t="s">
+        <v>1174</v>
+      </c>
+      <c r="BF28" t="s">
+        <v>1174</v>
+      </c>
+      <c r="BG28">
+        <v>4</v>
+      </c>
+      <c r="BH28">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="2:60">
       <c r="B29" t="s">
         <v>55</v>
       </c>
@@ -7325,19 +8227,19 @@
         <v>769</v>
       </c>
       <c r="AE29" t="s">
-        <v>1165</v>
+        <v>1027</v>
       </c>
       <c r="AF29">
         <v>0</v>
       </c>
       <c r="AI29" t="s">
-        <v>999</v>
+        <v>861</v>
       </c>
       <c r="AJ29" t="s">
-        <v>1017</v>
+        <v>879</v>
       </c>
       <c r="AK29" t="s">
-        <v>991</v>
+        <v>853</v>
       </c>
       <c r="AL29">
         <v>0</v>
@@ -7345,8 +8247,38 @@
       <c r="AM29">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="2:46">
+      <c r="AP29" t="s">
+        <v>1031</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>1061</v>
+      </c>
+      <c r="AR29" t="s">
+        <v>1047</v>
+      </c>
+      <c r="AS29">
+        <v>0</v>
+      </c>
+      <c r="AT29">
+        <v>29</v>
+      </c>
+      <c r="BD29" t="s">
+        <v>1218</v>
+      </c>
+      <c r="BE29" t="s">
+        <v>1175</v>
+      </c>
+      <c r="BF29" t="s">
+        <v>1175</v>
+      </c>
+      <c r="BG29">
+        <v>1</v>
+      </c>
+      <c r="BH29">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="2:60">
       <c r="B30" t="s">
         <v>56</v>
       </c>
@@ -7393,13 +8325,13 @@
         <v>0</v>
       </c>
       <c r="AI30" t="s">
-        <v>1018</v>
+        <v>880</v>
       </c>
       <c r="AJ30" t="s">
-        <v>1020</v>
+        <v>882</v>
       </c>
       <c r="AK30" t="s">
-        <v>1019</v>
+        <v>881</v>
       </c>
       <c r="AL30">
         <v>0</v>
@@ -7407,8 +8339,38 @@
       <c r="AM30">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="2:46">
+      <c r="AP30" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR30" t="s">
+        <v>589</v>
+      </c>
+      <c r="AS30">
+        <v>3</v>
+      </c>
+      <c r="AT30">
+        <v>30</v>
+      </c>
+      <c r="BD30" t="s">
+        <v>1219</v>
+      </c>
+      <c r="BE30" t="s">
+        <v>1176</v>
+      </c>
+      <c r="BF30" t="s">
+        <v>1176</v>
+      </c>
+      <c r="BG30">
+        <v>3</v>
+      </c>
+      <c r="BH30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="2:60">
       <c r="B31" t="s">
         <v>57</v>
       </c>
@@ -7455,13 +8417,13 @@
         <v>0</v>
       </c>
       <c r="AI31" t="s">
-        <v>1022</v>
+        <v>884</v>
       </c>
       <c r="AJ31" t="s">
-        <v>1021</v>
+        <v>883</v>
       </c>
       <c r="AK31" t="s">
-        <v>1023</v>
+        <v>885</v>
       </c>
       <c r="AL31">
         <v>0</v>
@@ -7469,8 +8431,38 @@
       <c r="AM31">
         <v>31</v>
       </c>
-    </row>
-    <row r="32" spans="2:46">
+      <c r="AP31" t="s">
+        <v>1032</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>1062</v>
+      </c>
+      <c r="AR31" t="s">
+        <v>1032</v>
+      </c>
+      <c r="AS31">
+        <v>0</v>
+      </c>
+      <c r="AT31">
+        <v>31</v>
+      </c>
+      <c r="BD31" t="s">
+        <v>1220</v>
+      </c>
+      <c r="BE31" t="s">
+        <v>1177</v>
+      </c>
+      <c r="BF31" t="s">
+        <v>1177</v>
+      </c>
+      <c r="BG31">
+        <v>1</v>
+      </c>
+      <c r="BH31">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="2:60">
       <c r="B32" t="s">
         <v>58</v>
       </c>
@@ -7499,7 +8491,7 @@
         <v>625</v>
       </c>
       <c r="Z32" t="s">
-        <v>832</v>
+        <v>809</v>
       </c>
       <c r="AA32">
         <v>0</v>
@@ -7517,13 +8509,13 @@
         <v>0</v>
       </c>
       <c r="AI32" t="s">
-        <v>1024</v>
+        <v>886</v>
       </c>
       <c r="AJ32" t="s">
-        <v>1025</v>
+        <v>887</v>
       </c>
       <c r="AK32" t="s">
-        <v>1025</v>
+        <v>887</v>
       </c>
       <c r="AL32">
         <v>0</v>
@@ -7531,8 +8523,38 @@
       <c r="AM32">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="2:39">
+      <c r="AP32" t="s">
+        <v>1033</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>1063</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>1052</v>
+      </c>
+      <c r="AS32">
+        <v>2</v>
+      </c>
+      <c r="AT32">
+        <v>32</v>
+      </c>
+      <c r="BD32" t="s">
+        <v>1221</v>
+      </c>
+      <c r="BE32" t="s">
+        <v>1178</v>
+      </c>
+      <c r="BF32" t="s">
+        <v>1178</v>
+      </c>
+      <c r="BG32">
+        <v>-1</v>
+      </c>
+      <c r="BH32">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="2:60">
       <c r="B33" t="s">
         <v>59</v>
       </c>
@@ -7579,13 +8601,13 @@
         <v>0</v>
       </c>
       <c r="AI33" t="s">
-        <v>1026</v>
+        <v>888</v>
       </c>
       <c r="AJ33" t="s">
-        <v>1028</v>
+        <v>890</v>
       </c>
       <c r="AK33" t="s">
-        <v>1027</v>
+        <v>889</v>
       </c>
       <c r="AL33">
         <v>0</v>
@@ -7593,8 +8615,38 @@
       <c r="AM33">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="2:39">
+      <c r="AP33" t="s">
+        <v>1034</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>1064</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>1034</v>
+      </c>
+      <c r="AS33">
+        <v>0</v>
+      </c>
+      <c r="AT33">
+        <v>33</v>
+      </c>
+      <c r="BD33" t="s">
+        <v>1222</v>
+      </c>
+      <c r="BE33" t="s">
+        <v>1179</v>
+      </c>
+      <c r="BF33" t="s">
+        <v>1179</v>
+      </c>
+      <c r="BG33">
+        <v>3</v>
+      </c>
+      <c r="BH33">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="2:60">
       <c r="B34" t="s">
         <v>60</v>
       </c>
@@ -7641,13 +8693,13 @@
         <v>0</v>
       </c>
       <c r="AI34" t="s">
-        <v>1029</v>
+        <v>891</v>
       </c>
       <c r="AJ34" t="s">
-        <v>1031</v>
+        <v>893</v>
       </c>
       <c r="AK34" t="s">
-        <v>1030</v>
+        <v>892</v>
       </c>
       <c r="AL34">
         <v>0</v>
@@ -7655,8 +8707,38 @@
       <c r="AM34">
         <v>34</v>
       </c>
-    </row>
-    <row r="35" spans="2:39">
+      <c r="AP34" t="s">
+        <v>1035</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>1065</v>
+      </c>
+      <c r="AR34" t="s">
+        <v>1048</v>
+      </c>
+      <c r="AS34">
+        <v>3</v>
+      </c>
+      <c r="AT34">
+        <v>34</v>
+      </c>
+      <c r="BD34" t="s">
+        <v>1223</v>
+      </c>
+      <c r="BE34" t="s">
+        <v>1180</v>
+      </c>
+      <c r="BF34" t="s">
+        <v>1180</v>
+      </c>
+      <c r="BG34">
+        <v>3</v>
+      </c>
+      <c r="BH34">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="2:60">
       <c r="B35" t="s">
         <v>61</v>
       </c>
@@ -7694,13 +8776,13 @@
         <v>0</v>
       </c>
       <c r="AI35" t="s">
-        <v>1032</v>
+        <v>894</v>
       </c>
       <c r="AJ35" t="s">
-        <v>1034</v>
+        <v>896</v>
       </c>
       <c r="AK35" t="s">
-        <v>1033</v>
+        <v>895</v>
       </c>
       <c r="AL35">
         <v>0</v>
@@ -7708,8 +8790,38 @@
       <c r="AM35">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="2:39" ht="18">
+      <c r="AP35" t="s">
+        <v>1036</v>
+      </c>
+      <c r="AQ35" t="s">
+        <v>1066</v>
+      </c>
+      <c r="AR35" t="s">
+        <v>1049</v>
+      </c>
+      <c r="AS35">
+        <v>3</v>
+      </c>
+      <c r="AT35">
+        <v>35</v>
+      </c>
+      <c r="BD35" t="s">
+        <v>1224</v>
+      </c>
+      <c r="BE35" t="s">
+        <v>1181</v>
+      </c>
+      <c r="BF35" t="s">
+        <v>1181</v>
+      </c>
+      <c r="BG35">
+        <v>3</v>
+      </c>
+      <c r="BH35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="2:60" ht="18">
       <c r="B36" t="s">
         <v>62</v>
       </c>
@@ -7747,13 +8859,13 @@
         <v>0</v>
       </c>
       <c r="AI36" t="s">
-        <v>1035</v>
+        <v>897</v>
       </c>
       <c r="AJ36" t="s">
-        <v>1037</v>
+        <v>899</v>
       </c>
       <c r="AK36" t="s">
-        <v>1036</v>
+        <v>898</v>
       </c>
       <c r="AL36">
         <v>0</v>
@@ -7761,8 +8873,38 @@
       <c r="AM36">
         <v>36</v>
       </c>
-    </row>
-    <row r="37" spans="2:39">
+      <c r="AP36" t="s">
+        <v>791</v>
+      </c>
+      <c r="AQ36" t="s">
+        <v>736</v>
+      </c>
+      <c r="AR36" t="s">
+        <v>735</v>
+      </c>
+      <c r="AS36">
+        <v>3</v>
+      </c>
+      <c r="AT36">
+        <v>36</v>
+      </c>
+      <c r="BD36" t="s">
+        <v>1225</v>
+      </c>
+      <c r="BE36" t="s">
+        <v>1182</v>
+      </c>
+      <c r="BF36" t="s">
+        <v>1182</v>
+      </c>
+      <c r="BG36">
+        <v>3</v>
+      </c>
+      <c r="BH36">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="2:60">
       <c r="B37" t="s">
         <v>63</v>
       </c>
@@ -7800,13 +8942,13 @@
         <v>0</v>
       </c>
       <c r="AI37" t="s">
-        <v>1039</v>
+        <v>901</v>
       </c>
       <c r="AJ37" t="s">
-        <v>1038</v>
+        <v>900</v>
       </c>
       <c r="AK37" t="s">
-        <v>1040</v>
+        <v>902</v>
       </c>
       <c r="AL37">
         <v>0</v>
@@ -7814,8 +8956,38 @@
       <c r="AM37">
         <v>37</v>
       </c>
-    </row>
-    <row r="38" spans="2:39" ht="18">
+      <c r="AP37" t="s">
+        <v>1037</v>
+      </c>
+      <c r="AQ37" t="s">
+        <v>1050</v>
+      </c>
+      <c r="AR37" t="s">
+        <v>1050</v>
+      </c>
+      <c r="AS37">
+        <v>0</v>
+      </c>
+      <c r="AT37">
+        <v>37</v>
+      </c>
+      <c r="BD37" t="s">
+        <v>1226</v>
+      </c>
+      <c r="BE37" t="s">
+        <v>1183</v>
+      </c>
+      <c r="BF37" t="s">
+        <v>1183</v>
+      </c>
+      <c r="BG37">
+        <v>3</v>
+      </c>
+      <c r="BH37">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="2:60" ht="18">
       <c r="B38" t="s">
         <v>64</v>
       </c>
@@ -7853,7 +9025,7 @@
         <v>0</v>
       </c>
       <c r="AI38" t="s">
-        <v>1041</v>
+        <v>903</v>
       </c>
       <c r="AJ38" t="s">
         <v>14</v>
@@ -7867,8 +9039,38 @@
       <c r="AM38">
         <v>38</v>
       </c>
-    </row>
-    <row r="39" spans="2:39">
+      <c r="AP38" t="s">
+        <v>1038</v>
+      </c>
+      <c r="AQ38" t="s">
+        <v>1067</v>
+      </c>
+      <c r="AR38" t="s">
+        <v>1051</v>
+      </c>
+      <c r="AS38">
+        <v>0</v>
+      </c>
+      <c r="AT38">
+        <v>38</v>
+      </c>
+      <c r="BD38" t="s">
+        <v>1227</v>
+      </c>
+      <c r="BE38" t="s">
+        <v>1184</v>
+      </c>
+      <c r="BF38" t="s">
+        <v>1184</v>
+      </c>
+      <c r="BG38">
+        <v>3</v>
+      </c>
+      <c r="BH38">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="2:60">
       <c r="B39" t="s">
         <v>65</v>
       </c>
@@ -7900,13 +9102,13 @@
         <v>0</v>
       </c>
       <c r="AI39" t="s">
-        <v>1043</v>
+        <v>905</v>
       </c>
       <c r="AJ39" t="s">
-        <v>1066</v>
+        <v>928</v>
       </c>
       <c r="AK39" t="s">
-        <v>1045</v>
+        <v>907</v>
       </c>
       <c r="AL39">
         <v>0</v>
@@ -7914,8 +9116,38 @@
       <c r="AM39">
         <v>39</v>
       </c>
-    </row>
-    <row r="40" spans="2:39">
+      <c r="AP39" t="s">
+        <v>1039</v>
+      </c>
+      <c r="AQ39" t="s">
+        <v>1068</v>
+      </c>
+      <c r="AR39" t="s">
+        <v>1053</v>
+      </c>
+      <c r="AS39">
+        <v>0</v>
+      </c>
+      <c r="AT39">
+        <v>39</v>
+      </c>
+      <c r="BD39" t="s">
+        <v>1228</v>
+      </c>
+      <c r="BE39" t="s">
+        <v>1185</v>
+      </c>
+      <c r="BF39" t="s">
+        <v>1185</v>
+      </c>
+      <c r="BG39">
+        <v>3</v>
+      </c>
+      <c r="BH39">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="2:60">
       <c r="B40" t="s">
         <v>78</v>
       </c>
@@ -7947,13 +9179,13 @@
         <v>0</v>
       </c>
       <c r="AI40" t="s">
-        <v>1044</v>
+        <v>906</v>
       </c>
       <c r="AJ40" t="s">
-        <v>1067</v>
+        <v>929</v>
       </c>
       <c r="AK40" t="s">
-        <v>1046</v>
+        <v>908</v>
       </c>
       <c r="AL40">
         <v>0</v>
@@ -7961,8 +9193,38 @@
       <c r="AM40">
         <v>40</v>
       </c>
-    </row>
-    <row r="41" spans="2:39">
+      <c r="AP40" t="s">
+        <v>1040</v>
+      </c>
+      <c r="AQ40" t="s">
+        <v>1069</v>
+      </c>
+      <c r="AR40" t="s">
+        <v>1054</v>
+      </c>
+      <c r="AS40">
+        <v>3</v>
+      </c>
+      <c r="AT40">
+        <v>40</v>
+      </c>
+      <c r="BD40" t="s">
+        <v>1229</v>
+      </c>
+      <c r="BE40" t="s">
+        <v>1186</v>
+      </c>
+      <c r="BF40" t="s">
+        <v>1186</v>
+      </c>
+      <c r="BG40">
+        <v>3</v>
+      </c>
+      <c r="BH40">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="2:60">
       <c r="B41" t="s">
         <v>79</v>
       </c>
@@ -7994,13 +9256,13 @@
         <v>0</v>
       </c>
       <c r="AI41" t="s">
-        <v>1047</v>
+        <v>909</v>
       </c>
       <c r="AJ41" t="s">
-        <v>1068</v>
+        <v>930</v>
       </c>
       <c r="AK41" t="s">
-        <v>1052</v>
+        <v>914</v>
       </c>
       <c r="AL41">
         <v>0</v>
@@ -8008,8 +9270,38 @@
       <c r="AM41">
         <v>41</v>
       </c>
-    </row>
-    <row r="42" spans="2:39">
+      <c r="AP41" t="s">
+        <v>1041</v>
+      </c>
+      <c r="AQ41" t="s">
+        <v>1070</v>
+      </c>
+      <c r="AR41" t="s">
+        <v>1055</v>
+      </c>
+      <c r="AS41">
+        <v>0</v>
+      </c>
+      <c r="AT41">
+        <v>41</v>
+      </c>
+      <c r="BD41" t="s">
+        <v>1230</v>
+      </c>
+      <c r="BE41" t="s">
+        <v>1187</v>
+      </c>
+      <c r="BF41" t="s">
+        <v>1187</v>
+      </c>
+      <c r="BG41">
+        <v>3</v>
+      </c>
+      <c r="BH41">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="2:60">
       <c r="B42" t="s">
         <v>80</v>
       </c>
@@ -8041,13 +9333,13 @@
         <v>0</v>
       </c>
       <c r="AI42" t="s">
-        <v>1048</v>
+        <v>910</v>
       </c>
       <c r="AJ42" t="s">
-        <v>1069</v>
+        <v>931</v>
       </c>
       <c r="AK42" t="s">
-        <v>1051</v>
+        <v>913</v>
       </c>
       <c r="AL42">
         <v>0</v>
@@ -8055,8 +9347,38 @@
       <c r="AM42">
         <v>42</v>
       </c>
-    </row>
-    <row r="43" spans="2:39">
+      <c r="AP42" t="s">
+        <v>1042</v>
+      </c>
+      <c r="AQ42" t="s">
+        <v>1071</v>
+      </c>
+      <c r="AR42" t="s">
+        <v>1073</v>
+      </c>
+      <c r="AS42">
+        <v>2</v>
+      </c>
+      <c r="AT42">
+        <v>42</v>
+      </c>
+      <c r="BD42" t="s">
+        <v>1231</v>
+      </c>
+      <c r="BE42" t="s">
+        <v>1188</v>
+      </c>
+      <c r="BF42" t="s">
+        <v>1188</v>
+      </c>
+      <c r="BG42">
+        <v>3</v>
+      </c>
+      <c r="BH42">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="2:60">
       <c r="B43" t="s">
         <v>81</v>
       </c>
@@ -8088,13 +9410,13 @@
         <v>0</v>
       </c>
       <c r="AI43" t="s">
-        <v>1049</v>
+        <v>911</v>
       </c>
       <c r="AJ43" t="s">
-        <v>1070</v>
+        <v>932</v>
       </c>
       <c r="AK43" t="s">
-        <v>1050</v>
+        <v>912</v>
       </c>
       <c r="AL43">
         <v>0</v>
@@ -8102,8 +9424,38 @@
       <c r="AM43">
         <v>43</v>
       </c>
-    </row>
-    <row r="44" spans="2:39" ht="18">
+      <c r="AP43" t="s">
+        <v>1057</v>
+      </c>
+      <c r="AQ43" t="s">
+        <v>1072</v>
+      </c>
+      <c r="AR43" t="s">
+        <v>1056</v>
+      </c>
+      <c r="AS43">
+        <v>0</v>
+      </c>
+      <c r="AT43">
+        <v>43</v>
+      </c>
+      <c r="BD43" t="s">
+        <v>1232</v>
+      </c>
+      <c r="BE43" t="s">
+        <v>1189</v>
+      </c>
+      <c r="BF43" t="s">
+        <v>1189</v>
+      </c>
+      <c r="BG43">
+        <v>3</v>
+      </c>
+      <c r="BH43">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="2:60" ht="18">
       <c r="B44" t="s">
         <v>82</v>
       </c>
@@ -8135,13 +9487,13 @@
         <v>0</v>
       </c>
       <c r="AI44" t="s">
-        <v>1053</v>
+        <v>915</v>
       </c>
       <c r="AJ44" t="s">
-        <v>1071</v>
+        <v>933</v>
       </c>
       <c r="AK44" t="s">
-        <v>1054</v>
+        <v>916</v>
       </c>
       <c r="AL44">
         <v>0</v>
@@ -8150,7 +9502,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="2:39">
+    <row r="45" spans="2:60">
       <c r="B45" t="s">
         <v>83</v>
       </c>
@@ -8170,25 +9522,25 @@
         <v>0</v>
       </c>
       <c r="AC45" t="s">
+        <v>785</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>787</v>
+      </c>
+      <c r="AE45" t="s">
         <v>786</v>
       </c>
-      <c r="AD45" t="s">
-        <v>790</v>
-      </c>
-      <c r="AE45" t="s">
-        <v>788</v>
-      </c>
       <c r="AF45">
         <v>0</v>
       </c>
       <c r="AI45" t="s">
-        <v>1059</v>
+        <v>921</v>
       </c>
       <c r="AJ45" t="s">
-        <v>1073</v>
+        <v>935</v>
       </c>
       <c r="AK45" t="s">
-        <v>1055</v>
+        <v>917</v>
       </c>
       <c r="AL45">
         <v>0</v>
@@ -8197,7 +9549,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="2:39">
+    <row r="46" spans="2:60">
       <c r="B46" t="s">
         <v>90</v>
       </c>
@@ -8217,25 +9569,25 @@
         <v>0</v>
       </c>
       <c r="AC46" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="AD46" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="AE46" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="AF46">
         <v>0</v>
       </c>
       <c r="AI46" t="s">
-        <v>1060</v>
+        <v>922</v>
       </c>
       <c r="AJ46" t="s">
-        <v>1074</v>
+        <v>936</v>
       </c>
       <c r="AK46" t="s">
-        <v>1056</v>
+        <v>918</v>
       </c>
       <c r="AL46">
         <v>0</v>
@@ -8244,7 +9596,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="2:39">
+    <row r="47" spans="2:60">
       <c r="B47" t="s">
         <v>91</v>
       </c>
@@ -8264,25 +9616,25 @@
         <v>0</v>
       </c>
       <c r="AC47" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="AD47" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="AE47" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="AF47">
         <v>0</v>
       </c>
       <c r="AI47" t="s">
-        <v>1061</v>
+        <v>923</v>
       </c>
       <c r="AJ47" t="s">
-        <v>1075</v>
+        <v>937</v>
       </c>
       <c r="AK47" t="s">
-        <v>1057</v>
+        <v>919</v>
       </c>
       <c r="AL47">
         <v>0</v>
@@ -8291,7 +9643,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="2:39" ht="18">
+    <row r="48" spans="2:60" ht="18">
       <c r="B48" t="s">
         <v>92</v>
       </c>
@@ -8311,25 +9663,25 @@
         <v>0</v>
       </c>
       <c r="AC48" t="s">
-        <v>809</v>
+        <v>797</v>
       </c>
       <c r="AD48" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="AE48" t="s">
-        <v>807</v>
+        <v>796</v>
       </c>
       <c r="AF48">
         <v>0</v>
       </c>
       <c r="AI48" t="s">
-        <v>1062</v>
+        <v>924</v>
       </c>
       <c r="AJ48" t="s">
-        <v>1076</v>
+        <v>938</v>
       </c>
       <c r="AK48" t="s">
-        <v>1058</v>
+        <v>920</v>
       </c>
       <c r="AL48">
         <v>0</v>
@@ -8358,25 +9710,25 @@
         <v>0</v>
       </c>
       <c r="AC49" t="s">
-        <v>813</v>
+        <v>799</v>
       </c>
       <c r="AD49" t="s">
-        <v>811</v>
+        <v>798</v>
       </c>
       <c r="AE49" t="s">
-        <v>811</v>
+        <v>798</v>
       </c>
       <c r="AF49">
         <v>0</v>
       </c>
       <c r="AI49" t="s">
-        <v>1063</v>
+        <v>925</v>
       </c>
       <c r="AJ49" t="s">
-        <v>1065</v>
+        <v>927</v>
       </c>
       <c r="AK49" t="s">
-        <v>1064</v>
+        <v>926</v>
       </c>
       <c r="AL49">
         <v>0</v>
@@ -8393,7 +9745,7 @@
         <v>100</v>
       </c>
       <c r="D50" t="s">
-        <v>818</v>
+        <v>802</v>
       </c>
       <c r="M50" t="s">
         <v>167</v>
@@ -8405,25 +9757,25 @@
         <v>0</v>
       </c>
       <c r="AC50" t="s">
-        <v>815</v>
+        <v>800</v>
       </c>
       <c r="AD50" t="s">
-        <v>821</v>
+        <v>804</v>
       </c>
       <c r="AE50" t="s">
-        <v>817</v>
+        <v>801</v>
       </c>
       <c r="AF50">
         <v>0</v>
       </c>
       <c r="AI50" t="s">
-        <v>1077</v>
+        <v>939</v>
       </c>
       <c r="AJ50" t="s">
-        <v>1072</v>
+        <v>934</v>
       </c>
       <c r="AK50" t="s">
-        <v>1078</v>
+        <v>940</v>
       </c>
       <c r="AL50">
         <v>0</v>
@@ -8452,25 +9804,25 @@
         <v>0</v>
       </c>
       <c r="AC51" t="s">
-        <v>823</v>
+        <v>805</v>
       </c>
       <c r="AD51" t="s">
-        <v>827</v>
+        <v>807</v>
       </c>
       <c r="AE51" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="AF51">
         <v>0</v>
       </c>
       <c r="AI51" t="s">
-        <v>1079</v>
+        <v>941</v>
       </c>
       <c r="AJ51" t="s">
-        <v>1081</v>
+        <v>943</v>
       </c>
       <c r="AK51" t="s">
-        <v>1080</v>
+        <v>942</v>
       </c>
       <c r="AL51">
         <v>0</v>
@@ -8487,7 +9839,7 @@
         <v>102</v>
       </c>
       <c r="D52" t="s">
-        <v>819</v>
+        <v>803</v>
       </c>
       <c r="M52" t="s">
         <v>285</v>
@@ -8496,13 +9848,13 @@
         <v>312</v>
       </c>
       <c r="AI52" t="s">
-        <v>1083</v>
+        <v>945</v>
       </c>
       <c r="AJ52" t="s">
-        <v>1084</v>
+        <v>946</v>
       </c>
       <c r="AK52" t="s">
-        <v>1082</v>
+        <v>944</v>
       </c>
       <c r="AL52">
         <v>0</v>
@@ -8525,13 +9877,13 @@
         <v>313</v>
       </c>
       <c r="AI53" t="s">
-        <v>1086</v>
+        <v>948</v>
       </c>
       <c r="AJ53" t="s">
-        <v>1085</v>
+        <v>947</v>
       </c>
       <c r="AK53" t="s">
-        <v>1087</v>
+        <v>949</v>
       </c>
       <c r="AL53">
         <v>0</v>
@@ -8554,13 +9906,13 @@
         <v>314</v>
       </c>
       <c r="AI54" t="s">
-        <v>1088</v>
+        <v>950</v>
       </c>
       <c r="AJ54" t="s">
-        <v>1090</v>
+        <v>952</v>
       </c>
       <c r="AK54" t="s">
-        <v>1089</v>
+        <v>951</v>
       </c>
       <c r="AL54">
         <v>0</v>
@@ -8583,13 +9935,13 @@
         <v>315</v>
       </c>
       <c r="AI55" t="s">
-        <v>1091</v>
+        <v>953</v>
       </c>
       <c r="AJ55" t="s">
-        <v>1093</v>
+        <v>955</v>
       </c>
       <c r="AK55" t="s">
-        <v>1092</v>
+        <v>954</v>
       </c>
       <c r="AL55">
         <v>0</v>
@@ -8612,13 +9964,13 @@
         <v>316</v>
       </c>
       <c r="AI56" t="s">
-        <v>1094</v>
+        <v>956</v>
       </c>
       <c r="AJ56" t="s">
-        <v>1096</v>
+        <v>958</v>
       </c>
       <c r="AK56" t="s">
-        <v>1095</v>
+        <v>957</v>
       </c>
       <c r="AL56">
         <v>0</v>
@@ -8641,13 +9993,13 @@
         <v>317</v>
       </c>
       <c r="AI57" t="s">
-        <v>1097</v>
+        <v>959</v>
       </c>
       <c r="AJ57" t="s">
-        <v>1098</v>
+        <v>960</v>
       </c>
       <c r="AK57" t="s">
-        <v>1098</v>
+        <v>960</v>
       </c>
       <c r="AL57">
         <v>0</v>
@@ -8670,13 +10022,13 @@
         <v>318</v>
       </c>
       <c r="AI58" t="s">
-        <v>1099</v>
+        <v>961</v>
       </c>
       <c r="AJ58" t="s">
-        <v>1101</v>
+        <v>963</v>
       </c>
       <c r="AK58" t="s">
-        <v>1100</v>
+        <v>962</v>
       </c>
       <c r="AL58">
         <v>0</v>
@@ -8809,1251 +10161,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97B4080-712A-7144-B255-2CF7ABAD7D40}">
-  <dimension ref="A1:I51"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E51"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
-        <v>737</v>
-      </c>
-      <c r="B1" t="s">
-        <v>833</v>
-      </c>
-      <c r="C1" t="s">
-        <v>834</v>
-      </c>
-      <c r="D1">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <f>VLOOKUP(A1, $H$1:$I$51,2, FALSE)</f>
-        <v>27</v>
-      </c>
-      <c r="H1" t="s">
-        <v>658</v>
-      </c>
-      <c r="I1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>911</v>
-      </c>
-      <c r="B2" t="s">
-        <v>835</v>
-      </c>
-      <c r="C2" t="s">
-        <v>836</v>
-      </c>
-      <c r="D2">
-        <v>-1</v>
-      </c>
-      <c r="E2">
-        <f t="shared" ref="E2:E51" si="0">VLOOKUP(A2, $H$1:$I$51,2, FALSE)</f>
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>659</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>912</v>
-      </c>
-      <c r="B3" t="s">
-        <v>837</v>
-      </c>
-      <c r="C3" t="s">
-        <v>838</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="H3" t="s">
-        <v>660</v>
-      </c>
-      <c r="I3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>913</v>
-      </c>
-      <c r="B4" t="s">
-        <v>839</v>
-      </c>
-      <c r="C4" t="s">
-        <v>839</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="H4" t="s">
-        <v>661</v>
-      </c>
-      <c r="I4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>914</v>
-      </c>
-      <c r="B5" t="s">
-        <v>840</v>
-      </c>
-      <c r="C5" t="s">
-        <v>841</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
-        <v>829</v>
-      </c>
-      <c r="I5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>915</v>
-      </c>
-      <c r="B6" t="s">
-        <v>842</v>
-      </c>
-      <c r="C6" t="s">
-        <v>843</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="H6" t="s">
-        <v>662</v>
-      </c>
-      <c r="I6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>916</v>
-      </c>
-      <c r="B7" t="s">
-        <v>844</v>
-      </c>
-      <c r="C7" t="s">
-        <v>845</v>
-      </c>
-      <c r="D7">
-        <v>-1</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="H7" t="s">
-        <v>663</v>
-      </c>
-      <c r="I7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>917</v>
-      </c>
-      <c r="B8" t="s">
-        <v>846</v>
-      </c>
-      <c r="C8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="H8" t="s">
-        <v>664</v>
-      </c>
-      <c r="I8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>918</v>
-      </c>
-      <c r="B9" t="s">
-        <v>848</v>
-      </c>
-      <c r="C9" t="s">
-        <v>848</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="H9" t="s">
-        <v>665</v>
-      </c>
-      <c r="I9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>919</v>
-      </c>
-      <c r="B10" t="s">
-        <v>849</v>
-      </c>
-      <c r="C10" t="s">
-        <v>850</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H10" t="s">
-        <v>666</v>
-      </c>
-      <c r="I10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>920</v>
-      </c>
-      <c r="B11" t="s">
-        <v>851</v>
-      </c>
-      <c r="C11" t="s">
-        <v>852</v>
-      </c>
-      <c r="D11">
-        <v>-1</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="H11" t="s">
-        <v>667</v>
-      </c>
-      <c r="I11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>854</v>
-      </c>
-      <c r="B12" t="s">
-        <v>853</v>
-      </c>
-      <c r="C12" t="s">
-        <v>854</v>
-      </c>
-      <c r="D12">
-        <v>-1</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="H12" t="s">
-        <v>668</v>
-      </c>
-      <c r="I12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>797</v>
-      </c>
-      <c r="B13" t="s">
-        <v>855</v>
-      </c>
-      <c r="C13" t="s">
-        <v>856</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="H13" t="s">
-        <v>669</v>
-      </c>
-      <c r="I13">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>921</v>
-      </c>
-      <c r="B14" t="s">
-        <v>857</v>
-      </c>
-      <c r="C14" t="s">
-        <v>858</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="H14" t="s">
-        <v>670</v>
-      </c>
-      <c r="I14">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>922</v>
-      </c>
-      <c r="B15" t="s">
-        <v>859</v>
-      </c>
-      <c r="C15" t="s">
-        <v>860</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="H15" t="s">
-        <v>671</v>
-      </c>
-      <c r="I15">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>923</v>
-      </c>
-      <c r="B16" t="s">
-        <v>861</v>
-      </c>
-      <c r="C16" t="s">
-        <v>862</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="H16" t="s">
-        <v>231</v>
-      </c>
-      <c r="I16">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" t="s">
-        <v>924</v>
-      </c>
-      <c r="B17" t="s">
-        <v>947</v>
-      </c>
-      <c r="C17" t="s">
-        <v>863</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="H17" t="s">
-        <v>672</v>
-      </c>
-      <c r="I17">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" t="s">
-        <v>925</v>
-      </c>
-      <c r="B18" t="s">
-        <v>864</v>
-      </c>
-      <c r="C18" t="s">
-        <v>865</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="H18" t="s">
-        <v>673</v>
-      </c>
-      <c r="I18">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" t="s">
-        <v>926</v>
-      </c>
-      <c r="B19" t="s">
-        <v>866</v>
-      </c>
-      <c r="C19" t="s">
-        <v>867</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="H19" t="s">
-        <v>706</v>
-      </c>
-      <c r="I19">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" t="s">
-        <v>927</v>
-      </c>
-      <c r="B20" t="s">
-        <v>868</v>
-      </c>
-      <c r="C20" t="s">
-        <v>869</v>
-      </c>
-      <c r="D20">
-        <v>-2</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="H20" t="s">
-        <v>709</v>
-      </c>
-      <c r="I20">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
-        <v>928</v>
-      </c>
-      <c r="B21" t="s">
-        <v>946</v>
-      </c>
-      <c r="C21" t="s">
-        <v>870</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="H21" t="s">
-        <v>717</v>
-      </c>
-      <c r="I21">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" t="s">
-        <v>929</v>
-      </c>
-      <c r="B22" t="s">
-        <v>871</v>
-      </c>
-      <c r="C22" t="s">
-        <v>872</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="H22" t="s">
-        <v>719</v>
-      </c>
-      <c r="I22">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" t="s">
-        <v>930</v>
-      </c>
-      <c r="B23" t="s">
-        <v>873</v>
-      </c>
-      <c r="C23" t="s">
-        <v>874</v>
-      </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="H23" t="s">
-        <v>721</v>
-      </c>
-      <c r="I23">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" t="s">
-        <v>931</v>
-      </c>
-      <c r="B24" t="s">
-        <v>875</v>
-      </c>
-      <c r="C24" t="s">
-        <v>876</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="H24" t="s">
-        <v>725</v>
-      </c>
-      <c r="I24">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" t="s">
-        <v>932</v>
-      </c>
-      <c r="B25" t="s">
-        <v>877</v>
-      </c>
-      <c r="C25" t="s">
-        <v>878</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="H25" t="s">
-        <v>728</v>
-      </c>
-      <c r="I25">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" t="s">
-        <v>880</v>
-      </c>
-      <c r="B26" t="s">
-        <v>879</v>
-      </c>
-      <c r="C26" t="s">
-        <v>880</v>
-      </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="H26" t="s">
-        <v>798</v>
-      </c>
-      <c r="I26">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" t="s">
-        <v>933</v>
-      </c>
-      <c r="B27" t="s">
-        <v>881</v>
-      </c>
-      <c r="C27" t="s">
-        <v>882</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="H27" t="s">
-        <v>737</v>
-      </c>
-      <c r="I27">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" t="s">
-        <v>934</v>
-      </c>
-      <c r="B28" t="s">
-        <v>831</v>
-      </c>
-      <c r="C28" t="s">
-        <v>883</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="H28" t="s">
-        <v>740</v>
-      </c>
-      <c r="I28">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" t="s">
-        <v>935</v>
-      </c>
-      <c r="B29" t="s">
-        <v>884</v>
-      </c>
-      <c r="C29" t="s">
-        <v>884</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="H29" t="s">
-        <v>741</v>
-      </c>
-      <c r="I29">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" t="s">
-        <v>936</v>
-      </c>
-      <c r="B30" t="s">
-        <v>885</v>
-      </c>
-      <c r="C30" t="s">
-        <v>886</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="H30" t="s">
-        <v>742</v>
-      </c>
-      <c r="I30">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" t="s">
-        <v>937</v>
-      </c>
-      <c r="B31" t="s">
-        <v>887</v>
-      </c>
-      <c r="C31" t="s">
-        <v>761</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="H31" t="s">
-        <v>743</v>
-      </c>
-      <c r="I31">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" t="s">
-        <v>152</v>
-      </c>
-      <c r="B32" t="s">
-        <v>292</v>
-      </c>
-      <c r="C32" t="s">
-        <v>888</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="H32" t="s">
-        <v>744</v>
-      </c>
-      <c r="I32">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" t="s">
-        <v>938</v>
-      </c>
-      <c r="B33" t="s">
-        <v>889</v>
-      </c>
-      <c r="C33" t="s">
-        <v>585</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="H33" t="s">
-        <v>745</v>
-      </c>
-      <c r="I33">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" t="s">
-        <v>939</v>
-      </c>
-      <c r="B34" t="s">
-        <v>890</v>
-      </c>
-      <c r="C34" t="s">
-        <v>891</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="H34" t="s">
-        <v>746</v>
-      </c>
-      <c r="I34">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" t="s">
-        <v>893</v>
-      </c>
-      <c r="B35" t="s">
-        <v>892</v>
-      </c>
-      <c r="C35" t="s">
-        <v>893</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="H35" t="s">
-        <v>747</v>
-      </c>
-      <c r="I35">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" t="s">
-        <v>785</v>
-      </c>
-      <c r="B36" t="s">
-        <v>789</v>
-      </c>
-      <c r="C36" t="s">
-        <v>787</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="H36" t="s">
-        <v>748</v>
-      </c>
-      <c r="I36">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" t="s">
-        <v>801</v>
-      </c>
-      <c r="B37" t="s">
-        <v>266</v>
-      </c>
-      <c r="C37" t="s">
-        <v>799</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="H37" t="s">
-        <v>762</v>
-      </c>
-      <c r="I37">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" t="s">
-        <v>895</v>
-      </c>
-      <c r="B38" t="s">
-        <v>894</v>
-      </c>
-      <c r="C38" t="s">
-        <v>895</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H38" t="s">
-        <v>749</v>
-      </c>
-      <c r="I38">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" t="s">
-        <v>897</v>
-      </c>
-      <c r="B39" t="s">
-        <v>896</v>
-      </c>
-      <c r="C39" t="s">
-        <v>897</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="H39" t="s">
-        <v>750</v>
-      </c>
-      <c r="I39">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" t="s">
-        <v>828</v>
-      </c>
-      <c r="B40" t="s">
-        <v>898</v>
-      </c>
-      <c r="C40" t="s">
-        <v>899</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H40" t="s">
-        <v>751</v>
-      </c>
-      <c r="I40">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" t="s">
-        <v>940</v>
-      </c>
-      <c r="B41" t="s">
-        <v>900</v>
-      </c>
-      <c r="C41" t="s">
-        <v>901</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="H41" t="s">
-        <v>91</v>
-      </c>
-      <c r="I41">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" t="s">
-        <v>941</v>
-      </c>
-      <c r="B42" t="s">
-        <v>902</v>
-      </c>
-      <c r="C42" t="s">
-        <v>903</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H42" t="s">
-        <v>752</v>
-      </c>
-      <c r="I42">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" t="s">
-        <v>942</v>
-      </c>
-      <c r="B43" t="s">
-        <v>904</v>
-      </c>
-      <c r="C43" t="s">
-        <v>905</v>
-      </c>
-      <c r="D43">
-        <v>-1</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H43" t="s">
-        <v>781</v>
-      </c>
-      <c r="I43">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" t="s">
-        <v>814</v>
-      </c>
-      <c r="B44" t="s">
-        <v>820</v>
-      </c>
-      <c r="C44" t="s">
-        <v>816</v>
-      </c>
-      <c r="D44">
-        <v>2</v>
-      </c>
-      <c r="E44">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="H44" t="s">
-        <v>784</v>
-      </c>
-      <c r="I44">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" t="s">
-        <v>795</v>
-      </c>
-      <c r="B45" t="s">
-        <v>791</v>
-      </c>
-      <c r="C45" t="s">
-        <v>793</v>
-      </c>
-      <c r="D45">
-        <v>-1</v>
-      </c>
-      <c r="E45">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="H45" t="s">
-        <v>786</v>
-      </c>
-      <c r="I45">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" t="s">
-        <v>812</v>
-      </c>
-      <c r="B46" t="s">
-        <v>810</v>
-      </c>
-      <c r="C46" t="s">
-        <v>810</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="H46" t="s">
-        <v>796</v>
-      </c>
-      <c r="I46">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" t="s">
-        <v>822</v>
-      </c>
-      <c r="B47" t="s">
-        <v>826</v>
-      </c>
-      <c r="C47" t="s">
-        <v>824</v>
-      </c>
-      <c r="D47">
-        <v>3</v>
-      </c>
-      <c r="E47">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="H47" t="s">
-        <v>802</v>
-      </c>
-      <c r="I47">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" t="s">
-        <v>808</v>
-      </c>
-      <c r="B48" t="s">
-        <v>804</v>
-      </c>
-      <c r="C48" t="s">
-        <v>806</v>
-      </c>
-      <c r="D48">
-        <v>-1</v>
-      </c>
-      <c r="E48">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="H48" t="s">
-        <v>809</v>
-      </c>
-      <c r="I48">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" t="s">
-        <v>943</v>
-      </c>
-      <c r="B49" t="s">
-        <v>906</v>
-      </c>
-      <c r="C49" t="s">
-        <v>907</v>
-      </c>
-      <c r="D49">
-        <v>-1</v>
-      </c>
-      <c r="E49">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="H49" t="s">
-        <v>813</v>
-      </c>
-      <c r="I49">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" t="s">
-        <v>944</v>
-      </c>
-      <c r="B50" t="s">
-        <v>830</v>
-      </c>
-      <c r="C50" t="s">
-        <v>908</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="H50" t="s">
-        <v>815</v>
-      </c>
-      <c r="I50">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" t="s">
-        <v>945</v>
-      </c>
-      <c r="B51" t="s">
-        <v>909</v>
-      </c>
-      <c r="C51" t="s">
-        <v>910</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H51" t="s">
-        <v>823</v>
-      </c>
-      <c r="I51">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11395E04-9191-4F49-B826-2664B14B2268}">
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="171" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
@@ -11060,4 +11172,638 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{921C8C7D-D659-404D-A76D-1086BADEDC7C}">
+  <dimension ref="A1:Q32"/>
+  <sheetViews>
+    <sheetView zoomScale="169" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1123</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1124</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1125</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1127</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1128</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1129</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1130</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1131</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>11</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA60FF6-0EF9-AD40-83E3-AB5573C72BDA}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView zoomScale="200" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>519</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>518</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>520</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>589</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/the_word.xlsx
+++ b/the_word.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linyuxiang/Desktop/code/Learning_Japanese/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D24B8F-BE37-4D49-B58E-7CCE0885389D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C6091D-D461-1F43-835C-4A799DAE8211}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1760" yWindow="460" windowWidth="26740" windowHeight="16080" xr2:uid="{60B39602-CA03-F040-8524-C5DD9C0222AC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="1238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2262" uniqueCount="1642">
   <si>
     <t>あし</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4807,6 +4807,1534 @@
   </si>
   <si>
     <t>だいがくさい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lesson7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いっさつ</t>
+  </si>
+  <si>
+    <t>いっさつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>に</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>よん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ご</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ろく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なな</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はち</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きゅう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゅういち</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はっさつ</t>
+  </si>
+  <si>
+    <t>はっさつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゅういっさつ</t>
+  </si>
+  <si>
+    <t>じゅういっさつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いっ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さんぼん</t>
+  </si>
+  <si>
+    <t>さんぼん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ろっぽん</t>
+  </si>
+  <si>
+    <t>ろっぽん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はっぽん</t>
+  </si>
+  <si>
+    <t>はっぽん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゅういっぽん</t>
+  </si>
+  <si>
+    <t>じゅういっぽん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いっぽん</t>
+  </si>
+  <si>
+    <t>いっぽん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いっぱい</t>
+  </si>
+  <si>
+    <t>いっぱい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さんぱい</t>
+  </si>
+  <si>
+    <t>さんぱい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ろっぱい</t>
+  </si>
+  <si>
+    <t>ろっぱい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はっぱい</t>
+  </si>
+  <si>
+    <t>はっぱい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゅっぱい</t>
+  </si>
+  <si>
+    <t>じゅっぱい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゅっぽん</t>
+  </si>
+  <si>
+    <t>じゅっぽん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゅういっぱい</t>
+  </si>
+  <si>
+    <t>じゅういっぱい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>けん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さんがい</t>
+  </si>
+  <si>
+    <t>ろっかい</t>
+  </si>
+  <si>
+    <t>ろっかい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はっかい</t>
+  </si>
+  <si>
+    <t>はっかい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゅっかい</t>
+  </si>
+  <si>
+    <t>じゅっかい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゅういっかい</t>
+  </si>
+  <si>
+    <t>じゅういっかい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いちじ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>よじ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しちじ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くじ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いちじかん</t>
+  </si>
+  <si>
+    <t>いちじかん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>よじかん</t>
+  </si>
+  <si>
+    <t>よじかん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くじかん</t>
+  </si>
+  <si>
+    <t>くじかん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いっぷん</t>
+  </si>
+  <si>
+    <t>いっぷん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さんぷん</t>
+  </si>
+  <si>
+    <t>さんぷん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>よんぷん</t>
+  </si>
+  <si>
+    <t>よんぷん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ろっぷん</t>
+  </si>
+  <si>
+    <t>ろっぷん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はっぷん</t>
+  </si>
+  <si>
+    <t>はっぷん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゅっぷん</t>
+  </si>
+  <si>
+    <t>じゅっぷん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゅういっぷん</t>
+  </si>
+  <si>
+    <t>じゅういっぷん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さんぞく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はっそく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じっそく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゅういっそく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さんげん</t>
+  </si>
+  <si>
+    <t>さんげん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ろっけん</t>
+  </si>
+  <si>
+    <t>ろっけん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はっけん</t>
+  </si>
+  <si>
+    <t>はっけん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゅっけん</t>
+  </si>
+  <si>
+    <t>じゅっけん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゅういっけん</t>
+  </si>
+  <si>
+    <t>じゅういっけん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>にはい</t>
+  </si>
+  <si>
+    <t>よんはい</t>
+  </si>
+  <si>
+    <t>ごはい</t>
+  </si>
+  <si>
+    <t>ななはい</t>
+  </si>
+  <si>
+    <t>きゅうはい</t>
+  </si>
+  <si>
+    <t>ウーロンちゃ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花生米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樓層</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>襪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雜誌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年齡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いっぴき</t>
+  </si>
+  <si>
+    <t>さんびき</t>
+  </si>
+  <si>
+    <t>ろっぴき</t>
+  </si>
+  <si>
+    <t>はっぴき</t>
+  </si>
+  <si>
+    <t>じゅっぴき</t>
+  </si>
+  <si>
+    <t>じゅういっぴき</t>
+  </si>
+  <si>
+    <t>いっけん</t>
+  </si>
+  <si>
+    <t>にけん</t>
+  </si>
+  <si>
+    <t>よんけん</t>
+  </si>
+  <si>
+    <t>ごけん</t>
+  </si>
+  <si>
+    <t>ななけん</t>
+  </si>
+  <si>
+    <t>きゅうけん</t>
+  </si>
+  <si>
+    <t>いっかい</t>
+  </si>
+  <si>
+    <t>にかい</t>
+  </si>
+  <si>
+    <t>さんかい</t>
+  </si>
+  <si>
+    <t>よんかい</t>
+  </si>
+  <si>
+    <t>ごかい</t>
+  </si>
+  <si>
+    <t>ななかい</t>
+  </si>
+  <si>
+    <t>きゅうかい</t>
+  </si>
+  <si>
+    <t>にふん</t>
+  </si>
+  <si>
+    <t>ごふん</t>
+  </si>
+  <si>
+    <t>ななふん</t>
+  </si>
+  <si>
+    <t>きゅうふん</t>
+  </si>
+  <si>
+    <t>にじかん</t>
+  </si>
+  <si>
+    <t>よんじかん</t>
+  </si>
+  <si>
+    <t>ごじかん</t>
+  </si>
+  <si>
+    <t>ろくじかん</t>
+  </si>
+  <si>
+    <t>ななじかん</t>
+  </si>
+  <si>
+    <t>はちじかん</t>
+  </si>
+  <si>
+    <t>じゅうじかん</t>
+  </si>
+  <si>
+    <t>じゅういちじかん</t>
+  </si>
+  <si>
+    <t>にさつ</t>
+  </si>
+  <si>
+    <t>さんさつ</t>
+  </si>
+  <si>
+    <t>よんさつ</t>
+  </si>
+  <si>
+    <t>ごさつ</t>
+  </si>
+  <si>
+    <t>ろくさつ</t>
+  </si>
+  <si>
+    <t>ななさつ</t>
+  </si>
+  <si>
+    <t>きゅうさつ</t>
+  </si>
+  <si>
+    <t>じゅうさつ</t>
+  </si>
+  <si>
+    <t>ひき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>まい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>にん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いっそく</t>
+  </si>
+  <si>
+    <t>さんばい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>えいご</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いそがしい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たのしみ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>バーゲンセール</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふゆやすみ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>サークル</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はじめで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休み</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写真</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大学祭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英語</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忙しい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楽しみ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬休み</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>circle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初めで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふゆ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>もうすぐ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即將到來</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考試</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>約會</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>照片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校慶活動</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高興，有趣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大拍賣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秋天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社團</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>がんたん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成人の日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元旦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建国記念の日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春分の日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昭和の日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>憲法記念日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>緑の日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子供の日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ゴールデンウィーク</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>golden week</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海の日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敬老の日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秋分の日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体育の日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文化の日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勤労感謝の日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天皇誕生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>がんじつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>けんこくきねんのひ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せいじんのひ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しゅんぶんのひ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しょうわのひ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>けんぽうきねんび</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>みどりのひ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こどものひ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うみのひ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>けいろうのひ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しゅうぶんのひ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たいいくのひ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぶんかのひ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きんろうかんしゃのひ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>てんのうたんじょうび</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日曜日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月曜日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火曜日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水曜日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木曜日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金曜日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土曜日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何曜日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明後日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おととい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先週</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今週</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来週</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再来週</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夕方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次の日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翌日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>にちようび</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>げつようび</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かようび</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すいようび</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>もくようび</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きにょうび</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>どようび</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なにょうび</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きのう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あさって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一昨日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せんしゅう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こんしゅう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>らいしゅう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さらいしゅう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ゆうがた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つぎのひ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>よくじつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/1（じつ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4/29-5/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哪一天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>後天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上週</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這週</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下週</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下下週</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃昏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（書面）隔天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（口語）隔天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来ます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一緒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>友達</t>
+  </si>
+  <si>
+    <t>飛行機</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空港</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>お入り</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おかけ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いらっしゃいます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水道料金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きょねん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ともだち</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひこうき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くうこう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しょくひ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おはいり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すいどうりょうきん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ガス料金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電気料金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部屋代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>車代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食事代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ホテル代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>がすりょうきん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>でんきりょうきん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>へやだい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くるまだい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しょくひだい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ほてるだい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>來～</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朋友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飛機</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>機場</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自行車</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伙食費，餐費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>請進</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>請坐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歡迎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水費</t>
+  </si>
+  <si>
+    <t>電費</t>
+  </si>
+  <si>
+    <t>房費</t>
+  </si>
+  <si>
+    <t>車票</t>
+  </si>
+  <si>
+    <t>膳食費用</t>
+  </si>
+  <si>
+    <t>酒店收費</t>
+  </si>
+  <si>
+    <t>天然氣費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かわら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河原</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作ります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>県</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分かります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荷物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>restaurant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掛けます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>味</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>味噌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>醤油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入り口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>駅前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持ちます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送別会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つくります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ざいりょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>わかります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>にもつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>レストラン</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かけます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちほう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>めいぶつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あじ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>みそ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しょうゆ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぎゅうにく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いりぐち</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>えきまえ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>もちます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そうべつかい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河邊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぶたにく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豚肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豬肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隔壁、近鄰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>縣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行李</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打電話</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特產</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>味道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>醬油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>車站前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拿～</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歡送會</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山藥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芋頭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蕃薯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馬鈴薯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>やまいも</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山芋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>里芋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゃがいも</t>
+  </si>
+  <si>
+    <t>じゃが芋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さつま芋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さといも</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さつまいも</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bargain_sale</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4814,6 +6342,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="12"/>
@@ -4859,7 +6390,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4867,6 +6398,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5183,19 +6723,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D03D34A-BA0A-4C4B-8E51-02C16EDC5D6C}">
-  <dimension ref="A1:BH70"/>
+  <dimension ref="A1:BO74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AW2" zoomScale="183" zoomScaleNormal="222" workbookViewId="0">
-      <selection activeCell="AW7" sqref="AW7"/>
+    <sheetView tabSelected="1" topLeftCell="AV1" zoomScale="183" zoomScaleNormal="222" workbookViewId="0">
+      <selection activeCell="AX73" sqref="AX73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="29" max="29" width="16.83203125" customWidth="1"/>
+    <col min="49" max="49" width="17.33203125" customWidth="1"/>
+    <col min="50" max="50" width="15" customWidth="1"/>
     <col min="56" max="56" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60">
+    <row r="1" spans="1:67">
       <c r="A1" t="s">
         <v>504</v>
       </c>
@@ -5325,8 +6867,14 @@
       <c r="AW1" t="s">
         <v>737</v>
       </c>
+      <c r="AX1" t="s">
+        <v>739</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>738</v>
+      </c>
       <c r="AZ1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BA1">
         <v>1</v>
@@ -5349,8 +6897,26 @@
       <c r="BH1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:60">
+      <c r="BJ1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>1578</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>1613</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="BN1">
+        <v>0</v>
+      </c>
+      <c r="BO1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:67">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -5447,6 +7013,18 @@
       <c r="AW2" t="s">
         <v>1233</v>
       </c>
+      <c r="AX2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>1410</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>2</v>
+      </c>
       <c r="BD2" t="s">
         <v>1191</v>
       </c>
@@ -5462,8 +7040,23 @@
       <c r="BH2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:60">
+      <c r="BK2" t="s">
+        <v>1597</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>1580</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:67">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -5563,6 +7156,18 @@
       <c r="AW3" t="s">
         <v>1234</v>
       </c>
+      <c r="AX3" t="s">
+        <v>1427</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>1411</v>
+      </c>
+      <c r="AZ3">
+        <v>3</v>
+      </c>
+      <c r="BA3">
+        <v>3</v>
+      </c>
       <c r="BD3" t="s">
         <v>1192</v>
       </c>
@@ -5578,8 +7183,23 @@
       <c r="BH3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:60">
+      <c r="BK3" t="s">
+        <v>1598</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>1581</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>1581</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:67">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -5679,6 +7299,18 @@
       <c r="AW4" t="s">
         <v>1235</v>
       </c>
+      <c r="AX4" t="s">
+        <v>1428</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>1412</v>
+      </c>
+      <c r="AZ4">
+        <v>3</v>
+      </c>
+      <c r="BA4">
+        <v>4</v>
+      </c>
       <c r="BD4" t="s">
         <v>1193</v>
       </c>
@@ -5694,8 +7326,23 @@
       <c r="BH4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:60">
+      <c r="BK4" t="s">
+        <v>1614</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>1616</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>1615</v>
+      </c>
+      <c r="BN4">
+        <v>4</v>
+      </c>
+      <c r="BO4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:67">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -5792,6 +7439,18 @@
       <c r="AW5" t="s">
         <v>1236</v>
       </c>
+      <c r="AX5" t="s">
+        <v>1429</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>1413</v>
+      </c>
+      <c r="AZ5">
+        <v>2</v>
+      </c>
+      <c r="BA5">
+        <v>5</v>
+      </c>
       <c r="BD5" t="s">
         <v>1194</v>
       </c>
@@ -5807,8 +7466,23 @@
       <c r="BH5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:60">
+      <c r="BK5" t="s">
+        <v>1035</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>1065</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>1048</v>
+      </c>
+      <c r="BN5">
+        <v>4</v>
+      </c>
+      <c r="BO5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:67">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -5905,6 +7579,18 @@
       <c r="AW6" t="s">
         <v>1237</v>
       </c>
+      <c r="AX6" t="s">
+        <v>1430</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>1414</v>
+      </c>
+      <c r="AZ6">
+        <v>1</v>
+      </c>
+      <c r="BA6">
+        <v>6</v>
+      </c>
       <c r="BD6" t="s">
         <v>1195</v>
       </c>
@@ -5920,8 +7606,23 @@
       <c r="BH6">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:60">
+      <c r="BK6" t="s">
+        <v>859</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>1617</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>851</v>
+      </c>
+      <c r="BN6">
+        <v>4</v>
+      </c>
+      <c r="BO6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:67">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -6018,6 +7719,21 @@
       <c r="AT7">
         <v>7</v>
       </c>
+      <c r="AW7" t="s">
+        <v>1397</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>1415</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>1415</v>
+      </c>
+      <c r="AZ7">
+        <v>1</v>
+      </c>
+      <c r="BA7">
+        <v>7</v>
+      </c>
       <c r="BD7" t="s">
         <v>1196</v>
       </c>
@@ -6033,8 +7749,23 @@
       <c r="BH7">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:60">
+      <c r="BK7" t="s">
+        <v>1285</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>1618</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>1582</v>
+      </c>
+      <c r="BN7">
+        <v>4</v>
+      </c>
+      <c r="BO7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:67">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -6131,6 +7862,21 @@
       <c r="AT8">
         <v>8</v>
       </c>
+      <c r="AW8" t="s">
+        <v>805</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>807</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>806</v>
+      </c>
+      <c r="AZ8">
+        <v>4</v>
+      </c>
+      <c r="BA8">
+        <v>8</v>
+      </c>
       <c r="BD8" t="s">
         <v>1197</v>
       </c>
@@ -6146,8 +7892,23 @@
       <c r="BH8">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:60">
+      <c r="BK8" t="s">
+        <v>1599</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>1619</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>1583</v>
+      </c>
+      <c r="BN8">
+        <v>3</v>
+      </c>
+      <c r="BO8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:67">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -6244,6 +8005,21 @@
       <c r="AT9">
         <v>9</v>
       </c>
+      <c r="AW9" t="s">
+        <v>1398</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>1431</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>1416</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>9</v>
+      </c>
       <c r="BD9" t="s">
         <v>1198</v>
       </c>
@@ -6259,8 +8035,23 @@
       <c r="BH9">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:60">
+      <c r="BK9" t="s">
+        <v>1600</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>1620</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>1584</v>
+      </c>
+      <c r="BN9">
+        <v>2</v>
+      </c>
+      <c r="BO9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:67">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -6354,6 +8145,21 @@
       <c r="AT10">
         <v>10</v>
       </c>
+      <c r="AW10" t="s">
+        <v>1399</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>1432</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>1417</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>10</v>
+      </c>
       <c r="BD10" t="s">
         <v>1199</v>
       </c>
@@ -6369,8 +8175,23 @@
       <c r="BH10">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:60">
+      <c r="BK10" t="s">
+        <v>1601</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>626</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>1585</v>
+      </c>
+      <c r="BN10">
+        <v>3</v>
+      </c>
+      <c r="BO10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:67">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -6464,6 +8285,21 @@
       <c r="AT11">
         <v>11</v>
       </c>
+      <c r="AW11" t="s">
+        <v>1400</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>1433</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>1641</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>11</v>
+      </c>
       <c r="BD11" t="s">
         <v>1200</v>
       </c>
@@ -6479,8 +8315,23 @@
       <c r="BH11">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:60">
+      <c r="BK11" t="s">
+        <v>1602</v>
+      </c>
+      <c r="BL11" t="s">
+        <v>1621</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>1586</v>
+      </c>
+      <c r="BN11">
+        <v>0</v>
+      </c>
+      <c r="BO11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:67">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -6568,6 +8419,21 @@
       <c r="AT12">
         <v>12</v>
       </c>
+      <c r="AW12" t="s">
+        <v>1401</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>707</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>1401</v>
+      </c>
+      <c r="AZ12">
+        <v>2</v>
+      </c>
+      <c r="BA12">
+        <v>12</v>
+      </c>
       <c r="BD12" t="s">
         <v>1201</v>
       </c>
@@ -6583,8 +8449,23 @@
       <c r="BH12">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:60">
+      <c r="BK12" t="s">
+        <v>1603</v>
+      </c>
+      <c r="BL12" t="s">
+        <v>1587</v>
+      </c>
+      <c r="BM12" t="s">
+        <v>1587</v>
+      </c>
+      <c r="BN12">
+        <v>0</v>
+      </c>
+      <c r="BO12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:67">
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -6672,6 +8553,21 @@
       <c r="AT13">
         <v>13</v>
       </c>
+      <c r="AW13" t="s">
+        <v>1402</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>1434</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>1409</v>
+      </c>
+      <c r="AZ13">
+        <v>1</v>
+      </c>
+      <c r="BA13">
+        <v>13</v>
+      </c>
       <c r="BD13" t="s">
         <v>1202</v>
       </c>
@@ -6687,8 +8583,23 @@
       <c r="BH13">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:60">
+      <c r="BK13" t="s">
+        <v>1604</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>1622</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>1588</v>
+      </c>
+      <c r="BN13">
+        <v>0</v>
+      </c>
+      <c r="BO13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:67">
       <c r="B14" t="s">
         <v>26</v>
       </c>
@@ -6776,6 +8687,21 @@
       <c r="AT14">
         <v>14</v>
       </c>
+      <c r="AW14" t="s">
+        <v>1403</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>1435</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>1418</v>
+      </c>
+      <c r="AZ14">
+        <v>2</v>
+      </c>
+      <c r="BA14">
+        <v>14</v>
+      </c>
       <c r="BD14" t="s">
         <v>1203</v>
       </c>
@@ -6791,8 +8717,23 @@
       <c r="BH14">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:60">
+      <c r="BK14" t="s">
+        <v>1605</v>
+      </c>
+      <c r="BL14" t="s">
+        <v>1623</v>
+      </c>
+      <c r="BM14" t="s">
+        <v>1589</v>
+      </c>
+      <c r="BN14">
+        <v>2</v>
+      </c>
+      <c r="BO14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:67">
       <c r="B15" t="s">
         <v>27</v>
       </c>
@@ -6880,6 +8821,21 @@
       <c r="AT15">
         <v>15</v>
       </c>
+      <c r="AW15" t="s">
+        <v>1404</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>1436</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>1419</v>
+      </c>
+      <c r="AZ15">
+        <v>0</v>
+      </c>
+      <c r="BA15">
+        <v>15</v>
+      </c>
       <c r="BD15" t="s">
         <v>1204</v>
       </c>
@@ -6895,8 +8851,23 @@
       <c r="BH15">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:60">
+      <c r="BK15" t="s">
+        <v>1606</v>
+      </c>
+      <c r="BL15" t="s">
+        <v>1590</v>
+      </c>
+      <c r="BM15" t="s">
+        <v>1590</v>
+      </c>
+      <c r="BN15">
+        <v>2</v>
+      </c>
+      <c r="BO15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:67">
       <c r="B16" t="s">
         <v>28</v>
       </c>
@@ -6984,6 +8955,21 @@
       <c r="AT16">
         <v>16</v>
       </c>
+      <c r="AW16" t="s">
+        <v>1405</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>1437</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>1420</v>
+      </c>
+      <c r="AZ16">
+        <v>1</v>
+      </c>
+      <c r="BA16">
+        <v>16</v>
+      </c>
       <c r="BD16" t="s">
         <v>1205</v>
       </c>
@@ -6999,8 +8985,23 @@
       <c r="BH16">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="2:60">
+      <c r="BK16" t="s">
+        <v>1607</v>
+      </c>
+      <c r="BL16" t="s">
+        <v>1624</v>
+      </c>
+      <c r="BM16" t="s">
+        <v>1591</v>
+      </c>
+      <c r="BN16">
+        <v>3</v>
+      </c>
+      <c r="BO16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:67">
       <c r="B17" t="s">
         <v>29</v>
       </c>
@@ -7088,6 +9089,21 @@
       <c r="AT17">
         <v>17</v>
       </c>
+      <c r="AW17" t="s">
+        <v>1421</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>1438</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>1406</v>
+      </c>
+      <c r="AZ17">
+        <v>1</v>
+      </c>
+      <c r="BA17">
+        <v>17</v>
+      </c>
       <c r="BD17" t="s">
         <v>1206</v>
       </c>
@@ -7103,8 +9119,23 @@
       <c r="BH17">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="2:60">
+      <c r="BK17" t="s">
+        <v>1608</v>
+      </c>
+      <c r="BL17" t="s">
+        <v>1592</v>
+      </c>
+      <c r="BM17" t="s">
+        <v>1592</v>
+      </c>
+      <c r="BN17">
+        <v>2</v>
+      </c>
+      <c r="BO17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:67">
       <c r="B18" t="s">
         <v>30</v>
       </c>
@@ -7192,6 +9223,21 @@
       <c r="AT18">
         <v>18</v>
       </c>
+      <c r="AW18" t="s">
+        <v>1422</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>1439</v>
+      </c>
+      <c r="AY18" t="s">
+        <v>1407</v>
+      </c>
+      <c r="AZ18">
+        <v>1</v>
+      </c>
+      <c r="BA18">
+        <v>18</v>
+      </c>
       <c r="BD18" t="s">
         <v>1207</v>
       </c>
@@ -7207,8 +9253,23 @@
       <c r="BH18">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="2:60">
+      <c r="BK18" t="s">
+        <v>1609</v>
+      </c>
+      <c r="BL18" t="s">
+        <v>1625</v>
+      </c>
+      <c r="BM18" t="s">
+        <v>1593</v>
+      </c>
+      <c r="BN18">
+        <v>0</v>
+      </c>
+      <c r="BO18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="2:67">
       <c r="B19" t="s">
         <v>31</v>
       </c>
@@ -7290,6 +9351,21 @@
       <c r="AT19">
         <v>19</v>
       </c>
+      <c r="AW19" t="s">
+        <v>1423</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>1440</v>
+      </c>
+      <c r="AY19" t="s">
+        <v>1408</v>
+      </c>
+      <c r="AZ19">
+        <v>1</v>
+      </c>
+      <c r="BA19">
+        <v>19</v>
+      </c>
       <c r="BD19" t="s">
         <v>1208</v>
       </c>
@@ -7305,8 +9381,23 @@
       <c r="BH19">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="2:60">
+      <c r="BK19" t="s">
+        <v>1610</v>
+      </c>
+      <c r="BL19" t="s">
+        <v>1626</v>
+      </c>
+      <c r="BM19" t="s">
+        <v>1594</v>
+      </c>
+      <c r="BN19">
+        <v>4</v>
+      </c>
+      <c r="BO19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="2:67">
       <c r="B20" t="s">
         <v>32</v>
       </c>
@@ -7388,6 +9479,21 @@
       <c r="AT20">
         <v>20</v>
       </c>
+      <c r="AW20" t="s">
+        <v>1424</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>1425</v>
+      </c>
+      <c r="AY20" t="s">
+        <v>1424</v>
+      </c>
+      <c r="AZ20">
+        <v>0</v>
+      </c>
+      <c r="BA20">
+        <v>20</v>
+      </c>
       <c r="BD20" t="s">
         <v>1209</v>
       </c>
@@ -7403,8 +9509,23 @@
       <c r="BH20">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="2:60">
+      <c r="BK20" t="s">
+        <v>1611</v>
+      </c>
+      <c r="BL20" t="s">
+        <v>1627</v>
+      </c>
+      <c r="BM20" t="s">
+        <v>1595</v>
+      </c>
+      <c r="BN20">
+        <v>0</v>
+      </c>
+      <c r="BO20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:67">
       <c r="B21" t="s">
         <v>40</v>
       </c>
@@ -7486,6 +9607,21 @@
       <c r="AT21">
         <v>21</v>
       </c>
+      <c r="AW21" t="s">
+        <v>1441</v>
+      </c>
+      <c r="AX21" s="5">
+        <v>43466</v>
+      </c>
+      <c r="AY21" t="s">
+        <v>1443</v>
+      </c>
+      <c r="AZ21">
+        <v>0</v>
+      </c>
+      <c r="BA21">
+        <v>21</v>
+      </c>
       <c r="BD21" t="s">
         <v>1210</v>
       </c>
@@ -7501,8 +9637,23 @@
       <c r="BH21">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="2:60" ht="18">
+      <c r="BK21" t="s">
+        <v>1612</v>
+      </c>
+      <c r="BL21" t="s">
+        <v>1628</v>
+      </c>
+      <c r="BM21" t="s">
+        <v>1596</v>
+      </c>
+      <c r="BN21">
+        <v>0</v>
+      </c>
+      <c r="BO21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="2:67" ht="18">
       <c r="B22" t="s">
         <v>41</v>
       </c>
@@ -7585,6 +9736,21 @@
       <c r="AT22">
         <v>22</v>
       </c>
+      <c r="AW22" t="s">
+        <v>1459</v>
+      </c>
+      <c r="AX22" t="s">
+        <v>1511</v>
+      </c>
+      <c r="AY22" t="s">
+        <v>1460</v>
+      </c>
+      <c r="AZ22">
+        <v>0</v>
+      </c>
+      <c r="BA22">
+        <v>22</v>
+      </c>
       <c r="BD22" t="s">
         <v>1211</v>
       </c>
@@ -7600,8 +9766,23 @@
       <c r="BH22">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="2:60">
+      <c r="BK22" t="s">
+        <v>1633</v>
+      </c>
+      <c r="BL22" t="s">
+        <v>1629</v>
+      </c>
+      <c r="BM22" t="s">
+        <v>1634</v>
+      </c>
+      <c r="BN22">
+        <v>0</v>
+      </c>
+      <c r="BO22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="2:67">
       <c r="B23" t="s">
         <v>42</v>
       </c>
@@ -7683,6 +9864,21 @@
       <c r="AT23">
         <v>23</v>
       </c>
+      <c r="AW23" t="s">
+        <v>1462</v>
+      </c>
+      <c r="AX23" s="5">
+        <v>43480</v>
+      </c>
+      <c r="AY23" t="s">
+        <v>1442</v>
+      </c>
+      <c r="AZ23">
+        <v>0</v>
+      </c>
+      <c r="BA23">
+        <v>23</v>
+      </c>
       <c r="BD23" t="s">
         <v>1212</v>
       </c>
@@ -7698,8 +9894,23 @@
       <c r="BH23">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="2:60">
+      <c r="BK23" t="s">
+        <v>1639</v>
+      </c>
+      <c r="BL23" t="s">
+        <v>1630</v>
+      </c>
+      <c r="BM23" t="s">
+        <v>1635</v>
+      </c>
+      <c r="BN23">
+        <v>0</v>
+      </c>
+      <c r="BO23">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="2:67">
       <c r="B24" t="s">
         <v>43</v>
       </c>
@@ -7781,6 +9992,21 @@
       <c r="AT24">
         <v>24</v>
       </c>
+      <c r="AW24" t="s">
+        <v>1461</v>
+      </c>
+      <c r="AX24" s="5">
+        <v>43507</v>
+      </c>
+      <c r="AY24" t="s">
+        <v>1444</v>
+      </c>
+      <c r="AZ24">
+        <v>0</v>
+      </c>
+      <c r="BA24">
+        <v>24</v>
+      </c>
       <c r="BD24" t="s">
         <v>1213</v>
       </c>
@@ -7796,8 +10022,23 @@
       <c r="BH24">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="2:60">
+      <c r="BK24" t="s">
+        <v>1640</v>
+      </c>
+      <c r="BL24" t="s">
+        <v>1631</v>
+      </c>
+      <c r="BM24" t="s">
+        <v>1638</v>
+      </c>
+      <c r="BN24">
+        <v>0</v>
+      </c>
+      <c r="BO24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="2:67">
       <c r="B25" t="s">
         <v>44</v>
       </c>
@@ -7882,6 +10123,21 @@
       <c r="AT25">
         <v>25</v>
       </c>
+      <c r="AW25" t="s">
+        <v>1463</v>
+      </c>
+      <c r="AX25" s="5">
+        <v>43545</v>
+      </c>
+      <c r="AY25" t="s">
+        <v>1445</v>
+      </c>
+      <c r="AZ25">
+        <v>0</v>
+      </c>
+      <c r="BA25">
+        <v>25</v>
+      </c>
       <c r="BD25" t="s">
         <v>1214</v>
       </c>
@@ -7897,8 +10153,23 @@
       <c r="BH25">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="2:60">
+      <c r="BK25" t="s">
+        <v>1636</v>
+      </c>
+      <c r="BL25" t="s">
+        <v>1632</v>
+      </c>
+      <c r="BM25" t="s">
+        <v>1637</v>
+      </c>
+      <c r="BN25">
+        <v>0</v>
+      </c>
+      <c r="BO25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:67">
       <c r="B26" t="s">
         <v>45</v>
       </c>
@@ -7980,6 +10251,21 @@
       <c r="AT26">
         <v>26</v>
       </c>
+      <c r="AW26" t="s">
+        <v>1464</v>
+      </c>
+      <c r="AX26" s="5">
+        <v>43584</v>
+      </c>
+      <c r="AY26" t="s">
+        <v>1446</v>
+      </c>
+      <c r="AZ26">
+        <v>0</v>
+      </c>
+      <c r="BA26">
+        <v>26</v>
+      </c>
       <c r="BD26" t="s">
         <v>1215</v>
       </c>
@@ -7996,7 +10282,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="2:60">
+    <row r="27" spans="2:67">
       <c r="B27" t="s">
         <v>46</v>
       </c>
@@ -8078,6 +10364,21 @@
       <c r="AT27">
         <v>27</v>
       </c>
+      <c r="AW27" t="s">
+        <v>1465</v>
+      </c>
+      <c r="AX27" s="5">
+        <v>43588</v>
+      </c>
+      <c r="AY27" t="s">
+        <v>1447</v>
+      </c>
+      <c r="AZ27">
+        <v>0</v>
+      </c>
+      <c r="BA27">
+        <v>27</v>
+      </c>
       <c r="BD27" t="s">
         <v>1216</v>
       </c>
@@ -8094,7 +10395,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="2:60">
+    <row r="28" spans="2:67">
       <c r="B28" t="s">
         <v>54</v>
       </c>
@@ -8170,6 +10471,21 @@
       <c r="AT28">
         <v>28</v>
       </c>
+      <c r="AW28" t="s">
+        <v>1466</v>
+      </c>
+      <c r="AX28" s="5">
+        <v>43589</v>
+      </c>
+      <c r="AY28" t="s">
+        <v>1448</v>
+      </c>
+      <c r="AZ28">
+        <v>0</v>
+      </c>
+      <c r="BA28">
+        <v>28</v>
+      </c>
       <c r="BD28" t="s">
         <v>1217</v>
       </c>
@@ -8186,7 +10502,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="2:60">
+    <row r="29" spans="2:67">
       <c r="B29" t="s">
         <v>55</v>
       </c>
@@ -8262,6 +10578,21 @@
       <c r="AT29">
         <v>29</v>
       </c>
+      <c r="AW29" t="s">
+        <v>1467</v>
+      </c>
+      <c r="AX29" s="5">
+        <v>43590</v>
+      </c>
+      <c r="AY29" t="s">
+        <v>1449</v>
+      </c>
+      <c r="AZ29">
+        <v>0</v>
+      </c>
+      <c r="BA29">
+        <v>29</v>
+      </c>
       <c r="BD29" t="s">
         <v>1218</v>
       </c>
@@ -8278,7 +10609,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="2:60">
+    <row r="30" spans="2:67">
       <c r="B30" t="s">
         <v>56</v>
       </c>
@@ -8354,6 +10685,21 @@
       <c r="AT30">
         <v>30</v>
       </c>
+      <c r="AW30" t="s">
+        <v>1450</v>
+      </c>
+      <c r="AX30" t="s">
+        <v>1512</v>
+      </c>
+      <c r="AY30" t="s">
+        <v>1451</v>
+      </c>
+      <c r="AZ30">
+        <v>0</v>
+      </c>
+      <c r="BA30">
+        <v>30</v>
+      </c>
       <c r="BD30" t="s">
         <v>1219</v>
       </c>
@@ -8370,7 +10716,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="2:60">
+    <row r="31" spans="2:67">
       <c r="B31" t="s">
         <v>57</v>
       </c>
@@ -8446,6 +10792,21 @@
       <c r="AT31">
         <v>31</v>
       </c>
+      <c r="AW31" t="s">
+        <v>1468</v>
+      </c>
+      <c r="AX31" s="5">
+        <v>43666</v>
+      </c>
+      <c r="AY31" t="s">
+        <v>1452</v>
+      </c>
+      <c r="AZ31">
+        <v>0</v>
+      </c>
+      <c r="BA31">
+        <v>31</v>
+      </c>
       <c r="BD31" t="s">
         <v>1220</v>
       </c>
@@ -8462,7 +10823,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="2:60">
+    <row r="32" spans="2:67">
       <c r="B32" t="s">
         <v>58</v>
       </c>
@@ -8536,6 +10897,21 @@
         <v>2</v>
       </c>
       <c r="AT32">
+        <v>32</v>
+      </c>
+      <c r="AW32" t="s">
+        <v>1469</v>
+      </c>
+      <c r="AX32" s="5">
+        <v>43723</v>
+      </c>
+      <c r="AY32" t="s">
+        <v>1453</v>
+      </c>
+      <c r="AZ32">
+        <v>0</v>
+      </c>
+      <c r="BA32">
         <v>32</v>
       </c>
       <c r="BD32" t="s">
@@ -8630,6 +11006,21 @@
       <c r="AT33">
         <v>33</v>
       </c>
+      <c r="AW33" t="s">
+        <v>1470</v>
+      </c>
+      <c r="AX33" s="5">
+        <v>43731</v>
+      </c>
+      <c r="AY33" t="s">
+        <v>1454</v>
+      </c>
+      <c r="AZ33">
+        <v>0</v>
+      </c>
+      <c r="BA33">
+        <v>33</v>
+      </c>
       <c r="BD33" t="s">
         <v>1222</v>
       </c>
@@ -8722,6 +11113,21 @@
       <c r="AT34">
         <v>34</v>
       </c>
+      <c r="AW34" t="s">
+        <v>1471</v>
+      </c>
+      <c r="AX34" s="5">
+        <v>43748</v>
+      </c>
+      <c r="AY34" t="s">
+        <v>1455</v>
+      </c>
+      <c r="AZ34">
+        <v>0</v>
+      </c>
+      <c r="BA34">
+        <v>34</v>
+      </c>
       <c r="BD34" t="s">
         <v>1223</v>
       </c>
@@ -8805,6 +11211,21 @@
       <c r="AT35">
         <v>35</v>
       </c>
+      <c r="AW35" t="s">
+        <v>1472</v>
+      </c>
+      <c r="AX35" s="5">
+        <v>43772</v>
+      </c>
+      <c r="AY35" t="s">
+        <v>1456</v>
+      </c>
+      <c r="AZ35">
+        <v>0</v>
+      </c>
+      <c r="BA35">
+        <v>35</v>
+      </c>
       <c r="BD35" t="s">
         <v>1224</v>
       </c>
@@ -8888,6 +11309,21 @@
       <c r="AT36">
         <v>36</v>
       </c>
+      <c r="AW36" t="s">
+        <v>1473</v>
+      </c>
+      <c r="AX36" s="5">
+        <v>43792</v>
+      </c>
+      <c r="AY36" t="s">
+        <v>1457</v>
+      </c>
+      <c r="AZ36">
+        <v>0</v>
+      </c>
+      <c r="BA36">
+        <v>36</v>
+      </c>
       <c r="BD36" t="s">
         <v>1225</v>
       </c>
@@ -8971,6 +11407,21 @@
       <c r="AT37">
         <v>37</v>
       </c>
+      <c r="AW37" t="s">
+        <v>1474</v>
+      </c>
+      <c r="AX37" s="5">
+        <v>43822</v>
+      </c>
+      <c r="AY37" t="s">
+        <v>1458</v>
+      </c>
+      <c r="AZ37">
+        <v>0</v>
+      </c>
+      <c r="BA37">
+        <v>37</v>
+      </c>
       <c r="BD37" t="s">
         <v>1226</v>
       </c>
@@ -9054,6 +11505,21 @@
       <c r="AT38">
         <v>38</v>
       </c>
+      <c r="AW38" t="s">
+        <v>1493</v>
+      </c>
+      <c r="AX38" t="s">
+        <v>1513</v>
+      </c>
+      <c r="AY38" t="s">
+        <v>1475</v>
+      </c>
+      <c r="AZ38">
+        <v>2</v>
+      </c>
+      <c r="BA38">
+        <v>38</v>
+      </c>
       <c r="BD38" t="s">
         <v>1227</v>
       </c>
@@ -9131,6 +11597,21 @@
       <c r="AT39">
         <v>39</v>
       </c>
+      <c r="AW39" t="s">
+        <v>1494</v>
+      </c>
+      <c r="AX39" t="s">
+        <v>1514</v>
+      </c>
+      <c r="AY39" t="s">
+        <v>1476</v>
+      </c>
+      <c r="AZ39">
+        <v>2</v>
+      </c>
+      <c r="BA39">
+        <v>39</v>
+      </c>
       <c r="BD39" t="s">
         <v>1228</v>
       </c>
@@ -9208,6 +11689,21 @@
       <c r="AT40">
         <v>40</v>
       </c>
+      <c r="AW40" t="s">
+        <v>1495</v>
+      </c>
+      <c r="AX40" t="s">
+        <v>1515</v>
+      </c>
+      <c r="AY40" t="s">
+        <v>1477</v>
+      </c>
+      <c r="AZ40">
+        <v>2</v>
+      </c>
+      <c r="BA40">
+        <v>40</v>
+      </c>
       <c r="BD40" t="s">
         <v>1229</v>
       </c>
@@ -9285,6 +11781,21 @@
       <c r="AT41">
         <v>41</v>
       </c>
+      <c r="AW41" t="s">
+        <v>1496</v>
+      </c>
+      <c r="AX41" t="s">
+        <v>1516</v>
+      </c>
+      <c r="AY41" t="s">
+        <v>1478</v>
+      </c>
+      <c r="AZ41">
+        <v>2</v>
+      </c>
+      <c r="BA41">
+        <v>41</v>
+      </c>
       <c r="BD41" t="s">
         <v>1230</v>
       </c>
@@ -9362,6 +11873,21 @@
       <c r="AT42">
         <v>42</v>
       </c>
+      <c r="AW42" t="s">
+        <v>1497</v>
+      </c>
+      <c r="AX42" t="s">
+        <v>1517</v>
+      </c>
+      <c r="AY42" t="s">
+        <v>1479</v>
+      </c>
+      <c r="AZ42">
+        <v>2</v>
+      </c>
+      <c r="BA42">
+        <v>42</v>
+      </c>
       <c r="BD42" t="s">
         <v>1231</v>
       </c>
@@ -9439,6 +11965,21 @@
       <c r="AT43">
         <v>43</v>
       </c>
+      <c r="AW43" t="s">
+        <v>1498</v>
+      </c>
+      <c r="AX43" t="s">
+        <v>1518</v>
+      </c>
+      <c r="AY43" t="s">
+        <v>1480</v>
+      </c>
+      <c r="AZ43">
+        <v>2</v>
+      </c>
+      <c r="BA43">
+        <v>43</v>
+      </c>
       <c r="BD43" t="s">
         <v>1232</v>
       </c>
@@ -9501,6 +12042,21 @@
       <c r="AM44">
         <v>44</v>
       </c>
+      <c r="AW44" t="s">
+        <v>1499</v>
+      </c>
+      <c r="AX44" t="s">
+        <v>1519</v>
+      </c>
+      <c r="AY44" t="s">
+        <v>1481</v>
+      </c>
+      <c r="AZ44">
+        <v>2</v>
+      </c>
+      <c r="BA44">
+        <v>44</v>
+      </c>
     </row>
     <row r="45" spans="2:60">
       <c r="B45" t="s">
@@ -9548,6 +12104,21 @@
       <c r="AM45">
         <v>45</v>
       </c>
+      <c r="AW45" t="s">
+        <v>1500</v>
+      </c>
+      <c r="AX45" t="s">
+        <v>1520</v>
+      </c>
+      <c r="AY45" t="s">
+        <v>1482</v>
+      </c>
+      <c r="AZ45">
+        <v>2</v>
+      </c>
+      <c r="BA45">
+        <v>45</v>
+      </c>
     </row>
     <row r="46" spans="2:60">
       <c r="B46" t="s">
@@ -9595,6 +12166,21 @@
       <c r="AM46">
         <v>46</v>
       </c>
+      <c r="AW46" t="s">
+        <v>1501</v>
+      </c>
+      <c r="AX46" t="s">
+        <v>1521</v>
+      </c>
+      <c r="AY46" t="s">
+        <v>1483</v>
+      </c>
+      <c r="AZ46">
+        <v>2</v>
+      </c>
+      <c r="BA46">
+        <v>46</v>
+      </c>
     </row>
     <row r="47" spans="2:60">
       <c r="B47" t="s">
@@ -9642,6 +12228,21 @@
       <c r="AM47">
         <v>47</v>
       </c>
+      <c r="AW47" t="s">
+        <v>791</v>
+      </c>
+      <c r="AX47" t="s">
+        <v>736</v>
+      </c>
+      <c r="AY47" t="s">
+        <v>735</v>
+      </c>
+      <c r="AZ47">
+        <v>4</v>
+      </c>
+      <c r="BA47">
+        <v>47</v>
+      </c>
     </row>
     <row r="48" spans="2:60" ht="18">
       <c r="B48" t="s">
@@ -9689,8 +12290,23 @@
       <c r="AM48">
         <v>48</v>
       </c>
-    </row>
-    <row r="49" spans="2:39">
+      <c r="AW48" t="s">
+        <v>1502</v>
+      </c>
+      <c r="AX48" t="s">
+        <v>1522</v>
+      </c>
+      <c r="AY48" t="s">
+        <v>1484</v>
+      </c>
+      <c r="AZ48">
+        <v>1</v>
+      </c>
+      <c r="BA48">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="2:53">
       <c r="B49" t="s">
         <v>93</v>
       </c>
@@ -9736,8 +12352,23 @@
       <c r="AM49">
         <v>49</v>
       </c>
-    </row>
-    <row r="50" spans="2:39">
+      <c r="AW49" t="s">
+        <v>1485</v>
+      </c>
+      <c r="AX49" t="s">
+        <v>1523</v>
+      </c>
+      <c r="AY49" t="s">
+        <v>1503</v>
+      </c>
+      <c r="AZ49">
+        <v>1</v>
+      </c>
+      <c r="BA49">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="2:53">
       <c r="B50" t="s">
         <v>94</v>
       </c>
@@ -9783,8 +12414,23 @@
       <c r="AM50">
         <v>50</v>
       </c>
-    </row>
-    <row r="51" spans="2:39">
+      <c r="AW50" t="s">
+        <v>1504</v>
+      </c>
+      <c r="AX50" t="s">
+        <v>1524</v>
+      </c>
+      <c r="AY50" t="s">
+        <v>1486</v>
+      </c>
+      <c r="AZ50">
+        <v>2</v>
+      </c>
+      <c r="BA50">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="2:53">
       <c r="B51" t="s">
         <v>95</v>
       </c>
@@ -9830,8 +12476,23 @@
       <c r="AM51">
         <v>51</v>
       </c>
-    </row>
-    <row r="52" spans="2:39">
+      <c r="AW51" t="s">
+        <v>1505</v>
+      </c>
+      <c r="AX51" t="s">
+        <v>1525</v>
+      </c>
+      <c r="AY51" t="s">
+        <v>1487</v>
+      </c>
+      <c r="AZ51">
+        <v>3</v>
+      </c>
+      <c r="BA51">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="2:53">
       <c r="B52" t="s">
         <v>110</v>
       </c>
@@ -9862,8 +12523,23 @@
       <c r="AM52">
         <v>52</v>
       </c>
-    </row>
-    <row r="53" spans="2:39" ht="18">
+      <c r="AW52" t="s">
+        <v>1506</v>
+      </c>
+      <c r="AX52" t="s">
+        <v>1526</v>
+      </c>
+      <c r="AY52" t="s">
+        <v>1488</v>
+      </c>
+      <c r="AZ52">
+        <v>3</v>
+      </c>
+      <c r="BA52">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="2:53" ht="18">
       <c r="B53" t="s">
         <v>111</v>
       </c>
@@ -9891,8 +12567,23 @@
       <c r="AM53">
         <v>53</v>
       </c>
-    </row>
-    <row r="54" spans="2:39">
+      <c r="AW53" t="s">
+        <v>1507</v>
+      </c>
+      <c r="AX53" t="s">
+        <v>1527</v>
+      </c>
+      <c r="AY53" t="s">
+        <v>1489</v>
+      </c>
+      <c r="AZ53">
+        <v>2</v>
+      </c>
+      <c r="BA53">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="2:53">
       <c r="B54" t="s">
         <v>112</v>
       </c>
@@ -9920,8 +12611,23 @@
       <c r="AM54">
         <v>54</v>
       </c>
-    </row>
-    <row r="55" spans="2:39">
+      <c r="AW54" t="s">
+        <v>1508</v>
+      </c>
+      <c r="AX54" t="s">
+        <v>1528</v>
+      </c>
+      <c r="AY54" t="s">
+        <v>1490</v>
+      </c>
+      <c r="AZ54">
+        <v>0</v>
+      </c>
+      <c r="BA54">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="2:53">
       <c r="B55" t="s">
         <v>113</v>
       </c>
@@ -9949,8 +12655,23 @@
       <c r="AM55">
         <v>55</v>
       </c>
-    </row>
-    <row r="56" spans="2:39">
+      <c r="AW55" t="s">
+        <v>1509</v>
+      </c>
+      <c r="AX55" t="s">
+        <v>1529</v>
+      </c>
+      <c r="AY55" t="s">
+        <v>1491</v>
+      </c>
+      <c r="AZ55">
+        <v>0</v>
+      </c>
+      <c r="BA55">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="2:53">
       <c r="B56" t="s">
         <v>114</v>
       </c>
@@ -9978,8 +12699,23 @@
       <c r="AM56">
         <v>56</v>
       </c>
-    </row>
-    <row r="57" spans="2:39">
+      <c r="AW56" t="s">
+        <v>1510</v>
+      </c>
+      <c r="AX56" t="s">
+        <v>1530</v>
+      </c>
+      <c r="AY56" t="s">
+        <v>1492</v>
+      </c>
+      <c r="AZ56">
+        <v>0</v>
+      </c>
+      <c r="BA56">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="2:53">
       <c r="B57" t="s">
         <v>115</v>
       </c>
@@ -10007,8 +12743,23 @@
       <c r="AM57">
         <v>57</v>
       </c>
-    </row>
-    <row r="58" spans="2:39" ht="18">
+      <c r="AW57" t="s">
+        <v>1531</v>
+      </c>
+      <c r="AX57" t="s">
+        <v>1562</v>
+      </c>
+      <c r="AY57" t="s">
+        <v>1532</v>
+      </c>
+      <c r="AZ57">
+        <v>0</v>
+      </c>
+      <c r="BA57">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="2:53" ht="18">
       <c r="B58" t="s">
         <v>116</v>
       </c>
@@ -10036,8 +12787,23 @@
       <c r="AM58">
         <v>58</v>
       </c>
-    </row>
-    <row r="59" spans="2:39">
+      <c r="AW58" t="s">
+        <v>224</v>
+      </c>
+      <c r="AX58" t="s">
+        <v>221</v>
+      </c>
+      <c r="AY58" t="s">
+        <v>1533</v>
+      </c>
+      <c r="AZ58">
+        <v>2</v>
+      </c>
+      <c r="BA58">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="2:53">
       <c r="B59" t="s">
         <v>117</v>
       </c>
@@ -10065,93 +12831,341 @@
       <c r="AM59">
         <v>59</v>
       </c>
-    </row>
-    <row r="60" spans="2:39">
+      <c r="AW59" t="s">
+        <v>1543</v>
+      </c>
+      <c r="AX59" t="s">
+        <v>1534</v>
+      </c>
+      <c r="AY59" t="s">
+        <v>1534</v>
+      </c>
+      <c r="AZ59">
+        <v>1</v>
+      </c>
+      <c r="BA59">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="2:53">
       <c r="M60" t="s">
         <v>176</v>
       </c>
       <c r="N60" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="61" spans="2:39">
+      <c r="AW60" t="s">
+        <v>1544</v>
+      </c>
+      <c r="AX60" t="s">
+        <v>1563</v>
+      </c>
+      <c r="AY60" t="s">
+        <v>1535</v>
+      </c>
+      <c r="AZ60">
+        <v>2</v>
+      </c>
+      <c r="BA60">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="2:53">
       <c r="M61" t="s">
         <v>177</v>
       </c>
       <c r="N61" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="62" spans="2:39">
+      <c r="AW61" t="s">
+        <v>1545</v>
+      </c>
+      <c r="AX61" t="s">
+        <v>1564</v>
+      </c>
+      <c r="AY61" t="s">
+        <v>1536</v>
+      </c>
+      <c r="AZ61">
+        <v>0</v>
+      </c>
+      <c r="BA61">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="2:53">
       <c r="M62" t="s">
         <v>178</v>
       </c>
       <c r="N62" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="63" spans="2:39" ht="18">
+      <c r="AW62" t="s">
+        <v>1546</v>
+      </c>
+      <c r="AX62" t="s">
+        <v>1565</v>
+      </c>
+      <c r="AY62" t="s">
+        <v>1537</v>
+      </c>
+      <c r="AZ62">
+        <v>0</v>
+      </c>
+      <c r="BA62">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="2:53" ht="18">
       <c r="M63" s="1" t="s">
         <v>179</v>
       </c>
       <c r="N63" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="64" spans="2:39">
+      <c r="AW63" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX63" t="s">
+        <v>1566</v>
+      </c>
+      <c r="AY63" t="s">
+        <v>803</v>
+      </c>
+      <c r="AZ63">
+        <v>3</v>
+      </c>
+      <c r="BA63">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="2:53">
       <c r="M64" t="s">
         <v>180</v>
       </c>
       <c r="N64" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="65" spans="13:14">
+      <c r="AW64" t="s">
+        <v>1547</v>
+      </c>
+      <c r="AX64" t="s">
+        <v>1567</v>
+      </c>
+      <c r="AY64" t="s">
+        <v>1538</v>
+      </c>
+      <c r="AZ64">
+        <v>0</v>
+      </c>
+      <c r="BA64">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="13:53">
       <c r="M65" t="s">
         <v>181</v>
       </c>
       <c r="N65" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="66" spans="13:14">
+      <c r="AW65" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AX65" t="s">
+        <v>1568</v>
+      </c>
+      <c r="AY65" t="s">
+        <v>1539</v>
+      </c>
+      <c r="AZ65">
+        <v>0</v>
+      </c>
+      <c r="BA65">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="13:53">
       <c r="M66" t="s">
         <v>182</v>
       </c>
       <c r="N66" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="67" spans="13:14">
+      <c r="AW66" t="s">
+        <v>1540</v>
+      </c>
+      <c r="AX66" t="s">
+        <v>1569</v>
+      </c>
+      <c r="AY66" t="s">
+        <v>1540</v>
+      </c>
+      <c r="AZ66">
+        <v>0</v>
+      </c>
+      <c r="BA66">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="13:53">
       <c r="M67" t="s">
         <v>183</v>
       </c>
       <c r="N67" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="68" spans="13:14" ht="18">
+      <c r="AW67" t="s">
+        <v>1541</v>
+      </c>
+      <c r="AX67" t="s">
+        <v>1570</v>
+      </c>
+      <c r="AY67" t="s">
+        <v>1541</v>
+      </c>
+      <c r="AZ67">
+        <v>0</v>
+      </c>
+      <c r="BA67">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="13:53" ht="18">
       <c r="M68" s="1" t="s">
         <v>184</v>
       </c>
       <c r="N68" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="69" spans="13:14">
+      <c r="AW68" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AX68" t="s">
+        <v>1571</v>
+      </c>
+      <c r="AY68" t="s">
+        <v>1542</v>
+      </c>
+      <c r="AZ68">
+        <v>0</v>
+      </c>
+      <c r="BA68">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="13:53">
       <c r="M69" t="s">
         <v>185</v>
       </c>
       <c r="N69" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="70" spans="13:14">
+      <c r="AW69" t="s">
+        <v>1556</v>
+      </c>
+      <c r="AX69" t="s">
+        <v>1577</v>
+      </c>
+      <c r="AY69" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AZ69">
+        <v>0</v>
+      </c>
+      <c r="BA69">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="13:53">
       <c r="M70" t="s">
         <v>186</v>
       </c>
       <c r="N70" t="s">
         <v>330</v>
+      </c>
+      <c r="AW70" t="s">
+        <v>1557</v>
+      </c>
+      <c r="AX70" t="s">
+        <v>1572</v>
+      </c>
+      <c r="AY70" t="s">
+        <v>1551</v>
+      </c>
+      <c r="AZ70">
+        <v>0</v>
+      </c>
+      <c r="BA70">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="13:53">
+      <c r="AW71" t="s">
+        <v>1558</v>
+      </c>
+      <c r="AX71" t="s">
+        <v>1573</v>
+      </c>
+      <c r="AY71" t="s">
+        <v>1552</v>
+      </c>
+      <c r="AZ71">
+        <v>0</v>
+      </c>
+      <c r="BA71">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="13:53">
+      <c r="AW72" t="s">
+        <v>1559</v>
+      </c>
+      <c r="AX72" t="s">
+        <v>1574</v>
+      </c>
+      <c r="AY72" t="s">
+        <v>1553</v>
+      </c>
+      <c r="AZ72">
+        <v>0</v>
+      </c>
+      <c r="BA72">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="13:53">
+      <c r="AW73" t="s">
+        <v>1560</v>
+      </c>
+      <c r="AX73" t="s">
+        <v>1575</v>
+      </c>
+      <c r="AY73" t="s">
+        <v>1554</v>
+      </c>
+      <c r="AZ73">
+        <v>0</v>
+      </c>
+      <c r="BA73">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="13:53">
+      <c r="AW74" t="s">
+        <v>1561</v>
+      </c>
+      <c r="AX74" t="s">
+        <v>1576</v>
+      </c>
+      <c r="AY74" t="s">
+        <v>1555</v>
+      </c>
+      <c r="AZ74">
+        <v>0</v>
+      </c>
+      <c r="BA74">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -11176,10 +14190,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{921C8C7D-D659-404D-A76D-1086BADEDC7C}">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q164"/>
   <sheetViews>
-    <sheetView zoomScale="169" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="C12" zoomScale="169" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -11194,9 +14208,6 @@
       <c r="C1" t="s">
         <v>1074</v>
       </c>
-      <c r="G1" t="s">
-        <v>1099</v>
-      </c>
       <c r="H1" t="s">
         <v>1100</v>
       </c>
@@ -11238,17 +14249,35 @@
       <c r="C2" t="s">
         <v>1075</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1098</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1121</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1134</v>
+      <c r="H2" t="s">
+        <v>1241</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1264</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1281</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1282</v>
+      </c>
+      <c r="M2" t="s">
+        <v>709</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1283</v>
+      </c>
+      <c r="O2" t="s">
+        <v>1284</v>
+      </c>
+      <c r="P2" t="s">
+        <v>1281</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>1285</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -11261,17 +14290,15 @@
       <c r="C3" t="s">
         <v>1076</v>
       </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1098</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1122</v>
+      <c r="E3" t="b">
+        <f>IF($B$1:$B$11=E18,$C$1:$C$11)</f>
+        <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>1135</v>
+        <v>1255</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1268</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -11284,17 +14311,12 @@
       <c r="C4" t="s">
         <v>1077</v>
       </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1098</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1123</v>
-      </c>
       <c r="G4" t="s">
-        <v>1136</v>
+        <v>1242</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" ref="J4:J11" si="0">_xlfn.CONCAT(G4,$J$2)</f>
+        <v>にはい</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -11307,17 +14329,11 @@
       <c r="C5" t="s">
         <v>1078</v>
       </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1098</v>
-      </c>
-      <c r="F5" t="s">
-        <v>1124</v>
-      </c>
       <c r="G5" t="s">
-        <v>1137</v>
+        <v>1243</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1270</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -11330,17 +14346,12 @@
       <c r="C6" t="s">
         <v>1079</v>
       </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1098</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1125</v>
-      </c>
       <c r="G6" t="s">
-        <v>1138</v>
+        <v>1244</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>よんはい</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -11353,17 +14364,12 @@
       <c r="C7" t="s">
         <v>1080</v>
       </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1098</v>
-      </c>
-      <c r="F7" t="s">
-        <v>1126</v>
-      </c>
       <c r="G7" t="s">
-        <v>1139</v>
+        <v>1245</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>ごはい</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -11376,17 +14382,11 @@
       <c r="C8" t="s">
         <v>1081</v>
       </c>
-      <c r="D8">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1098</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1127</v>
-      </c>
       <c r="G8" t="s">
-        <v>1140</v>
+        <v>1246</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1272</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -11399,17 +14399,12 @@
       <c r="C9" t="s">
         <v>1082</v>
       </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1098</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1128</v>
-      </c>
       <c r="G9" t="s">
-        <v>1141</v>
+        <v>1247</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>ななはい</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -11422,17 +14417,11 @@
       <c r="C10" t="s">
         <v>1083</v>
       </c>
-      <c r="D10">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1098</v>
-      </c>
-      <c r="F10" t="s">
-        <v>1129</v>
-      </c>
       <c r="G10" t="s">
-        <v>1142</v>
+        <v>1248</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1274</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -11445,17 +14434,12 @@
       <c r="C11" t="s">
         <v>1084</v>
       </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1098</v>
-      </c>
-      <c r="F11" t="s">
-        <v>1130</v>
-      </c>
       <c r="G11" t="s">
-        <v>1143</v>
+        <v>1249</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>きゅうはい</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -11468,17 +14452,11 @@
       <c r="C12" t="s">
         <v>1085</v>
       </c>
-      <c r="D12">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1098</v>
-      </c>
-      <c r="F12" t="s">
-        <v>1131</v>
-      </c>
       <c r="G12" t="s">
-        <v>1144</v>
+        <v>113</v>
+      </c>
+      <c r="J12" t="s">
+        <v>1276</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -11491,6 +14469,12 @@
       <c r="C13" t="s">
         <v>1086</v>
       </c>
+      <c r="G13" t="s">
+        <v>1250</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1280</v>
+      </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14">
@@ -11524,8 +14508,41 @@
       <c r="C16" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="K16">
+        <v>6</v>
+      </c>
+      <c r="L16">
+        <v>7</v>
+      </c>
+      <c r="M16">
+        <v>8</v>
+      </c>
+      <c r="N16">
+        <v>9</v>
+      </c>
+      <c r="O16">
+        <v>10</v>
+      </c>
+      <c r="P16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17">
         <v>7</v>
       </c>
@@ -11535,8 +14552,41 @@
       <c r="C17" t="s">
         <v>1090</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="E17" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1075</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1076</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1077</v>
+      </c>
+      <c r="J17" t="s">
+        <v>1078</v>
+      </c>
+      <c r="K17" t="s">
+        <v>1079</v>
+      </c>
+      <c r="L17" t="s">
+        <v>1080</v>
+      </c>
+      <c r="M17" t="s">
+        <v>1081</v>
+      </c>
+      <c r="N17" t="s">
+        <v>1082</v>
+      </c>
+      <c r="O17" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18">
         <v>8</v>
       </c>
@@ -11546,8 +14596,29 @@
       <c r="C18" t="s">
         <v>1091</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" t="s">
+        <v>1393</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1084</v>
+      </c>
+      <c r="K18" t="s">
+        <v>1089</v>
+      </c>
+      <c r="M18" t="s">
+        <v>1091</v>
+      </c>
+      <c r="O18" t="s">
+        <v>1093</v>
+      </c>
+      <c r="P18" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19">
         <v>9</v>
       </c>
@@ -11557,8 +14628,20 @@
       <c r="C19" t="s">
         <v>1092</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" t="s">
+        <v>1394</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1110</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20">
         <v>10</v>
       </c>
@@ -11568,8 +14651,32 @@
       <c r="C20" t="s">
         <v>1093</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" t="s">
+        <v>1391</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1352</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1353</v>
+      </c>
+      <c r="K20" t="s">
+        <v>1354</v>
+      </c>
+      <c r="M20" t="s">
+        <v>1355</v>
+      </c>
+      <c r="O20" t="s">
+        <v>1356</v>
+      </c>
+      <c r="P20" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21">
         <v>11</v>
       </c>
@@ -11579,8 +14686,14 @@
       <c r="C21" t="s">
         <v>1094</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" t="s">
+        <v>1392</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22">
         <v>1</v>
       </c>
@@ -11590,8 +14703,23 @@
       <c r="C22" t="s">
         <v>1110</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" t="s">
+        <v>1241</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1240</v>
+      </c>
+      <c r="M22" t="s">
+        <v>1251</v>
+      </c>
+      <c r="P22" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23">
         <v>2</v>
       </c>
@@ -11601,8 +14729,32 @@
       <c r="C23" t="s">
         <v>1111</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H23" t="s">
+        <v>1256</v>
+      </c>
+      <c r="K23" t="s">
+        <v>1258</v>
+      </c>
+      <c r="M23" t="s">
+        <v>1260</v>
+      </c>
+      <c r="O23" t="s">
+        <v>1277</v>
+      </c>
+      <c r="P23" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24">
         <v>3</v>
       </c>
@@ -11612,8 +14764,32 @@
       <c r="C24" t="s">
         <v>1112</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1267</v>
+      </c>
+      <c r="H24" t="s">
+        <v>1396</v>
+      </c>
+      <c r="K24" t="s">
+        <v>1271</v>
+      </c>
+      <c r="M24" t="s">
+        <v>1273</v>
+      </c>
+      <c r="O24" t="s">
+        <v>1275</v>
+      </c>
+      <c r="P24" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25">
         <v>4</v>
       </c>
@@ -11623,8 +14799,32 @@
       <c r="C25" t="s">
         <v>1113</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F25" t="s">
+        <v>941</v>
+      </c>
+      <c r="H25" t="s">
+        <v>1286</v>
+      </c>
+      <c r="K25" t="s">
+        <v>1287</v>
+      </c>
+      <c r="M25" t="s">
+        <v>1289</v>
+      </c>
+      <c r="O25" t="s">
+        <v>1291</v>
+      </c>
+      <c r="P25" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26">
         <v>5</v>
       </c>
@@ -11634,8 +14834,23 @@
       <c r="C26" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1104</v>
+      </c>
+      <c r="I26" t="s">
+        <v>1296</v>
+      </c>
+      <c r="L26" t="s">
+        <v>1297</v>
+      </c>
+      <c r="N26" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27">
         <v>6</v>
       </c>
@@ -11645,8 +14860,17 @@
       <c r="C27" t="s">
         <v>1115</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" t="s">
+        <v>709</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1105</v>
+      </c>
+      <c r="N27" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28">
         <v>7</v>
       </c>
@@ -11656,8 +14880,35 @@
       <c r="C28" t="s">
         <v>1116</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" t="s">
+        <v>1283</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1305</v>
+      </c>
+      <c r="H28" t="s">
+        <v>1307</v>
+      </c>
+      <c r="I28" t="s">
+        <v>1309</v>
+      </c>
+      <c r="K28" t="s">
+        <v>1311</v>
+      </c>
+      <c r="M28" t="s">
+        <v>1313</v>
+      </c>
+      <c r="O28" t="s">
+        <v>1315</v>
+      </c>
+      <c r="P28" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29">
         <v>8</v>
       </c>
@@ -11667,8 +14918,29 @@
       <c r="C29" t="s">
         <v>1117</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" t="s">
+        <v>1284</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1395</v>
+      </c>
+      <c r="H29" t="s">
+        <v>1319</v>
+      </c>
+      <c r="M29" t="s">
+        <v>1320</v>
+      </c>
+      <c r="O29" t="s">
+        <v>1321</v>
+      </c>
+      <c r="P29" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30">
         <v>9</v>
       </c>
@@ -11678,8 +14950,34 @@
       <c r="C30" t="s">
         <v>1118</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1364</v>
+      </c>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4" t="s">
+        <v>1287</v>
+      </c>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4" t="s">
+        <v>1289</v>
+      </c>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4" t="s">
+        <v>1291</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31">
         <v>10</v>
       </c>
@@ -11689,8 +14987,32 @@
       <c r="C31" t="s">
         <v>1119</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1358</v>
+      </c>
+      <c r="H31" t="s">
+        <v>1323</v>
+      </c>
+      <c r="K31" t="s">
+        <v>1325</v>
+      </c>
+      <c r="M31" t="s">
+        <v>1327</v>
+      </c>
+      <c r="O31" t="s">
+        <v>1329</v>
+      </c>
+      <c r="P31" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32">
         <v>11</v>
       </c>
@@ -11699,6 +15021,1879 @@
       </c>
       <c r="C32" t="s">
         <v>1120</v>
+      </c>
+      <c r="F32" t="s">
+        <v>959</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H32" t="s">
+        <v>1243</v>
+      </c>
+      <c r="I32" t="s">
+        <v>1244</v>
+      </c>
+      <c r="J32" t="s">
+        <v>1245</v>
+      </c>
+      <c r="K32" t="s">
+        <v>1246</v>
+      </c>
+      <c r="L32" t="s">
+        <v>1247</v>
+      </c>
+      <c r="M32" t="s">
+        <v>1248</v>
+      </c>
+      <c r="N32" t="s">
+        <v>1249</v>
+      </c>
+      <c r="O32" t="s">
+        <v>113</v>
+      </c>
+      <c r="P32" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="3">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="3">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="3">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="3">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="3">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="3">
+        <v>6</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="3">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="3">
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="3">
+        <v>9</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="3">
+        <v>10</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="3">
+        <v>11</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="3">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="3">
+        <v>2</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="3">
+        <v>3</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="3">
+        <v>4</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="3">
+        <v>5</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="3">
+        <v>6</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="3">
+        <v>7</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="3">
+        <v>8</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="3">
+        <v>9</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="3">
+        <v>10</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="3">
+        <v>11</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="3">
+        <v>1</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="3">
+        <v>2</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" ref="C56:C61" si="1">_xlfn.CONCAT(G4,$H$2)</f>
+        <v>にさつ</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="3">
+        <v>3</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="1"/>
+        <v>さんさつ</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="3">
+        <v>4</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="1"/>
+        <v>よんさつ</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="3">
+        <v>5</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="1"/>
+        <v>ごさつ</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="3">
+        <v>6</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" si="1"/>
+        <v>ろくさつ</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="3">
+        <v>7</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" si="1"/>
+        <v>ななさつ</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="3">
+        <v>8</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="3">
+        <v>9</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C63" t="str">
+        <f>_xlfn.CONCAT(G11,$H$2)</f>
+        <v>きゅうさつ</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="3">
+        <v>10</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C64" t="str">
+        <f>_xlfn.CONCAT(G12,$H$2)</f>
+        <v>じゅうさつ</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="3">
+        <v>11</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="3">
+        <v>1</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E66" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="3">
+        <v>2</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C67" t="str">
+        <f>_xlfn.CONCAT(G4,$I$2)</f>
+        <v>にほん</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E67" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="3">
+        <v>3</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1269</v>
+      </c>
+      <c r="E68" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="3">
+        <v>4</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C69" t="str">
+        <f>_xlfn.CONCAT(G6,$I$2)</f>
+        <v>よんほん</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E69" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="3">
+        <v>5</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C70" t="str">
+        <f>_xlfn.CONCAT(G7,$I$2)</f>
+        <v>ごほん</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1335</v>
+      </c>
+      <c r="E70" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="3">
+        <v>6</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E71" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="3">
+        <v>7</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C72" t="str">
+        <f>_xlfn.CONCAT(G9,$I$2)</f>
+        <v>ななほん</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E72" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="3">
+        <v>8</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E73" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="3">
+        <v>9</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C74" t="str">
+        <f>_xlfn.CONCAT(G11,$I$2)</f>
+        <v>きゅうほん</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E74" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="3">
+        <v>10</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1275</v>
+      </c>
+      <c r="E75" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="3">
+        <v>11</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1279</v>
+      </c>
+      <c r="E76" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="3">
+        <v>1</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="3">
+        <v>2</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="3">
+        <v>3</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="3">
+        <v>4</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="3">
+        <v>5</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1335</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="3">
+        <v>6</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="3">
+        <v>7</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="3">
+        <v>8</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="3">
+        <v>9</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="3">
+        <v>10</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="3">
+        <v>11</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="3">
+        <v>1</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C88" t="str">
+        <f>_xlfn.CONCAT($G3,K$2)</f>
+        <v>いっかい</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="3">
+        <v>2</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C89" t="str">
+        <f>_xlfn.CONCAT($G4,K$2)</f>
+        <v>にかい</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="3">
+        <v>3</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C90" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="3">
+        <v>4</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C91" t="str">
+        <f>_xlfn.CONCAT($G6,K$2)</f>
+        <v>よんかい</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="3">
+        <v>5</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C92" t="str">
+        <f>_xlfn.CONCAT($G7,K$2)</f>
+        <v>ごかい</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="3">
+        <v>6</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="3">
+        <v>7</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C94" t="str">
+        <f>_xlfn.CONCAT($G9,K$2)</f>
+        <v>ななかい</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="3">
+        <v>8</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="3">
+        <v>9</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C96" t="str">
+        <f>_xlfn.CONCAT($G11,K$2)</f>
+        <v>きゅうかい</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="3">
+        <v>10</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="3">
+        <v>11</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="3">
+        <v>1</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D99" t="s">
+        <v>1299</v>
+      </c>
+      <c r="E99" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="3">
+        <v>2</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C100" t="str">
+        <f>_xlfn.CONCAT($G4,L$2)</f>
+        <v>にじ</v>
+      </c>
+      <c r="D100" t="s">
+        <v>1375</v>
+      </c>
+      <c r="E100" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="3">
+        <v>3</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C101" t="str">
+        <f>_xlfn.CONCAT($G5,L$2)</f>
+        <v>さんじ</v>
+      </c>
+      <c r="D101" t="s">
+        <v>1301</v>
+      </c>
+      <c r="E101" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="3">
+        <v>4</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D102" t="s">
+        <v>1376</v>
+      </c>
+      <c r="E102" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="3">
+        <v>5</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C103" t="str">
+        <f>_xlfn.CONCAT($G7,L$2)</f>
+        <v>ごじ</v>
+      </c>
+      <c r="D103" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E103" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="3">
+        <v>6</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C104" t="str">
+        <f>_xlfn.CONCAT($G8,L$2)</f>
+        <v>ろくじ</v>
+      </c>
+      <c r="D104" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E104" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="3">
+        <v>7</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D105" t="s">
+        <v>1379</v>
+      </c>
+      <c r="E105" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="3">
+        <v>8</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C106" t="str">
+        <f>_xlfn.CONCAT($G10,L$2)</f>
+        <v>はちじ</v>
+      </c>
+      <c r="D106" t="s">
+        <v>1380</v>
+      </c>
+      <c r="E106" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="3">
+        <v>9</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D107" t="s">
+        <v>1303</v>
+      </c>
+      <c r="E107" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="3">
+        <v>10</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C108" t="str">
+        <f>_xlfn.CONCAT($G12,L$2)</f>
+        <v>じゅうじ</v>
+      </c>
+      <c r="D108" t="s">
+        <v>1381</v>
+      </c>
+      <c r="E108" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="3">
+        <v>11</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C109" t="str">
+        <f>_xlfn.CONCAT($G13,L$2)</f>
+        <v>じゅういちじ</v>
+      </c>
+      <c r="D109" t="s">
+        <v>1382</v>
+      </c>
+      <c r="E109" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="3">
+        <v>1</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D110" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="3">
+        <v>2</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C111" t="str">
+        <f>_xlfn.CONCAT($G4,M$2)</f>
+        <v>にじかん</v>
+      </c>
+      <c r="D111" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="3">
+        <v>3</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D112" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="3">
+        <v>4</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C113" t="str">
+        <f>_xlfn.CONCAT($G6,M$2)</f>
+        <v>よんじかん</v>
+      </c>
+      <c r="D113" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="3">
+        <v>5</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C114" t="str">
+        <f>_xlfn.CONCAT($G7,M$2)</f>
+        <v>ごじかん</v>
+      </c>
+      <c r="D114" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="3">
+        <v>6</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C115" t="str">
+        <f>_xlfn.CONCAT($G8,M$2)</f>
+        <v>ろくじかん</v>
+      </c>
+      <c r="D115" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="3">
+        <v>7</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C116" t="str">
+        <f>_xlfn.CONCAT($G9,M$2)</f>
+        <v>ななじかん</v>
+      </c>
+      <c r="D116" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="3">
+        <v>8</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C117" t="str">
+        <f>_xlfn.CONCAT($G10,M$2)</f>
+        <v>はちじかん</v>
+      </c>
+      <c r="D117" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="3">
+        <v>9</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D118" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="3">
+        <v>10</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C119" t="str">
+        <f>_xlfn.CONCAT($G12,M$2)</f>
+        <v>じゅうじかん</v>
+      </c>
+      <c r="D119" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="3">
+        <v>11</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C120" t="str">
+        <f>_xlfn.CONCAT($G13,M$2)</f>
+        <v>じゅういちじかん</v>
+      </c>
+      <c r="D120" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="3">
+        <v>1</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C121" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="3">
+        <v>2</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C122" t="str">
+        <f>_xlfn.CONCAT($G4,N$2)</f>
+        <v>にふん</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="3">
+        <v>3</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C123" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="3">
+        <v>4</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C124" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="3">
+        <v>5</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C125" t="str">
+        <f>_xlfn.CONCAT($G7,N$2)</f>
+        <v>ごふん</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="3">
+        <v>6</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C126" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="3">
+        <v>7</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C127" t="str">
+        <f>_xlfn.CONCAT($G9,N$2)</f>
+        <v>ななふん</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="3">
+        <v>8</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C128" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="3">
+        <v>9</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C129" t="str">
+        <f>_xlfn.CONCAT($G11,N$2)</f>
+        <v>きゅうふん</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="3">
+        <v>10</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C130" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="3">
+        <v>11</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C131" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="3">
+        <v>1</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C132" t="str">
+        <f>_xlfn.CONCAT($G3,O$2)</f>
+        <v>いっそく</v>
+      </c>
+      <c r="D132" t="s">
+        <v>1364</v>
+      </c>
+      <c r="E132" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="3">
+        <v>2</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C133" t="str">
+        <f>_xlfn.CONCAT($G4,O$2)</f>
+        <v>にそく</v>
+      </c>
+      <c r="D133" t="s">
+        <v>1365</v>
+      </c>
+      <c r="E133" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="3">
+        <v>3</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C134" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>1366</v>
+      </c>
+      <c r="E134" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="3">
+        <v>4</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C135" t="str">
+        <f>_xlfn.CONCAT($G6,O$2)</f>
+        <v>よんそく</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>1367</v>
+      </c>
+      <c r="E135" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="3">
+        <v>5</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C136" t="str">
+        <f>_xlfn.CONCAT($G7,O$2)</f>
+        <v>ごそく</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E136" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="3">
+        <v>6</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C137" t="str">
+        <f>_xlfn.CONCAT($G8,O$2)</f>
+        <v>ろくそく</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E137" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="3">
+        <v>7</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C138" t="str">
+        <f>_xlfn.CONCAT($G9,O$2)</f>
+        <v>ななそく</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>1369</v>
+      </c>
+      <c r="E138" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="3">
+        <v>8</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C139" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E139" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="3">
+        <v>9</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C140" t="str">
+        <f>_xlfn.CONCAT($G11,O$2)</f>
+        <v>きゅうそく</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>1370</v>
+      </c>
+      <c r="E140" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="3">
+        <v>10</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C141" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E141" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="3">
+        <v>11</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C142" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>1293</v>
+      </c>
+      <c r="E142" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="3">
+        <v>1</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C143" t="str">
+        <f>_xlfn.CONCAT($G3,P$2)</f>
+        <v>いっかい</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="3">
+        <v>2</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C144" t="str">
+        <f>_xlfn.CONCAT($G4,P$2)</f>
+        <v>にかい</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="3">
+        <v>3</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C145" t="str">
+        <f>_xlfn.CONCAT($G5,P$2)</f>
+        <v>さんかい</v>
+      </c>
+      <c r="D145" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="3">
+        <v>4</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C146" t="str">
+        <f>_xlfn.CONCAT($G6,P$2)</f>
+        <v>よんかい</v>
+      </c>
+      <c r="D146" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="3">
+        <v>5</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C147" t="str">
+        <f>_xlfn.CONCAT($G7,P$2)</f>
+        <v>ごかい</v>
+      </c>
+      <c r="D147" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="3">
+        <v>6</v>
+      </c>
+      <c r="B148" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C148" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D148" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="3">
+        <v>7</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C149" t="str">
+        <f>_xlfn.CONCAT($G9,P$2)</f>
+        <v>ななかい</v>
+      </c>
+      <c r="D149" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="3">
+        <v>8</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C150" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D150" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="3">
+        <v>9</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C151" t="str">
+        <f>_xlfn.CONCAT($G11,P$2)</f>
+        <v>きゅうかい</v>
+      </c>
+      <c r="D151" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="3">
+        <v>10</v>
+      </c>
+      <c r="B152" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C152" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D152" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="3">
+        <v>11</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C153" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D153" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="3">
+        <v>1</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C154" t="str">
+        <f>_xlfn.CONCAT($G3,Q$2)</f>
+        <v>いっけん</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="3">
+        <v>2</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C155" t="str">
+        <f>_xlfn.CONCAT($G4,Q$2)</f>
+        <v>にけん</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="3">
+        <v>3</v>
+      </c>
+      <c r="B156" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C156" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="3">
+        <v>4</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C157" t="str">
+        <f>_xlfn.CONCAT($G6,Q$2)</f>
+        <v>よんけん</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="3">
+        <v>5</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C158" t="str">
+        <f>_xlfn.CONCAT($G7,Q$2)</f>
+        <v>ごけん</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="3">
+        <v>6</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C159" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="3">
+        <v>7</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C160" t="str">
+        <f>_xlfn.CONCAT($G9,Q$2)</f>
+        <v>ななけん</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="3">
+        <v>8</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C161" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="3">
+        <v>9</v>
+      </c>
+      <c r="B162" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C162" t="str">
+        <f>_xlfn.CONCAT($G11,Q$2)</f>
+        <v>きゅうけん</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="3">
+        <v>10</v>
+      </c>
+      <c r="B163" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C163" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="3">
+        <v>11</v>
+      </c>
+      <c r="B164" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C164" t="s">
+        <v>1332</v>
       </c>
     </row>
   </sheetData>
@@ -11709,20 +16904,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA60FF6-0EF9-AD40-83E3-AB5573C72BDA}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView zoomScale="200" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A2" zoomScale="200" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
       <c r="B1" t="s">
         <v>1132</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>1040</v>
       </c>
@@ -11730,76 +16925,573 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>519</v>
       </c>
       <c r="B3" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="D3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E3">
+        <f>COUNTIF($B$2:$B$100,D3)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>1041</v>
       </c>
       <c r="B4" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="D4" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E17" si="0">COUNTIF($B$2:$B$100,D4)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>1100</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="D5" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>518</v>
       </c>
       <c r="B6" t="s">
         <v>1101</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="D6" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>520</v>
       </c>
       <c r="B7" t="s">
         <v>1100</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="D7" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>65</v>
       </c>
       <c r="B8" t="s">
         <v>1101</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="D8" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>589</v>
       </c>
       <c r="B9" t="s">
         <v>1099</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="D9" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>23</v>
       </c>
       <c r="B10" t="s">
         <v>1098</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="D10" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>1133</v>
       </c>
       <c r="B11" t="s">
         <v>1107</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>568</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>710</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>710</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>710</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>710</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>68</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1095</v>
       </c>
     </row>
   </sheetData>

--- a/the_word.xlsx
+++ b/the_word.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linyuxiang/Desktop/code/Learning_Japanese/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C6091D-D461-1F43-835C-4A799DAE8211}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B25F91-22FC-2D41-87AF-36C096CEA1DD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="460" windowWidth="26740" windowHeight="16080" xr2:uid="{60B39602-CA03-F040-8524-C5DD9C0222AC}"/>
+    <workbookView xWindow="1760" yWindow="460" windowWidth="26740" windowHeight="16080" activeTab="3" xr2:uid="{60B39602-CA03-F040-8524-C5DD9C0222AC}"/>
   </bookViews>
   <sheets>
     <sheet name="單字" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2262" uniqueCount="1642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2338" uniqueCount="1683">
   <si>
     <t>あし</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5770,18 +5770,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>きにょうび</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>どようび</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>なにょうび</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>きのう</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6017,10 +6009,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>しょくひだい</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ほてるだい</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6335,6 +6323,182 @@
   </si>
   <si>
     <t>bargain_sale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h開頭都換成p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除了nin mai ji jikan，其他都是はっ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不變</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 2 換成ri</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 6 8 10 p 3b </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 3 4 6 8 10 p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nin mai satsu ji jikan 正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きんようび</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しょくじだい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なんようび</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おととし</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一昨年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ことし</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再来年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毎週</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毎月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毎年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>らいねん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さらいねん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>まいしゅう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>まいつき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>まいとし</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>後年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每週</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>う</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>え</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>お</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前是あ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前是い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前是う</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前是え</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前是お</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6390,7 +6554,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6408,6 +6572,9 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6723,10 +6890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D03D34A-BA0A-4C4B-8E51-02C16EDC5D6C}">
-  <dimension ref="A1:BO74"/>
+  <dimension ref="A1:BO81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV1" zoomScale="183" zoomScaleNormal="222" workbookViewId="0">
-      <selection activeCell="AX73" sqref="AX73"/>
+    <sheetView topLeftCell="AV20" zoomScale="183" zoomScaleNormal="222" workbookViewId="0">
+      <selection activeCell="AY34" sqref="AY34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6901,13 +7068,13 @@
         <v>1238</v>
       </c>
       <c r="BK1" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="BL1" t="s">
-        <v>1613</v>
+        <v>1610</v>
       </c>
       <c r="BM1" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="BN1">
         <v>0</v>
@@ -7041,13 +7208,13 @@
         <v>2</v>
       </c>
       <c r="BK2" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="BL2" t="s">
         <v>1009</v>
       </c>
       <c r="BM2" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="BN2">
         <v>0</v>
@@ -7184,13 +7351,13 @@
         <v>3</v>
       </c>
       <c r="BK3" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
       <c r="BL3" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="BM3" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="BN3">
         <v>0</v>
@@ -7327,13 +7494,13 @@
         <v>4</v>
       </c>
       <c r="BK4" t="s">
-        <v>1614</v>
+        <v>1611</v>
       </c>
       <c r="BL4" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
       <c r="BM4" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
       <c r="BN4">
         <v>4</v>
@@ -7610,7 +7777,7 @@
         <v>859</v>
       </c>
       <c r="BL6" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="BM6" t="s">
         <v>851</v>
@@ -7753,10 +7920,10 @@
         <v>1285</v>
       </c>
       <c r="BL7" t="s">
-        <v>1618</v>
+        <v>1615</v>
       </c>
       <c r="BM7" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="BN7">
         <v>4</v>
@@ -7893,13 +8060,13 @@
         <v>8</v>
       </c>
       <c r="BK8" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="BL8" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="BM8" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="BN8">
         <v>3</v>
@@ -8036,13 +8203,13 @@
         <v>9</v>
       </c>
       <c r="BK9" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
       <c r="BL9" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="BM9" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="BN9">
         <v>2</v>
@@ -8176,13 +8343,13 @@
         <v>10</v>
       </c>
       <c r="BK10" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="BL10" t="s">
         <v>626</v>
       </c>
       <c r="BM10" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="BN10">
         <v>3</v>
@@ -8292,7 +8459,7 @@
         <v>1433</v>
       </c>
       <c r="AY11" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="AZ11">
         <v>0</v>
@@ -8316,13 +8483,13 @@
         <v>11</v>
       </c>
       <c r="BK11" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="BL11" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
       <c r="BM11" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="BN11">
         <v>0</v>
@@ -8450,13 +8617,13 @@
         <v>12</v>
       </c>
       <c r="BK12" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="BL12" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="BM12" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="BN12">
         <v>0</v>
@@ -8584,13 +8751,13 @@
         <v>13</v>
       </c>
       <c r="BK13" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="BL13" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="BM13" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="BN13">
         <v>0</v>
@@ -8718,13 +8885,13 @@
         <v>14</v>
       </c>
       <c r="BK14" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
       <c r="BL14" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="BM14" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="BN14">
         <v>2</v>
@@ -8852,13 +9019,13 @@
         <v>15</v>
       </c>
       <c r="BK15" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
       <c r="BL15" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="BM15" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="BN15">
         <v>2</v>
@@ -8986,13 +9153,13 @@
         <v>16</v>
       </c>
       <c r="BK16" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
       <c r="BL16" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
       <c r="BM16" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="BN16">
         <v>3</v>
@@ -9120,13 +9287,13 @@
         <v>17</v>
       </c>
       <c r="BK17" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
       <c r="BL17" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="BM17" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="BN17">
         <v>2</v>
@@ -9254,13 +9421,13 @@
         <v>18</v>
       </c>
       <c r="BK18" t="s">
-        <v>1609</v>
+        <v>1606</v>
       </c>
       <c r="BL18" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
       <c r="BM18" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="BN18">
         <v>0</v>
@@ -9382,13 +9549,13 @@
         <v>19</v>
       </c>
       <c r="BK19" t="s">
-        <v>1610</v>
+        <v>1607</v>
       </c>
       <c r="BL19" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="BM19" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="BN19">
         <v>4</v>
@@ -9510,13 +9677,13 @@
         <v>20</v>
       </c>
       <c r="BK20" t="s">
-        <v>1611</v>
+        <v>1608</v>
       </c>
       <c r="BL20" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="BM20" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="BN20">
         <v>0</v>
@@ -9638,13 +9805,13 @@
         <v>21</v>
       </c>
       <c r="BK21" t="s">
-        <v>1612</v>
+        <v>1609</v>
       </c>
       <c r="BL21" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
       <c r="BM21" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
       <c r="BN21">
         <v>0</v>
@@ -9740,7 +9907,7 @@
         <v>1459</v>
       </c>
       <c r="AX22" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="AY22" t="s">
         <v>1460</v>
@@ -9767,13 +9934,13 @@
         <v>22</v>
       </c>
       <c r="BK22" t="s">
-        <v>1633</v>
+        <v>1630</v>
       </c>
       <c r="BL22" t="s">
-        <v>1629</v>
+        <v>1626</v>
       </c>
       <c r="BM22" t="s">
-        <v>1634</v>
+        <v>1631</v>
       </c>
       <c r="BN22">
         <v>0</v>
@@ -9895,13 +10062,13 @@
         <v>23</v>
       </c>
       <c r="BK23" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="BL23" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
       <c r="BM23" t="s">
-        <v>1635</v>
+        <v>1632</v>
       </c>
       <c r="BN23">
         <v>0</v>
@@ -10023,13 +10190,13 @@
         <v>24</v>
       </c>
       <c r="BK24" t="s">
-        <v>1640</v>
+        <v>1637</v>
       </c>
       <c r="BL24" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
       <c r="BM24" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
       <c r="BN24">
         <v>0</v>
@@ -10154,13 +10321,13 @@
         <v>25</v>
       </c>
       <c r="BK25" t="s">
-        <v>1636</v>
+        <v>1633</v>
       </c>
       <c r="BL25" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="BM25" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
       <c r="BN25">
         <v>0</v>
@@ -10689,7 +10856,7 @@
         <v>1450</v>
       </c>
       <c r="AX30" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="AY30" t="s">
         <v>1451</v>
@@ -11509,7 +11676,7 @@
         <v>1493</v>
       </c>
       <c r="AX38" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="AY38" t="s">
         <v>1475</v>
@@ -11601,7 +11768,7 @@
         <v>1494</v>
       </c>
       <c r="AX39" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="AY39" t="s">
         <v>1476</v>
@@ -11693,7 +11860,7 @@
         <v>1495</v>
       </c>
       <c r="AX40" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="AY40" t="s">
         <v>1477</v>
@@ -11785,7 +11952,7 @@
         <v>1496</v>
       </c>
       <c r="AX41" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="AY41" t="s">
         <v>1478</v>
@@ -11877,7 +12044,7 @@
         <v>1497</v>
       </c>
       <c r="AX42" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="AY42" t="s">
         <v>1479</v>
@@ -11966,10 +12133,10 @@
         <v>43</v>
       </c>
       <c r="AW43" t="s">
-        <v>1498</v>
+        <v>1649</v>
       </c>
       <c r="AX43" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="AY43" t="s">
         <v>1480</v>
@@ -12043,10 +12210,10 @@
         <v>44</v>
       </c>
       <c r="AW44" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="AX44" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AY44" t="s">
         <v>1481</v>
@@ -12105,10 +12272,10 @@
         <v>45</v>
       </c>
       <c r="AW45" t="s">
-        <v>1500</v>
+        <v>1651</v>
       </c>
       <c r="AX45" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="AY45" t="s">
         <v>1482</v>
@@ -12167,10 +12334,10 @@
         <v>46</v>
       </c>
       <c r="AW46" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="AX46" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="AY46" t="s">
         <v>1483</v>
@@ -12291,10 +12458,10 @@
         <v>48</v>
       </c>
       <c r="AW48" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="AX48" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="AY48" t="s">
         <v>1484</v>
@@ -12356,10 +12523,10 @@
         <v>1485</v>
       </c>
       <c r="AX49" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="AY49" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="AZ49">
         <v>1</v>
@@ -12415,10 +12582,10 @@
         <v>50</v>
       </c>
       <c r="AW50" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="AX50" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="AY50" t="s">
         <v>1486</v>
@@ -12477,10 +12644,10 @@
         <v>51</v>
       </c>
       <c r="AW51" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="AX51" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="AY51" t="s">
         <v>1487</v>
@@ -12524,10 +12691,10 @@
         <v>52</v>
       </c>
       <c r="AW52" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="AX52" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="AY52" t="s">
         <v>1488</v>
@@ -12568,10 +12735,10 @@
         <v>53</v>
       </c>
       <c r="AW53" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="AX53" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="AY53" t="s">
         <v>1489</v>
@@ -12612,10 +12779,10 @@
         <v>54</v>
       </c>
       <c r="AW54" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="AX54" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="AY54" t="s">
         <v>1490</v>
@@ -12656,10 +12823,10 @@
         <v>55</v>
       </c>
       <c r="AW55" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="AX55" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="AY55" t="s">
         <v>1491</v>
@@ -12700,10 +12867,10 @@
         <v>56</v>
       </c>
       <c r="AW56" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="AX56" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="AY56" t="s">
         <v>1492</v>
@@ -12744,13 +12911,13 @@
         <v>57</v>
       </c>
       <c r="AW57" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="AX57" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
       <c r="AY57" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="AZ57">
         <v>0</v>
@@ -12794,7 +12961,7 @@
         <v>221</v>
       </c>
       <c r="AY58" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="AZ58">
         <v>2</v>
@@ -12832,13 +12999,13 @@
         <v>59</v>
       </c>
       <c r="AW59" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="AX59" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="AY59" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="AZ59">
         <v>1</v>
@@ -12855,13 +13022,13 @@
         <v>321</v>
       </c>
       <c r="AW60" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="AX60" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
       <c r="AY60" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="AZ60">
         <v>2</v>
@@ -12878,13 +13045,13 @@
         <v>320</v>
       </c>
       <c r="AW61" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="AX61" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
       <c r="AY61" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="AZ61">
         <v>0</v>
@@ -12901,13 +13068,13 @@
         <v>322</v>
       </c>
       <c r="AW62" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="AX62" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
       <c r="AY62" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="AZ62">
         <v>0</v>
@@ -12927,7 +13094,7 @@
         <v>110</v>
       </c>
       <c r="AX63" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
       <c r="AY63" t="s">
         <v>803</v>
@@ -12947,13 +13114,13 @@
         <v>324</v>
       </c>
       <c r="AW64" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="AX64" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
       <c r="AY64" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="AZ64">
         <v>0</v>
@@ -12970,13 +13137,13 @@
         <v>325</v>
       </c>
       <c r="AW65" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="AX65" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="AY65" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="AZ65">
         <v>0</v>
@@ -12993,13 +13160,13 @@
         <v>326</v>
       </c>
       <c r="AW66" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="AX66" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
       <c r="AY66" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="AZ66">
         <v>0</v>
@@ -13016,13 +13183,13 @@
         <v>327</v>
       </c>
       <c r="AW67" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="AX67" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="AY67" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="AZ67">
         <v>0</v>
@@ -13039,13 +13206,13 @@
         <v>328</v>
       </c>
       <c r="AW68" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="AX68" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="AY68" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="AZ68">
         <v>0</v>
@@ -13062,13 +13229,13 @@
         <v>329</v>
       </c>
       <c r="AW69" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="AX69" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="AY69" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="AZ69">
         <v>0</v>
@@ -13085,13 +13252,13 @@
         <v>330</v>
       </c>
       <c r="AW70" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="AX70" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="AY70" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="AZ70">
         <v>0</v>
@@ -13102,13 +13269,13 @@
     </row>
     <row r="71" spans="13:53">
       <c r="AW71" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="AX71" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
       <c r="AY71" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="AZ71">
         <v>0</v>
@@ -13119,13 +13286,13 @@
     </row>
     <row r="72" spans="13:53">
       <c r="AW72" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="AX72" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
       <c r="AY72" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="AZ72">
         <v>0</v>
@@ -13136,13 +13303,13 @@
     </row>
     <row r="73" spans="13:53">
       <c r="AW73" t="s">
-        <v>1560</v>
+        <v>1650</v>
       </c>
       <c r="AX73" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
       <c r="AY73" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="AZ73">
         <v>0</v>
@@ -13153,19 +13320,138 @@
     </row>
     <row r="74" spans="13:53">
       <c r="AW74" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
       <c r="AX74" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
       <c r="AY74" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="AZ74">
         <v>0</v>
       </c>
       <c r="BA74">
         <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="13:53">
+      <c r="AW75" t="s">
+        <v>1652</v>
+      </c>
+      <c r="AX75" t="s">
+        <v>1668</v>
+      </c>
+      <c r="AY75" t="s">
+        <v>1653</v>
+      </c>
+      <c r="AZ75">
+        <v>0</v>
+      </c>
+      <c r="BA75">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="13:53">
+      <c r="AW76" t="s">
+        <v>1654</v>
+      </c>
+      <c r="AX76" t="s">
+        <v>1655</v>
+      </c>
+      <c r="AY76" t="s">
+        <v>1655</v>
+      </c>
+      <c r="AZ76">
+        <v>0</v>
+      </c>
+      <c r="BA76">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="13:53">
+      <c r="AW77" t="s">
+        <v>1661</v>
+      </c>
+      <c r="AX77" t="s">
+        <v>1669</v>
+      </c>
+      <c r="AY77" t="s">
+        <v>1656</v>
+      </c>
+      <c r="AZ77">
+        <v>3</v>
+      </c>
+      <c r="BA77">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="13:53">
+      <c r="AW78" t="s">
+        <v>1662</v>
+      </c>
+      <c r="AX78" t="s">
+        <v>1670</v>
+      </c>
+      <c r="AY78" t="s">
+        <v>1657</v>
+      </c>
+      <c r="AZ78">
+        <v>2</v>
+      </c>
+      <c r="BA78">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="13:53">
+      <c r="AW79" t="s">
+        <v>1663</v>
+      </c>
+      <c r="AX79" t="s">
+        <v>1671</v>
+      </c>
+      <c r="AY79" t="s">
+        <v>1658</v>
+      </c>
+      <c r="AZ79">
+        <v>4</v>
+      </c>
+      <c r="BA79">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="13:53">
+      <c r="AW80" t="s">
+        <v>1664</v>
+      </c>
+      <c r="AX80" t="s">
+        <v>1667</v>
+      </c>
+      <c r="AY80" t="s">
+        <v>1659</v>
+      </c>
+      <c r="AZ80">
+        <v>3</v>
+      </c>
+      <c r="BA80">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="49:53">
+      <c r="AW81" t="s">
+        <v>1665</v>
+      </c>
+      <c r="AX81" t="s">
+        <v>1666</v>
+      </c>
+      <c r="AY81" t="s">
+        <v>1660</v>
+      </c>
+      <c r="AZ81">
+        <v>2</v>
+      </c>
+      <c r="BA81">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -14190,10 +14476,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{921C8C7D-D659-404D-A76D-1086BADEDC7C}">
-  <dimension ref="A1:Q164"/>
+  <dimension ref="A1:R164"/>
   <sheetViews>
-    <sheetView topLeftCell="C12" zoomScale="169" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView topLeftCell="E15" zoomScale="182" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -14508,41 +14794,41 @@
       <c r="C16" t="s">
         <v>1089</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="6">
         <v>1</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="6">
         <v>2</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="6">
         <v>3</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="6">
         <v>4</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="6">
         <v>5</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="6">
         <v>6</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="6">
         <v>7</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="6">
         <v>8</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="6">
         <v>9</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="6">
         <v>10</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="6">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:18">
       <c r="A17">
         <v>7</v>
       </c>
@@ -14586,7 +14872,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:18">
       <c r="A18">
         <v>8</v>
       </c>
@@ -14617,8 +14903,11 @@
       <c r="P18" t="s">
         <v>1094</v>
       </c>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="R18" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19">
         <v>9</v>
       </c>
@@ -14640,8 +14929,11 @@
       <c r="G19" t="s">
         <v>1111</v>
       </c>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="R19" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20">
         <v>10</v>
       </c>
@@ -14675,8 +14967,11 @@
       <c r="P20" t="s">
         <v>1357</v>
       </c>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="R20" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21">
         <v>11</v>
       </c>
@@ -14692,8 +14987,11 @@
       <c r="E21" t="s">
         <v>1099</v>
       </c>
-    </row>
-    <row r="22" spans="1:16">
+      <c r="R21" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22">
         <v>1</v>
       </c>
@@ -14718,8 +15016,11 @@
       <c r="P22" t="s">
         <v>1253</v>
       </c>
-    </row>
-    <row r="23" spans="1:16">
+      <c r="R22" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23">
         <v>2</v>
       </c>
@@ -14753,8 +15054,11 @@
       <c r="P23" t="s">
         <v>1262</v>
       </c>
-    </row>
-    <row r="24" spans="1:16">
+      <c r="R23" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24">
         <v>3</v>
       </c>
@@ -14788,8 +15092,11 @@
       <c r="P24" t="s">
         <v>1279</v>
       </c>
-    </row>
-    <row r="25" spans="1:16">
+      <c r="R24" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25">
         <v>4</v>
       </c>
@@ -14823,8 +15130,11 @@
       <c r="P25" t="s">
         <v>1293</v>
       </c>
-    </row>
-    <row r="26" spans="1:16">
+      <c r="R25" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26">
         <v>5</v>
       </c>
@@ -14849,8 +15159,11 @@
       <c r="N26" t="s">
         <v>1298</v>
       </c>
-    </row>
-    <row r="27" spans="1:16">
+      <c r="R26" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27">
         <v>6</v>
       </c>
@@ -14869,8 +15182,11 @@
       <c r="N27" t="s">
         <v>1303</v>
       </c>
-    </row>
-    <row r="28" spans="1:16">
+      <c r="R27" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28">
         <v>7</v>
       </c>
@@ -14907,8 +15223,11 @@
       <c r="P28" t="s">
         <v>1317</v>
       </c>
-    </row>
-    <row r="29" spans="1:16">
+      <c r="R28" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29">
         <v>8</v>
       </c>
@@ -14939,8 +15258,11 @@
       <c r="P29" t="s">
         <v>1322</v>
       </c>
-    </row>
-    <row r="30" spans="1:16">
+      <c r="R29" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30">
         <v>9</v>
       </c>
@@ -14976,8 +15298,11 @@
       <c r="P30" s="4" t="s">
         <v>1293</v>
       </c>
-    </row>
-    <row r="31" spans="1:16">
+      <c r="R30" s="4" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31">
         <v>10</v>
       </c>
@@ -15011,8 +15336,11 @@
       <c r="P31" t="s">
         <v>1331</v>
       </c>
-    </row>
-    <row r="32" spans="1:16">
+      <c r="R31" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32">
         <v>11</v>
       </c>
@@ -15056,7 +15384,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:15">
       <c r="A33" s="3">
         <v>1</v>
       </c>
@@ -15067,7 +15395,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:15">
       <c r="A34" s="3">
         <v>2</v>
       </c>
@@ -15077,8 +15405,20 @@
       <c r="C34" t="s">
         <v>1122</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="F34" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K34" t="s">
+        <v>1639</v>
+      </c>
+      <c r="M34" t="s">
+        <v>1639</v>
+      </c>
+      <c r="O34" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="3">
         <v>3</v>
       </c>
@@ -15088,8 +15428,11 @@
       <c r="C35" t="s">
         <v>1123</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="M35" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="3">
         <v>4</v>
       </c>
@@ -15099,8 +15442,11 @@
       <c r="C36" t="s">
         <v>1124</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="O36" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="3">
         <v>5</v>
       </c>
@@ -15111,7 +15457,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:15">
       <c r="A38" s="3">
         <v>6</v>
       </c>
@@ -15122,7 +15468,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:15">
       <c r="A39" s="3">
         <v>7</v>
       </c>
@@ -15133,7 +15479,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:15">
       <c r="A40" s="3">
         <v>8</v>
       </c>
@@ -15144,7 +15490,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:15">
       <c r="A41" s="3">
         <v>9</v>
       </c>
@@ -15155,7 +15501,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:15">
       <c r="A42" s="3">
         <v>10</v>
       </c>
@@ -15166,7 +15512,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:15">
       <c r="A43" s="3">
         <v>11</v>
       </c>
@@ -15177,7 +15523,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:15">
       <c r="A44" s="3">
         <v>1</v>
       </c>
@@ -15191,7 +15537,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:15">
       <c r="A45" s="3">
         <v>2</v>
       </c>
@@ -15205,7 +15551,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:15">
       <c r="A46" s="3">
         <v>3</v>
       </c>
@@ -15219,7 +15565,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:15">
       <c r="A47" s="3">
         <v>4</v>
       </c>
@@ -15233,7 +15579,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:15">
       <c r="A48" s="3">
         <v>5</v>
       </c>
@@ -16904,28 +17250,61 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA60FF6-0EF9-AD40-83E3-AB5573C72BDA}">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="200" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:13">
       <c r="B1" t="s">
         <v>1132</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="I1" t="s">
+        <v>1677</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1679</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>1040</v>
       </c>
       <c r="B2" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="H2" t="s">
+        <v>1672</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1682</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1682</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1682</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1682</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>519</v>
       </c>
@@ -16939,8 +17318,26 @@
         <f>COUNTIF($B$2:$B$100,D3)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="H3" t="s">
+        <v>1673</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1682</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1682</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1682</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1675</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>1041</v>
       </c>
@@ -16954,8 +17351,26 @@
         <f t="shared" ref="E4:E17" si="0">COUNTIF($B$2:$B$100,D4)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="H4" t="s">
+        <v>1674</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1682</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1682</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1682</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1682</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -16969,8 +17384,26 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="H5" t="s">
+        <v>1675</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1682</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1682</v>
+      </c>
+      <c r="K5" t="s">
+        <v>1682</v>
+      </c>
+      <c r="L5" t="s">
+        <v>1673</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>518</v>
       </c>
@@ -16984,8 +17417,26 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="H6" t="s">
+        <v>1676</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1682</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1682</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1682</v>
+      </c>
+      <c r="L6" t="s">
+        <v>1682</v>
+      </c>
+      <c r="M6" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>520</v>
       </c>
@@ -17000,7 +17451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -17015,7 +17466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>589</v>
       </c>
@@ -17030,7 +17481,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -17045,7 +17496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>1133</v>
       </c>
@@ -17060,7 +17511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>1050</v>
       </c>
@@ -17075,7 +17526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>1338</v>
       </c>
@@ -17090,7 +17541,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>1339</v>
       </c>
@@ -17105,7 +17556,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>568</v>
       </c>
@@ -17120,7 +17571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>62</v>
       </c>

--- a/the_word.xlsx
+++ b/the_word.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linyuxiang/Desktop/code/Learning_Japanese/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B25F91-22FC-2D41-87AF-36C096CEA1DD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630B897B-85A6-F54F-A722-8185F37E5A76}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="460" windowWidth="26740" windowHeight="16080" activeTab="3" xr2:uid="{60B39602-CA03-F040-8524-C5DD9C0222AC}"/>
+    <workbookView xWindow="10500" yWindow="460" windowWidth="15520" windowHeight="16080" xr2:uid="{60B39602-CA03-F040-8524-C5DD9C0222AC}"/>
   </bookViews>
   <sheets>
     <sheet name="單字" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2338" uniqueCount="1683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2422" uniqueCount="1757">
   <si>
     <t>あし</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6499,6 +6499,291 @@
   </si>
   <si>
     <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>にほんご</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本語</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面白い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>言います</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食べ物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>スペイン語</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こんにゃく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国語</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ドイツ語</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>フランス語</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>イタリア語</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おもしろい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いいます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たべもの</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>スペインご</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちゅうごくご</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ドイツご</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>イタリアご</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日語</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有趣的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稱作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西班牙語</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒟蒻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はし</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>箸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中國語</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德語</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法語</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>義大利語</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さんか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>參加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>むかし</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漬物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中心</t>
+  </si>
+  <si>
+    <t>中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しかし</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乳製品</t>
+  </si>
+  <si>
+    <t>乳製品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中華料理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>スパゲッティ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spaghetti</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子供達</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こどもたち</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外国料理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>がいこくりょうり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>言い方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いいかた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>然而</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かてい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>にほんしょく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つけもの</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちゅうしん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>げんざい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>にゅうせいひん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おうべい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちゅうかりょうり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>從前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本料理</t>
+  </si>
+  <si>
+    <t>醬菜</t>
+  </si>
+  <si>
+    <t>當前</t>
+  </si>
+  <si>
+    <t>西方國家</t>
+  </si>
+  <si>
+    <t>房子</t>
+  </si>
+  <si>
+    <t>中國菜</t>
+  </si>
+  <si>
+    <t>孩子</t>
+  </si>
+  <si>
+    <t>外國食品</t>
+  </si>
+  <si>
+    <t>說的方式</t>
+  </si>
+  <si>
+    <t>意大利麵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>フランスご</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6892,8 +7177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D03D34A-BA0A-4C4B-8E51-02C16EDC5D6C}">
   <dimension ref="A1:BO81"/>
   <sheetViews>
-    <sheetView topLeftCell="AV20" zoomScale="183" zoomScaleNormal="222" workbookViewId="0">
-      <selection activeCell="AY34" sqref="AY34"/>
+    <sheetView tabSelected="1" topLeftCell="BI22" zoomScale="183" zoomScaleNormal="222" workbookViewId="0">
+      <selection activeCell="BK35" sqref="BK35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6902,6 +7187,7 @@
     <col min="49" max="49" width="17.33203125" customWidth="1"/>
     <col min="50" max="50" width="15" customWidth="1"/>
     <col min="56" max="56" width="19" customWidth="1"/>
+    <col min="63" max="63" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67">
@@ -10448,6 +10734,21 @@
       <c r="BH26">
         <v>26</v>
       </c>
+      <c r="BK26" t="s">
+        <v>1683</v>
+      </c>
+      <c r="BL26" t="s">
+        <v>1701</v>
+      </c>
+      <c r="BM26" t="s">
+        <v>1684</v>
+      </c>
+      <c r="BN26">
+        <v>0</v>
+      </c>
+      <c r="BO26">
+        <v>26</v>
+      </c>
     </row>
     <row r="27" spans="2:67">
       <c r="B27" t="s">
@@ -10561,6 +10862,21 @@
       <c r="BH27">
         <v>27</v>
       </c>
+      <c r="BK27" t="s">
+        <v>1694</v>
+      </c>
+      <c r="BL27" t="s">
+        <v>1702</v>
+      </c>
+      <c r="BM27" t="s">
+        <v>1685</v>
+      </c>
+      <c r="BN27">
+        <v>0</v>
+      </c>
+      <c r="BO27">
+        <v>27</v>
+      </c>
     </row>
     <row r="28" spans="2:67">
       <c r="B28" t="s">
@@ -10668,6 +10984,21 @@
       <c r="BH28">
         <v>28</v>
       </c>
+      <c r="BK28" t="s">
+        <v>1695</v>
+      </c>
+      <c r="BL28" t="s">
+        <v>1703</v>
+      </c>
+      <c r="BM28" t="s">
+        <v>1686</v>
+      </c>
+      <c r="BN28">
+        <v>0</v>
+      </c>
+      <c r="BO28">
+        <v>28</v>
+      </c>
     </row>
     <row r="29" spans="2:67">
       <c r="B29" t="s">
@@ -10775,6 +11106,21 @@
       <c r="BH29">
         <v>29</v>
       </c>
+      <c r="BK29" t="s">
+        <v>1696</v>
+      </c>
+      <c r="BL29" t="s">
+        <v>1704</v>
+      </c>
+      <c r="BM29" t="s">
+        <v>1687</v>
+      </c>
+      <c r="BN29">
+        <v>0</v>
+      </c>
+      <c r="BO29">
+        <v>29</v>
+      </c>
     </row>
     <row r="30" spans="2:67">
       <c r="B30" t="s">
@@ -10882,6 +11228,21 @@
       <c r="BH30">
         <v>30</v>
       </c>
+      <c r="BK30" t="s">
+        <v>1697</v>
+      </c>
+      <c r="BL30" t="s">
+        <v>1705</v>
+      </c>
+      <c r="BM30" t="s">
+        <v>1688</v>
+      </c>
+      <c r="BN30">
+        <v>0</v>
+      </c>
+      <c r="BO30">
+        <v>30</v>
+      </c>
     </row>
     <row r="31" spans="2:67">
       <c r="B31" t="s">
@@ -10989,6 +11350,21 @@
       <c r="BH31">
         <v>31</v>
       </c>
+      <c r="BK31" t="s">
+        <v>1689</v>
+      </c>
+      <c r="BL31" t="s">
+        <v>1706</v>
+      </c>
+      <c r="BM31" t="s">
+        <v>1689</v>
+      </c>
+      <c r="BN31">
+        <v>0</v>
+      </c>
+      <c r="BO31">
+        <v>31</v>
+      </c>
     </row>
     <row r="32" spans="2:67">
       <c r="B32" t="s">
@@ -11096,8 +11472,23 @@
       <c r="BH32">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="2:60">
+      <c r="BK32" t="s">
+        <v>1707</v>
+      </c>
+      <c r="BL32" t="s">
+        <v>33</v>
+      </c>
+      <c r="BM32" t="s">
+        <v>1708</v>
+      </c>
+      <c r="BN32">
+        <v>0</v>
+      </c>
+      <c r="BO32">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="2:67">
       <c r="B33" t="s">
         <v>59</v>
       </c>
@@ -11203,8 +11594,23 @@
       <c r="BH33">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="2:60">
+      <c r="BK33" t="s">
+        <v>1698</v>
+      </c>
+      <c r="BL33" t="s">
+        <v>1709</v>
+      </c>
+      <c r="BM33" t="s">
+        <v>1690</v>
+      </c>
+      <c r="BN33">
+        <v>0</v>
+      </c>
+      <c r="BO33">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="2:67">
       <c r="B34" t="s">
         <v>60</v>
       </c>
@@ -11310,8 +11716,23 @@
       <c r="BH34">
         <v>34</v>
       </c>
-    </row>
-    <row r="35" spans="2:60">
+      <c r="BK34" t="s">
+        <v>1699</v>
+      </c>
+      <c r="BL34" t="s">
+        <v>1710</v>
+      </c>
+      <c r="BM34" t="s">
+        <v>1691</v>
+      </c>
+      <c r="BN34">
+        <v>0</v>
+      </c>
+      <c r="BO34">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="2:67">
       <c r="B35" t="s">
         <v>61</v>
       </c>
@@ -11408,8 +11829,23 @@
       <c r="BH35">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="2:60" ht="18">
+      <c r="BK35" t="s">
+        <v>1756</v>
+      </c>
+      <c r="BL35" t="s">
+        <v>1711</v>
+      </c>
+      <c r="BM35" t="s">
+        <v>1692</v>
+      </c>
+      <c r="BN35">
+        <v>0</v>
+      </c>
+      <c r="BO35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="2:67" ht="18">
       <c r="B36" t="s">
         <v>62</v>
       </c>
@@ -11506,8 +11942,23 @@
       <c r="BH36">
         <v>36</v>
       </c>
-    </row>
-    <row r="37" spans="2:60">
+      <c r="BK36" t="s">
+        <v>1700</v>
+      </c>
+      <c r="BL36" t="s">
+        <v>1712</v>
+      </c>
+      <c r="BM36" t="s">
+        <v>1693</v>
+      </c>
+      <c r="BN36">
+        <v>0</v>
+      </c>
+      <c r="BO36">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="2:67">
       <c r="B37" t="s">
         <v>63</v>
       </c>
@@ -11604,8 +12055,23 @@
       <c r="BH37">
         <v>37</v>
       </c>
-    </row>
-    <row r="38" spans="2:60" ht="18">
+      <c r="BK37" t="s">
+        <v>1713</v>
+      </c>
+      <c r="BL37" t="s">
+        <v>1715</v>
+      </c>
+      <c r="BM37" t="s">
+        <v>1714</v>
+      </c>
+      <c r="BN37">
+        <v>0</v>
+      </c>
+      <c r="BO37">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="2:67" ht="18">
       <c r="B38" t="s">
         <v>64</v>
       </c>
@@ -11702,8 +12168,23 @@
       <c r="BH38">
         <v>38</v>
       </c>
-    </row>
-    <row r="39" spans="2:60">
+      <c r="BK38" t="s">
+        <v>1716</v>
+      </c>
+      <c r="BL38" t="s">
+        <v>1745</v>
+      </c>
+      <c r="BM38" t="s">
+        <v>1717</v>
+      </c>
+      <c r="BN38">
+        <v>0</v>
+      </c>
+      <c r="BO38">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="2:67">
       <c r="B39" t="s">
         <v>65</v>
       </c>
@@ -11794,8 +12275,23 @@
       <c r="BH39">
         <v>39</v>
       </c>
-    </row>
-    <row r="40" spans="2:60">
+      <c r="BK39" t="s">
+        <v>1737</v>
+      </c>
+      <c r="BL39" t="s">
+        <v>1718</v>
+      </c>
+      <c r="BM39" t="s">
+        <v>1718</v>
+      </c>
+      <c r="BN39">
+        <v>0</v>
+      </c>
+      <c r="BO39">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="2:67">
       <c r="B40" t="s">
         <v>78</v>
       </c>
@@ -11886,8 +12382,23 @@
       <c r="BH40">
         <v>40</v>
       </c>
-    </row>
-    <row r="41" spans="2:60">
+      <c r="BK40" t="s">
+        <v>1738</v>
+      </c>
+      <c r="BL40" t="s">
+        <v>1746</v>
+      </c>
+      <c r="BM40" t="s">
+        <v>1719</v>
+      </c>
+      <c r="BN40">
+        <v>0</v>
+      </c>
+      <c r="BO40">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="2:67">
       <c r="B41" t="s">
         <v>79</v>
       </c>
@@ -11978,8 +12489,23 @@
       <c r="BH41">
         <v>41</v>
       </c>
-    </row>
-    <row r="42" spans="2:60">
+      <c r="BK41" t="s">
+        <v>1739</v>
+      </c>
+      <c r="BL41" t="s">
+        <v>1747</v>
+      </c>
+      <c r="BM41" t="s">
+        <v>1720</v>
+      </c>
+      <c r="BN41">
+        <v>3</v>
+      </c>
+      <c r="BO41">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="2:67">
       <c r="B42" t="s">
         <v>80</v>
       </c>
@@ -12070,8 +12596,23 @@
       <c r="BH42">
         <v>42</v>
       </c>
-    </row>
-    <row r="43" spans="2:60">
+      <c r="BK42" t="s">
+        <v>1740</v>
+      </c>
+      <c r="BL42" t="s">
+        <v>1721</v>
+      </c>
+      <c r="BM42" t="s">
+        <v>1722</v>
+      </c>
+      <c r="BN42">
+        <v>0</v>
+      </c>
+      <c r="BO42">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="2:67">
       <c r="B43" t="s">
         <v>81</v>
       </c>
@@ -12162,8 +12703,23 @@
       <c r="BH43">
         <v>43</v>
       </c>
-    </row>
-    <row r="44" spans="2:60" ht="18">
+      <c r="BK43" t="s">
+        <v>1723</v>
+      </c>
+      <c r="BL43" t="s">
+        <v>1736</v>
+      </c>
+      <c r="BM43" t="s">
+        <v>1723</v>
+      </c>
+      <c r="BN43">
+        <v>0</v>
+      </c>
+      <c r="BO43">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="2:67" ht="18">
       <c r="B44" t="s">
         <v>82</v>
       </c>
@@ -12224,8 +12780,23 @@
       <c r="BA44">
         <v>44</v>
       </c>
-    </row>
-    <row r="45" spans="2:60">
+      <c r="BK44" t="s">
+        <v>1741</v>
+      </c>
+      <c r="BL44" t="s">
+        <v>1748</v>
+      </c>
+      <c r="BM44" t="s">
+        <v>676</v>
+      </c>
+      <c r="BN44">
+        <v>0</v>
+      </c>
+      <c r="BO44">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="2:67">
       <c r="B45" t="s">
         <v>83</v>
       </c>
@@ -12286,8 +12857,23 @@
       <c r="BA45">
         <v>45</v>
       </c>
-    </row>
-    <row r="46" spans="2:60">
+      <c r="BK45" t="s">
+        <v>1742</v>
+      </c>
+      <c r="BL45" t="s">
+        <v>1724</v>
+      </c>
+      <c r="BM45" t="s">
+        <v>1725</v>
+      </c>
+      <c r="BN45">
+        <v>0</v>
+      </c>
+      <c r="BO45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="2:67">
       <c r="B46" t="s">
         <v>90</v>
       </c>
@@ -12348,8 +12934,23 @@
       <c r="BA46">
         <v>46</v>
       </c>
-    </row>
-    <row r="47" spans="2:60">
+      <c r="BK46" t="s">
+        <v>1743</v>
+      </c>
+      <c r="BL46" t="s">
+        <v>1749</v>
+      </c>
+      <c r="BM46" t="s">
+        <v>1726</v>
+      </c>
+      <c r="BN46">
+        <v>0</v>
+      </c>
+      <c r="BO46">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="2:67">
       <c r="B47" t="s">
         <v>91</v>
       </c>
@@ -12410,8 +13011,23 @@
       <c r="BA47">
         <v>47</v>
       </c>
-    </row>
-    <row r="48" spans="2:60" ht="18">
+      <c r="BK47" t="s">
+        <v>811</v>
+      </c>
+      <c r="BL47" t="s">
+        <v>862</v>
+      </c>
+      <c r="BM47" t="s">
+        <v>812</v>
+      </c>
+      <c r="BN47">
+        <v>0</v>
+      </c>
+      <c r="BO47">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="2:67" ht="18">
       <c r="B48" t="s">
         <v>92</v>
       </c>
@@ -12472,8 +13088,23 @@
       <c r="BA48">
         <v>48</v>
       </c>
-    </row>
-    <row r="49" spans="2:53">
+      <c r="BK48" t="s">
+        <v>903</v>
+      </c>
+      <c r="BL48" t="s">
+        <v>1750</v>
+      </c>
+      <c r="BM48" t="s">
+        <v>14</v>
+      </c>
+      <c r="BN48">
+        <v>3</v>
+      </c>
+      <c r="BO48">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="2:67">
       <c r="B49" t="s">
         <v>93</v>
       </c>
@@ -12534,8 +13165,23 @@
       <c r="BA49">
         <v>49</v>
       </c>
-    </row>
-    <row r="50" spans="2:53">
+      <c r="BK49" t="s">
+        <v>1744</v>
+      </c>
+      <c r="BL49" t="s">
+        <v>1751</v>
+      </c>
+      <c r="BM49" t="s">
+        <v>1727</v>
+      </c>
+      <c r="BN49">
+        <v>0</v>
+      </c>
+      <c r="BO49">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="2:67">
       <c r="B50" t="s">
         <v>94</v>
       </c>
@@ -12596,8 +13242,23 @@
       <c r="BA50">
         <v>50</v>
       </c>
-    </row>
-    <row r="51" spans="2:53">
+      <c r="BK50" t="s">
+        <v>1728</v>
+      </c>
+      <c r="BL50" t="s">
+        <v>1755</v>
+      </c>
+      <c r="BM50" t="s">
+        <v>1729</v>
+      </c>
+      <c r="BN50">
+        <v>0</v>
+      </c>
+      <c r="BO50">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="2:67">
       <c r="B51" t="s">
         <v>95</v>
       </c>
@@ -12658,8 +13319,23 @@
       <c r="BA51">
         <v>51</v>
       </c>
-    </row>
-    <row r="52" spans="2:53">
+      <c r="BK51" t="s">
+        <v>1731</v>
+      </c>
+      <c r="BL51" t="s">
+        <v>1752</v>
+      </c>
+      <c r="BM51" t="s">
+        <v>1730</v>
+      </c>
+      <c r="BN51">
+        <v>0</v>
+      </c>
+      <c r="BO51">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="2:67">
       <c r="B52" t="s">
         <v>110</v>
       </c>
@@ -12705,8 +13381,23 @@
       <c r="BA52">
         <v>52</v>
       </c>
-    </row>
-    <row r="53" spans="2:53" ht="18">
+      <c r="BK52" t="s">
+        <v>1733</v>
+      </c>
+      <c r="BL52" t="s">
+        <v>1753</v>
+      </c>
+      <c r="BM52" t="s">
+        <v>1732</v>
+      </c>
+      <c r="BN52">
+        <v>0</v>
+      </c>
+      <c r="BO52">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="2:67" ht="18">
       <c r="B53" t="s">
         <v>111</v>
       </c>
@@ -12749,8 +13440,23 @@
       <c r="BA53">
         <v>53</v>
       </c>
-    </row>
-    <row r="54" spans="2:53">
+      <c r="BK53" t="s">
+        <v>1735</v>
+      </c>
+      <c r="BL53" t="s">
+        <v>1754</v>
+      </c>
+      <c r="BM53" t="s">
+        <v>1734</v>
+      </c>
+      <c r="BN53">
+        <v>0</v>
+      </c>
+      <c r="BO53">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="2:67">
       <c r="B54" t="s">
         <v>112</v>
       </c>
@@ -12794,7 +13500,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="2:53">
+    <row r="55" spans="2:67">
       <c r="B55" t="s">
         <v>113</v>
       </c>
@@ -12838,7 +13544,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="2:53">
+    <row r="56" spans="2:67">
       <c r="B56" t="s">
         <v>114</v>
       </c>
@@ -12882,7 +13588,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="2:53">
+    <row r="57" spans="2:67">
       <c r="B57" t="s">
         <v>115</v>
       </c>
@@ -12926,7 +13632,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="2:53" ht="18">
+    <row r="58" spans="2:67" ht="18">
       <c r="B58" t="s">
         <v>116</v>
       </c>
@@ -12970,7 +13676,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="2:53">
+    <row r="59" spans="2:67">
       <c r="B59" t="s">
         <v>117</v>
       </c>
@@ -13014,7 +13720,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="2:53">
+    <row r="60" spans="2:67">
       <c r="M60" t="s">
         <v>176</v>
       </c>
@@ -13037,7 +13743,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="2:53">
+    <row r="61" spans="2:67">
       <c r="M61" t="s">
         <v>177</v>
       </c>
@@ -13060,7 +13766,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="2:53">
+    <row r="62" spans="2:67">
       <c r="M62" t="s">
         <v>178</v>
       </c>
@@ -13083,7 +13789,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="2:53" ht="18">
+    <row r="63" spans="2:67" ht="18">
       <c r="M63" s="1" t="s">
         <v>179</v>
       </c>
@@ -13106,7 +13812,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="2:53">
+    <row r="64" spans="2:67">
       <c r="M64" t="s">
         <v>180</v>
       </c>
@@ -17252,7 +17958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA60FF6-0EF9-AD40-83E3-AB5573C72BDA}">
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="200" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="200" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>

--- a/the_word.xlsx
+++ b/the_word.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linyuxiang/Desktop/code/Learning_Japanese/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630B897B-85A6-F54F-A722-8185F37E5A76}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03526F8E-4E50-3A4B-AA82-17242F6A58F1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10500" yWindow="460" windowWidth="15520" windowHeight="16080" xr2:uid="{60B39602-CA03-F040-8524-C5DD9C0222AC}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" activeTab="4" xr2:uid="{60B39602-CA03-F040-8524-C5DD9C0222AC}"/>
   </bookViews>
   <sheets>
     <sheet name="單字" sheetId="1" r:id="rId1"/>
     <sheet name="片語" sheetId="2" r:id="rId2"/>
     <sheet name="量詞" sheetId="5" r:id="rId3"/>
     <sheet name="工作表1" sheetId="6" r:id="rId4"/>
+    <sheet name="adj" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2422" uniqueCount="1757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2556" uniqueCount="1836">
   <si>
     <t>あし</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6784,6 +6785,322 @@
   </si>
   <si>
     <t>フランスご</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lesson8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lesson9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふるい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仏像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暖かい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新しい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ところ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楽しい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小さい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>長い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷たい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>広い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狭い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>難しい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黒い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厳しい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>優しい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少ない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涼しい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可愛い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>細い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>強い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄色い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰色い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>緑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深藍色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ビンク</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>グレイ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あたらしい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たのしい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちいさい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たかい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>やすい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ながい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>みじかい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つめたい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あたたかい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さむい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あるひ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あおい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひろい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せまい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>むずかしい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おおい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くろい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きびしい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>やさしい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すくない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すずしい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かわいい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふとい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ほそい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つよい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>よわい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じんこ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せんせい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>どうきゅうせい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>給料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きゅうりょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庭園</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ていえん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>まゆ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7175,10 +7492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D03D34A-BA0A-4C4B-8E51-02C16EDC5D6C}">
-  <dimension ref="A1:BO81"/>
+  <dimension ref="A1:CC81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BI22" zoomScale="183" zoomScaleNormal="222" workbookViewId="0">
-      <selection activeCell="BK35" sqref="BK35"/>
+    <sheetView topLeftCell="Z1" zoomScale="183" zoomScaleNormal="222" workbookViewId="0">
+      <selection activeCell="AE12" sqref="AE12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7190,7 +7507,7 @@
     <col min="63" max="63" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67">
+    <row r="1" spans="1:81">
       <c r="A1" t="s">
         <v>504</v>
       </c>
@@ -7368,8 +7685,32 @@
       <c r="BO1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:67">
+      <c r="BQ1" t="s">
+        <v>1757</v>
+      </c>
+      <c r="BU1">
+        <v>0</v>
+      </c>
+      <c r="BV1">
+        <v>1</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>1758</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>1759</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>1760</v>
+      </c>
+      <c r="CB1">
+        <v>0</v>
+      </c>
+      <c r="CC1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:81">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -7508,8 +7849,14 @@
       <c r="BO2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:67">
+      <c r="BV2">
+        <v>2</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="3" spans="1:81">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -7651,8 +7998,11 @@
       <c r="BO3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:67">
+      <c r="CA3" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="4" spans="1:81">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -7794,8 +8144,11 @@
       <c r="BO4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:67">
+      <c r="CA4" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="5" spans="1:81">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -7934,8 +8287,11 @@
       <c r="BO5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:67">
+      <c r="CA5" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="6" spans="1:81">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -8074,8 +8430,11 @@
       <c r="BO6">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:67">
+      <c r="CA6" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="7" spans="1:81">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -8217,8 +8576,11 @@
       <c r="BO7">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:67">
+      <c r="CA7" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="8" spans="1:81">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -8360,8 +8722,11 @@
       <c r="BO8">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:67">
+      <c r="CA8" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="9" spans="1:81">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -8503,8 +8868,11 @@
       <c r="BO9">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:67">
+      <c r="CA9" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="10" spans="1:81">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -8643,8 +9011,11 @@
       <c r="BO10">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:67">
+      <c r="CA10" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="11" spans="1:81">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -8784,7 +9155,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:67">
+    <row r="12" spans="1:81">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -8918,7 +9289,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:67">
+    <row r="13" spans="1:81">
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -9052,7 +9423,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:67">
+    <row r="14" spans="1:81">
       <c r="B14" t="s">
         <v>26</v>
       </c>
@@ -9186,7 +9557,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:67">
+    <row r="15" spans="1:81">
       <c r="B15" t="s">
         <v>27</v>
       </c>
@@ -9320,7 +9691,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:67">
+    <row r="16" spans="1:81">
       <c r="B16" t="s">
         <v>28</v>
       </c>
@@ -18655,4 +19026,463 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD73EEB3-8A12-3E4C-AF7B-1DC37755AE5A}">
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="156" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1760</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>925</v>
+      </c>
+      <c r="G1" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>1797</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1765</v>
+      </c>
+      <c r="F2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1768</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1808</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>592</v>
+      </c>
+      <c r="C4" t="s">
+        <v>591</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1813</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>1799</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1769</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1813</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F6" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>1801</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1771</v>
+      </c>
+      <c r="F7" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>1802</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1772</v>
+      </c>
+      <c r="F8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>1803</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1773</v>
+      </c>
+      <c r="F9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1813</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>1805</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1763</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1813</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1340</v>
+      </c>
+      <c r="G11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1766</v>
+      </c>
+      <c r="F12" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F13" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>1809</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>815</v>
+      </c>
+      <c r="C15" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1776</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1832</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>1811</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1777</v>
+      </c>
+      <c r="F17" t="s">
+        <v>831</v>
+      </c>
+      <c r="G17" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1778</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1813</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>1814</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1779</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1825</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>1815</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>948</v>
+      </c>
+      <c r="C21" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1781</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1813</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1827</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>1817</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1813</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1685</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1813</v>
+      </c>
+      <c r="F24" t="s">
+        <v>668</v>
+      </c>
+      <c r="G24" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1783</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1813</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1830</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>1819</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1784</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1813</v>
+      </c>
+      <c r="F26" t="s">
+        <v>71</v>
+      </c>
+      <c r="G26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1813</v>
+      </c>
+      <c r="F27" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1786</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1834</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>1822</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1787</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1834</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>1823</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="C32" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="C33" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="C34" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="C36" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="C37" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/the_word.xlsx
+++ b/the_word.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linyuxiang/Desktop/code/Learning_Japanese/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF34C065-7032-FB4B-A196-1F8B571944B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E3FAE7-ECAB-A343-90EE-4FBFF69199DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" xr2:uid="{60B39602-CA03-F040-8524-C5DD9C0222AC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2624" uniqueCount="1874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2625" uniqueCount="1874">
   <si>
     <t>あし</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7626,8 +7626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D03D34A-BA0A-4C4B-8E51-02C16EDC5D6C}">
   <dimension ref="A1:BV82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="183" zoomScaleNormal="222" workbookViewId="0">
-      <selection activeCell="BW1" sqref="BW1:BW1048576"/>
+    <sheetView tabSelected="1" topLeftCell="BI1" zoomScale="183" zoomScaleNormal="222" workbookViewId="0">
+      <selection activeCell="BM2" sqref="BM2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7959,6 +7959,9 @@
       </c>
       <c r="BS2" t="s">
         <v>1759</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>1863</v>
       </c>
       <c r="BU2" t="s">
         <v>1760</v>

--- a/the_word.xlsx
+++ b/the_word.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linyuxiang/Desktop/code/Learning_Japanese/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E3FAE7-ECAB-A343-90EE-4FBFF69199DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96B5049-635F-FF46-BC4F-D01E0D452D1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" xr2:uid="{60B39602-CA03-F040-8524-C5DD9C0222AC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2625" uniqueCount="1874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2626" uniqueCount="1874">
   <si>
     <t>あし</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7626,8 +7626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D03D34A-BA0A-4C4B-8E51-02C16EDC5D6C}">
   <dimension ref="A1:BV82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BI1" zoomScale="183" zoomScaleNormal="222" workbookViewId="0">
-      <selection activeCell="BM2" sqref="BM2"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScale="183" zoomScaleNormal="222" workbookViewId="0">
+      <selection activeCell="AT2" sqref="AT2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7708,6 +7708,9 @@
       </c>
       <c r="Z1" t="s">
         <v>1872</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>1873</v>
       </c>
       <c r="AB1" t="s">
         <v>734</v>
